--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,12 @@
     <t>['4']</t>
   </si>
   <si>
+    <t>['45+8', '53', '61', '77']</t>
+  </si>
+  <si>
+    <t>['4', '45+2']</t>
+  </si>
+  <si>
     <t>['72', '74']</t>
   </si>
   <si>
@@ -518,6 +524,18 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['9', '53', '87']</t>
+  </si>
+  <si>
+    <t>['15', '20']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['39', '61', '75']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1141,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1210,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT2">
         <v>2</v>
@@ -1314,7 +1332,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1505,7 +1523,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1592,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT4">
         <v>0.5</v>
@@ -1696,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1786,7 +1804,7 @@
         <v>1.17</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1887,7 +1905,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2269,7 +2287,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2356,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT8">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2460,7 +2478,7 @@
         <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2842,7 +2860,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2929,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT11">
         <v>0.6</v>
@@ -3033,7 +3051,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3123,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3224,7 +3242,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3314,7 +3332,7 @@
         <v>0.86</v>
       </c>
       <c r="AT13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3415,7 +3433,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3502,7 +3520,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
         <v>1.71</v>
@@ -3693,10 +3711,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU15">
         <v>0.68</v>
@@ -4179,7 +4197,7 @@
         <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4266,10 +4284,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT18">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU18">
         <v>2.08</v>
@@ -4370,7 +4388,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4561,7 +4579,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4842,7 +4860,7 @@
         <v>0.67</v>
       </c>
       <c r="AT21">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU21">
         <v>0.34</v>
@@ -5030,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT22">
         <v>0.14</v>
@@ -5134,7 +5152,7 @@
         <v>80</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5325,7 +5343,7 @@
         <v>80</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5606,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="AT25">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU25">
         <v>2.68</v>
@@ -5794,10 +5812,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT26">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU26">
         <v>1.02</v>
@@ -5898,7 +5916,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -5985,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT27">
         <v>1.71</v>
@@ -6370,7 +6388,7 @@
         <v>2.29</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU29">
         <v>1.44</v>
@@ -6471,7 +6489,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6561,7 +6579,7 @@
         <v>0.86</v>
       </c>
       <c r="AT30">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU30">
         <v>1.54</v>
@@ -6662,7 +6680,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7426,7 +7444,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7513,7 +7531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT35">
         <v>1</v>
@@ -7895,10 +7913,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT37">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU37">
         <v>1.17</v>
@@ -7999,7 +8017,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8468,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT40">
         <v>0.14</v>
@@ -8853,7 +8871,7 @@
         <v>2.29</v>
       </c>
       <c r="AT42">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU42">
         <v>1.42</v>
@@ -8954,7 +8972,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9044,7 +9062,7 @@
         <v>0.67</v>
       </c>
       <c r="AT43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU43">
         <v>1.2</v>
@@ -9145,7 +9163,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9426,7 +9444,7 @@
         <v>2.29</v>
       </c>
       <c r="AT45">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU45">
         <v>1.27</v>
@@ -9527,7 +9545,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9614,10 +9632,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU46">
         <v>1.09</v>
@@ -9718,7 +9736,7 @@
         <v>109</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -9909,7 +9927,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10100,7 +10118,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10187,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT49">
         <v>0.14</v>
@@ -10291,7 +10309,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10378,7 +10396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT50">
         <v>1.71</v>
@@ -10569,7 +10587,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT51">
         <v>1.29</v>
@@ -10673,7 +10691,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -10763,7 +10781,7 @@
         <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU52">
         <v>1.05</v>
@@ -11055,7 +11073,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11142,7 +11160,7 @@
         <v>0.25</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT54">
         <v>0.67</v>
@@ -11628,7 +11646,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11715,10 +11733,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT57">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -11909,7 +11927,7 @@
         <v>0.86</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12201,7 +12219,7 @@
         <v>119</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12288,7 +12306,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT60">
         <v>0.5</v>
@@ -12392,7 +12410,7 @@
         <v>120</v>
       </c>
       <c r="P61" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12482,7 +12500,7 @@
         <v>3</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU61">
         <v>2.2</v>
@@ -12670,7 +12688,7 @@
         <v>1.2</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT62">
         <v>1.29</v>
@@ -12774,7 +12792,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13052,10 +13070,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT64">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU64">
         <v>1.54</v>
@@ -13156,7 +13174,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13347,7 +13365,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13437,7 +13455,7 @@
         <v>1.8</v>
       </c>
       <c r="AT66">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU66">
         <v>1.76</v>
@@ -13625,7 +13643,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AT67">
         <v>0.67</v>
@@ -13729,7 +13747,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14010,7 +14028,7 @@
         <v>2.71</v>
       </c>
       <c r="AT69">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU69">
         <v>2.62</v>
@@ -14493,7 +14511,7 @@
         <v>129</v>
       </c>
       <c r="P72" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14875,7 +14893,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q74">
         <v>10</v>
@@ -15017,6 +15035,770 @@
       </c>
       <c r="BK74">
         <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2465432</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44864.375</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>65</v>
+      </c>
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>3</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>80</v>
+      </c>
+      <c r="P75" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>4</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>8.5</v>
+      </c>
+      <c r="U75">
+        <v>2.6</v>
+      </c>
+      <c r="V75">
+        <v>1.73</v>
+      </c>
+      <c r="W75">
+        <v>1.29</v>
+      </c>
+      <c r="X75">
+        <v>3.5</v>
+      </c>
+      <c r="Y75">
+        <v>2.38</v>
+      </c>
+      <c r="Z75">
+        <v>1.53</v>
+      </c>
+      <c r="AA75">
+        <v>5.5</v>
+      </c>
+      <c r="AB75">
+        <v>1.14</v>
+      </c>
+      <c r="AC75">
+        <v>9</v>
+      </c>
+      <c r="AD75">
+        <v>5.1</v>
+      </c>
+      <c r="AE75">
+        <v>1.32</v>
+      </c>
+      <c r="AF75">
+        <v>1.02</v>
+      </c>
+      <c r="AG75">
+        <v>15</v>
+      </c>
+      <c r="AH75">
+        <v>1.2</v>
+      </c>
+      <c r="AI75">
+        <v>4.33</v>
+      </c>
+      <c r="AJ75">
+        <v>1.6</v>
+      </c>
+      <c r="AK75">
+        <v>2.25</v>
+      </c>
+      <c r="AL75">
+        <v>2.05</v>
+      </c>
+      <c r="AM75">
+        <v>1.7</v>
+      </c>
+      <c r="AN75">
+        <v>3.4</v>
+      </c>
+      <c r="AO75">
+        <v>1.15</v>
+      </c>
+      <c r="AP75">
+        <v>1.06</v>
+      </c>
+      <c r="AQ75">
+        <v>2</v>
+      </c>
+      <c r="AR75">
+        <v>2.5</v>
+      </c>
+      <c r="AS75">
+        <v>1.71</v>
+      </c>
+      <c r="AT75">
+        <v>2.57</v>
+      </c>
+      <c r="AU75">
+        <v>1.48</v>
+      </c>
+      <c r="AV75">
+        <v>2.3</v>
+      </c>
+      <c r="AW75">
+        <v>3.78</v>
+      </c>
+      <c r="AX75">
+        <v>11</v>
+      </c>
+      <c r="AY75">
+        <v>15.75</v>
+      </c>
+      <c r="AZ75">
+        <v>1.07</v>
+      </c>
+      <c r="BA75">
+        <v>1.18</v>
+      </c>
+      <c r="BB75">
+        <v>1.27</v>
+      </c>
+      <c r="BC75">
+        <v>1.53</v>
+      </c>
+      <c r="BD75">
+        <v>1.9</v>
+      </c>
+      <c r="BE75">
+        <v>2.45</v>
+      </c>
+      <c r="BF75">
+        <v>3</v>
+      </c>
+      <c r="BG75">
+        <v>6</v>
+      </c>
+      <c r="BH75">
+        <v>2</v>
+      </c>
+      <c r="BI75">
+        <v>12</v>
+      </c>
+      <c r="BJ75">
+        <v>5</v>
+      </c>
+      <c r="BK75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2465434</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44864.5</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H76" t="s">
+        <v>66</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>118</v>
+      </c>
+      <c r="P76" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q76">
+        <v>6</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>7</v>
+      </c>
+      <c r="T76">
+        <v>4</v>
+      </c>
+      <c r="U76">
+        <v>2.2</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>2.75</v>
+      </c>
+      <c r="Y76">
+        <v>2.75</v>
+      </c>
+      <c r="Z76">
+        <v>1.4</v>
+      </c>
+      <c r="AA76">
+        <v>8</v>
+      </c>
+      <c r="AB76">
+        <v>1.08</v>
+      </c>
+      <c r="AC76">
+        <v>4</v>
+      </c>
+      <c r="AD76">
+        <v>3.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.9</v>
+      </c>
+      <c r="AF76">
+        <v>1.05</v>
+      </c>
+      <c r="AG76">
+        <v>10</v>
+      </c>
+      <c r="AH76">
+        <v>1.33</v>
+      </c>
+      <c r="AI76">
+        <v>3.3</v>
+      </c>
+      <c r="AJ76">
+        <v>1.95</v>
+      </c>
+      <c r="AK76">
+        <v>1.79</v>
+      </c>
+      <c r="AL76">
+        <v>1.75</v>
+      </c>
+      <c r="AM76">
+        <v>2</v>
+      </c>
+      <c r="AN76">
+        <v>1.72</v>
+      </c>
+      <c r="AO76">
+        <v>1.3</v>
+      </c>
+      <c r="AP76">
+        <v>1.29</v>
+      </c>
+      <c r="AQ76">
+        <v>0.83</v>
+      </c>
+      <c r="AR76">
+        <v>0.83</v>
+      </c>
+      <c r="AS76">
+        <v>0.71</v>
+      </c>
+      <c r="AT76">
+        <v>1.14</v>
+      </c>
+      <c r="AU76">
+        <v>1.07</v>
+      </c>
+      <c r="AV76">
+        <v>1.15</v>
+      </c>
+      <c r="AW76">
+        <v>2.22</v>
+      </c>
+      <c r="AX76">
+        <v>3.15</v>
+      </c>
+      <c r="AY76">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ76">
+        <v>1.54</v>
+      </c>
+      <c r="BA76">
+        <v>1.18</v>
+      </c>
+      <c r="BB76">
+        <v>1.38</v>
+      </c>
+      <c r="BC76">
+        <v>1.7</v>
+      </c>
+      <c r="BD76">
+        <v>2.11</v>
+      </c>
+      <c r="BE76">
+        <v>2.79</v>
+      </c>
+      <c r="BF76">
+        <v>9</v>
+      </c>
+      <c r="BG76">
+        <v>5</v>
+      </c>
+      <c r="BH76">
+        <v>9</v>
+      </c>
+      <c r="BI76">
+        <v>8</v>
+      </c>
+      <c r="BJ76">
+        <v>18</v>
+      </c>
+      <c r="BK76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2465436</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44869.6875</v>
+      </c>
+      <c r="F77">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>5</v>
+      </c>
+      <c r="O77" t="s">
+        <v>131</v>
+      </c>
+      <c r="P77" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
+      <c r="S77">
+        <v>9</v>
+      </c>
+      <c r="T77">
+        <v>2.88</v>
+      </c>
+      <c r="U77">
+        <v>2.05</v>
+      </c>
+      <c r="V77">
+        <v>3.5</v>
+      </c>
+      <c r="W77">
+        <v>1.36</v>
+      </c>
+      <c r="X77">
+        <v>3</v>
+      </c>
+      <c r="Y77">
+        <v>2.62</v>
+      </c>
+      <c r="Z77">
+        <v>1.44</v>
+      </c>
+      <c r="AA77">
+        <v>6.5</v>
+      </c>
+      <c r="AB77">
+        <v>1.1</v>
+      </c>
+      <c r="AC77">
+        <v>2.4</v>
+      </c>
+      <c r="AD77">
+        <v>3.2</v>
+      </c>
+      <c r="AE77">
+        <v>2.85</v>
+      </c>
+      <c r="AF77">
+        <v>1.06</v>
+      </c>
+      <c r="AG77">
+        <v>8</v>
+      </c>
+      <c r="AH77">
+        <v>1.33</v>
+      </c>
+      <c r="AI77">
+        <v>3.25</v>
+      </c>
+      <c r="AJ77">
+        <v>1.95</v>
+      </c>
+      <c r="AK77">
+        <v>1.75</v>
+      </c>
+      <c r="AL77">
+        <v>1.73</v>
+      </c>
+      <c r="AM77">
+        <v>2</v>
+      </c>
+      <c r="AN77">
+        <v>1.4</v>
+      </c>
+      <c r="AO77">
+        <v>1.33</v>
+      </c>
+      <c r="AP77">
+        <v>1.53</v>
+      </c>
+      <c r="AQ77">
+        <v>2.4</v>
+      </c>
+      <c r="AR77">
+        <v>1</v>
+      </c>
+      <c r="AS77">
+        <v>2.5</v>
+      </c>
+      <c r="AT77">
+        <v>0.86</v>
+      </c>
+      <c r="AU77">
+        <v>1.62</v>
+      </c>
+      <c r="AV77">
+        <v>1.9</v>
+      </c>
+      <c r="AW77">
+        <v>3.52</v>
+      </c>
+      <c r="AX77">
+        <v>2.2</v>
+      </c>
+      <c r="AY77">
+        <v>8.5</v>
+      </c>
+      <c r="AZ77">
+        <v>1.91</v>
+      </c>
+      <c r="BA77">
+        <v>1.19</v>
+      </c>
+      <c r="BB77">
+        <v>1.27</v>
+      </c>
+      <c r="BC77">
+        <v>1.52</v>
+      </c>
+      <c r="BD77">
+        <v>1.9</v>
+      </c>
+      <c r="BE77">
+        <v>2.42</v>
+      </c>
+      <c r="BF77">
+        <v>7</v>
+      </c>
+      <c r="BG77">
+        <v>7</v>
+      </c>
+      <c r="BH77">
+        <v>3</v>
+      </c>
+      <c r="BI77">
+        <v>13</v>
+      </c>
+      <c r="BJ77">
+        <v>10</v>
+      </c>
+      <c r="BK77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2465439</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44869.69791666666</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>132</v>
+      </c>
+      <c r="P78" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q78">
+        <v>5</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78">
+        <v>9</v>
+      </c>
+      <c r="T78">
+        <v>3.3</v>
+      </c>
+      <c r="U78">
+        <v>1.95</v>
+      </c>
+      <c r="V78">
+        <v>3.2</v>
+      </c>
+      <c r="W78">
+        <v>1.5</v>
+      </c>
+      <c r="X78">
+        <v>2.5</v>
+      </c>
+      <c r="Y78">
+        <v>3</v>
+      </c>
+      <c r="Z78">
+        <v>1.36</v>
+      </c>
+      <c r="AA78">
+        <v>8</v>
+      </c>
+      <c r="AB78">
+        <v>1.06</v>
+      </c>
+      <c r="AC78">
+        <v>2.7</v>
+      </c>
+      <c r="AD78">
+        <v>3.05</v>
+      </c>
+      <c r="AE78">
+        <v>2.6</v>
+      </c>
+      <c r="AF78">
+        <v>1.08</v>
+      </c>
+      <c r="AG78">
+        <v>7</v>
+      </c>
+      <c r="AH78">
+        <v>1.44</v>
+      </c>
+      <c r="AI78">
+        <v>2.62</v>
+      </c>
+      <c r="AJ78">
+        <v>2.25</v>
+      </c>
+      <c r="AK78">
+        <v>1.57</v>
+      </c>
+      <c r="AL78">
+        <v>2</v>
+      </c>
+      <c r="AM78">
+        <v>1.73</v>
+      </c>
+      <c r="AN78">
+        <v>1.44</v>
+      </c>
+      <c r="AO78">
+        <v>1.33</v>
+      </c>
+      <c r="AP78">
+        <v>1.5</v>
+      </c>
+      <c r="AQ78">
+        <v>1.83</v>
+      </c>
+      <c r="AR78">
+        <v>0.8</v>
+      </c>
+      <c r="AS78">
+        <v>1.57</v>
+      </c>
+      <c r="AT78">
+        <v>1.17</v>
+      </c>
+      <c r="AU78">
+        <v>1.49</v>
+      </c>
+      <c r="AV78">
+        <v>0.88</v>
+      </c>
+      <c r="AW78">
+        <v>2.37</v>
+      </c>
+      <c r="AX78">
+        <v>1.75</v>
+      </c>
+      <c r="AY78">
+        <v>8</v>
+      </c>
+      <c r="AZ78">
+        <v>2.42</v>
+      </c>
+      <c r="BA78">
+        <v>1.18</v>
+      </c>
+      <c r="BB78">
+        <v>1.38</v>
+      </c>
+      <c r="BC78">
+        <v>1.7</v>
+      </c>
+      <c r="BD78">
+        <v>2.13</v>
+      </c>
+      <c r="BE78">
+        <v>2.79</v>
+      </c>
+      <c r="BF78">
+        <v>5</v>
+      </c>
+      <c r="BG78">
+        <v>6</v>
+      </c>
+      <c r="BH78">
+        <v>8</v>
+      </c>
+      <c r="BI78">
+        <v>7</v>
+      </c>
+      <c r="BJ78">
+        <v>13</v>
+      </c>
+      <c r="BK78">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,48 @@
     <t>['4', '45+2']</t>
   </si>
   <si>
+    <t>['6', '34', '90', '90+2']</t>
+  </si>
+  <si>
+    <t>['10', '56', '60']</t>
+  </si>
+  <si>
+    <t>['41', '62']</t>
+  </si>
+  <si>
+    <t>['45', '47', '89']</t>
+  </si>
+  <si>
+    <t>['6', '17']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['42', '81']</t>
+  </si>
+  <si>
+    <t>['11', '23', '29', '73']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['62', '68']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
     <t>['72', '74']</t>
   </si>
   <si>
@@ -436,9 +478,6 @@
     <t>['28', '90+4']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['22']</t>
   </si>
   <si>
@@ -536,6 +575,33 @@
   </si>
   <si>
     <t>['39', '61', '75']</t>
+  </si>
+  <si>
+    <t>['12', '87']</t>
+  </si>
+  <si>
+    <t>['13', '45+2']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['61', '79']</t>
+  </si>
+  <si>
+    <t>['45+2', '78']</t>
+  </si>
+  <si>
+    <t>['15', '84']</t>
+  </si>
+  <si>
+    <t>['33', '90+6']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BK94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1207,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1228,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1332,7 +1398,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1419,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT3">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1523,7 +1589,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1610,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1714,7 +1780,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1801,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AT5">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1905,7 +1971,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -1992,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT6">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2186,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2287,7 +2353,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2374,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2478,7 +2544,7 @@
         <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2565,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT9">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2756,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT10">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2860,7 +2926,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -2947,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3051,7 +3117,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3138,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT12">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3242,7 +3308,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3329,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT13">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3433,7 +3499,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3520,10 +3586,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT14">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AU14">
         <v>0.75</v>
@@ -3711,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU15">
         <v>0.68</v>
@@ -3902,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT16">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU16">
         <v>2.09</v>
@@ -4093,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AU17">
         <v>1.61</v>
@@ -4197,7 +4263,7 @@
         <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4284,10 +4350,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT18">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU18">
         <v>2.08</v>
@@ -4388,7 +4454,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4475,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AU19">
         <v>1.58</v>
@@ -4579,7 +4645,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4666,10 +4732,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AU20">
         <v>1.23</v>
@@ -4857,10 +4923,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT21">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU21">
         <v>0.34</v>
@@ -5048,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU22">
         <v>0.8</v>
@@ -5152,7 +5218,7 @@
         <v>80</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5239,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU23">
         <v>0.58</v>
@@ -5343,7 +5409,7 @@
         <v>80</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5430,10 +5496,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT24">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>1.5</v>
@@ -5624,7 +5690,7 @@
         <v>3</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>2.68</v>
@@ -5812,10 +5878,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT26">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU26">
         <v>1.02</v>
@@ -5916,7 +5982,7 @@
         <v>96</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>8</v>
@@ -6003,10 +6069,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT27">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AU27">
         <v>1.62</v>
@@ -6194,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AU28">
         <v>2.53</v>
@@ -6385,10 +6451,10 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU29">
         <v>1.44</v>
@@ -6489,7 +6555,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6576,10 +6642,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT30">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU30">
         <v>1.54</v>
@@ -6680,7 +6746,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6767,10 +6833,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT31">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU31">
         <v>1.71</v>
@@ -6961,7 +7027,7 @@
         <v>3</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AU32">
         <v>2.39</v>
@@ -7149,10 +7215,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>0.82</v>
@@ -7340,10 +7406,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT34">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AU34">
         <v>0.85</v>
@@ -7444,7 +7510,7 @@
         <v>85</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7531,10 +7597,10 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU35">
         <v>1.09</v>
@@ -7722,10 +7788,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT36">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU36">
         <v>1.06</v>
@@ -7913,10 +7979,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT37">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.17</v>
@@ -8017,7 +8083,7 @@
         <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8104,10 +8170,10 @@
         <v>0.67</v>
       </c>
       <c r="AS38">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AU38">
         <v>2.8</v>
@@ -8295,10 +8361,10 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU39">
         <v>1.67</v>
@@ -8486,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT40">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU40">
         <v>1.19</v>
@@ -8677,10 +8743,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AT41">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AU41">
         <v>0.93</v>
@@ -8868,10 +8934,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT42">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU42">
         <v>1.42</v>
@@ -8972,7 +9038,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9059,10 +9125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS43">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.2</v>
@@ -9163,7 +9229,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9250,10 +9316,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT44">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AU44">
         <v>2.05</v>
@@ -9441,10 +9507,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT45">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU45">
         <v>1.27</v>
@@ -9545,7 +9611,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9632,10 +9698,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU46">
         <v>1.09</v>
@@ -9736,7 +9802,7 @@
         <v>109</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -9823,10 +9889,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT47">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU47">
         <v>1.31</v>
@@ -9927,7 +9993,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10017,7 +10083,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AU48">
         <v>2.23</v>
@@ -10118,7 +10184,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10205,10 +10271,10 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT49">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU49">
         <v>1.36</v>
@@ -10309,7 +10375,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10396,10 +10462,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AU50">
         <v>1.1</v>
@@ -10587,10 +10653,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT51">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU51">
         <v>1.74</v>
@@ -10691,7 +10757,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -10778,10 +10844,10 @@
         <v>2.25</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU52">
         <v>1.05</v>
@@ -10969,10 +11035,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT53">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AU53">
         <v>1.97</v>
@@ -11073,7 +11139,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>9</v>
@@ -11160,10 +11226,10 @@
         <v>0.25</v>
       </c>
       <c r="AS54">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT54">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AU54">
         <v>1.22</v>
@@ -11351,10 +11417,10 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT55">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU55">
         <v>2.69</v>
@@ -11542,10 +11608,10 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU56">
         <v>1.49</v>
@@ -11646,7 +11712,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11733,10 +11799,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT57">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -11924,10 +11990,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT58">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12115,10 +12181,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT59">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU59">
         <v>1.18</v>
@@ -12219,7 +12285,7 @@
         <v>119</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12306,10 +12372,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AU60">
         <v>1.1</v>
@@ -12410,7 +12476,7 @@
         <v>120</v>
       </c>
       <c r="P61" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12500,7 +12566,7 @@
         <v>3</v>
       </c>
       <c r="AT61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU61">
         <v>2.2</v>
@@ -12688,10 +12754,10 @@
         <v>1.2</v>
       </c>
       <c r="AS62">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT62">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU62">
         <v>1.36</v>
@@ -12792,7 +12858,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -12879,10 +12945,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13070,10 +13136,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT64">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.54</v>
@@ -13174,7 +13240,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13261,10 +13327,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT65">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU65">
         <v>1.93</v>
@@ -13365,7 +13431,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13452,10 +13518,10 @@
         <v>2.4</v>
       </c>
       <c r="AS66">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT66">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU66">
         <v>1.76</v>
@@ -13643,10 +13709,10 @@
         <v>0.8</v>
       </c>
       <c r="AS67">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT67">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AU67">
         <v>1.55</v>
@@ -13747,7 +13813,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13834,10 +13900,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU68">
         <v>1.43</v>
@@ -14025,10 +14091,10 @@
         <v>0.75</v>
       </c>
       <c r="AS69">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT69">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU69">
         <v>2.62</v>
@@ -14216,10 +14282,10 @@
         <v>0.6</v>
       </c>
       <c r="AS70">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AU70">
         <v>1.23</v>
@@ -14407,10 +14473,10 @@
         <v>0.75</v>
       </c>
       <c r="AS71">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT71">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU71">
         <v>1.9</v>
@@ -14511,7 +14577,7 @@
         <v>129</v>
       </c>
       <c r="P72" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Q72">
         <v>13</v>
@@ -14598,10 +14664,10 @@
         <v>1.17</v>
       </c>
       <c r="AS72">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU72">
         <v>2.63</v>
@@ -14789,10 +14855,10 @@
         <v>0.17</v>
       </c>
       <c r="AS73">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AT73">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU73">
         <v>1.04</v>
@@ -14893,7 +14959,7 @@
         <v>80</v>
       </c>
       <c r="P74" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Q74">
         <v>10</v>
@@ -14980,10 +15046,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT74">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AU74">
         <v>1.55</v>
@@ -15084,7 +15150,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -15171,10 +15237,10 @@
         <v>2.5</v>
       </c>
       <c r="AS75">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT75">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AU75">
         <v>1.48</v>
@@ -15275,7 +15341,7 @@
         <v>118</v>
       </c>
       <c r="P76" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15362,10 +15428,10 @@
         <v>0.83</v>
       </c>
       <c r="AS76">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT76">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.07</v>
@@ -15466,7 +15532,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15553,10 +15619,10 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT77">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU77">
         <v>1.62</v>
@@ -15657,7 +15723,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -15744,10 +15810,10 @@
         <v>0.8</v>
       </c>
       <c r="AS78">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT78">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU78">
         <v>1.49</v>
@@ -15799,6 +15865,3062 @@
       </c>
       <c r="BK78">
         <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2465437</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>6</v>
+      </c>
+      <c r="O79" t="s">
+        <v>133</v>
+      </c>
+      <c r="P79" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q79">
+        <v>11</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>13</v>
+      </c>
+      <c r="T79">
+        <v>1.36</v>
+      </c>
+      <c r="U79">
+        <v>3.2</v>
+      </c>
+      <c r="V79">
+        <v>12</v>
+      </c>
+      <c r="W79">
+        <v>1.2</v>
+      </c>
+      <c r="X79">
+        <v>4.33</v>
+      </c>
+      <c r="Y79">
+        <v>1.85</v>
+      </c>
+      <c r="Z79">
+        <v>1.85</v>
+      </c>
+      <c r="AA79">
+        <v>3.75</v>
+      </c>
+      <c r="AB79">
+        <v>1.25</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>9.4</v>
+      </c>
+      <c r="AE79">
+        <v>30</v>
+      </c>
+      <c r="AF79">
+        <v>1.02</v>
+      </c>
+      <c r="AG79">
+        <v>15</v>
+      </c>
+      <c r="AH79">
+        <v>1.08</v>
+      </c>
+      <c r="AI79">
+        <v>7.5</v>
+      </c>
+      <c r="AJ79">
+        <v>1.36</v>
+      </c>
+      <c r="AK79">
+        <v>2.9</v>
+      </c>
+      <c r="AL79">
+        <v>2.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.6</v>
+      </c>
+      <c r="AN79">
+        <v>1.01</v>
+      </c>
+      <c r="AO79">
+        <v>1.02</v>
+      </c>
+      <c r="AP79">
+        <v>7</v>
+      </c>
+      <c r="AQ79">
+        <v>3</v>
+      </c>
+      <c r="AR79">
+        <v>0.5</v>
+      </c>
+      <c r="AS79">
+        <v>3</v>
+      </c>
+      <c r="AT79">
+        <v>0.38</v>
+      </c>
+      <c r="AU79">
+        <v>2.25</v>
+      </c>
+      <c r="AV79">
+        <v>1.26</v>
+      </c>
+      <c r="AW79">
+        <v>3.51</v>
+      </c>
+      <c r="AX79">
+        <v>1.06</v>
+      </c>
+      <c r="AY79">
+        <v>15</v>
+      </c>
+      <c r="AZ79">
+        <v>11</v>
+      </c>
+      <c r="BA79">
+        <v>1.07</v>
+      </c>
+      <c r="BB79">
+        <v>1.22</v>
+      </c>
+      <c r="BC79">
+        <v>1.32</v>
+      </c>
+      <c r="BD79">
+        <v>1.57</v>
+      </c>
+      <c r="BE79">
+        <v>1.95</v>
+      </c>
+      <c r="BF79">
+        <v>13</v>
+      </c>
+      <c r="BG79">
+        <v>3</v>
+      </c>
+      <c r="BH79">
+        <v>13</v>
+      </c>
+      <c r="BI79">
+        <v>4</v>
+      </c>
+      <c r="BJ79">
+        <v>26</v>
+      </c>
+      <c r="BK79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2465440</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44870.5</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>69</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80" t="s">
+        <v>134</v>
+      </c>
+      <c r="P80" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q80">
+        <v>7</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
+        <v>12</v>
+      </c>
+      <c r="T80">
+        <v>3.63</v>
+      </c>
+      <c r="U80">
+        <v>1.98</v>
+      </c>
+      <c r="V80">
+        <v>3.03</v>
+      </c>
+      <c r="W80">
+        <v>1.48</v>
+      </c>
+      <c r="X80">
+        <v>2.48</v>
+      </c>
+      <c r="Y80">
+        <v>3.15</v>
+      </c>
+      <c r="Z80">
+        <v>1.31</v>
+      </c>
+      <c r="AA80">
+        <v>7.35</v>
+      </c>
+      <c r="AB80">
+        <v>1.06</v>
+      </c>
+      <c r="AC80">
+        <v>2.6</v>
+      </c>
+      <c r="AD80">
+        <v>2.9</v>
+      </c>
+      <c r="AE80">
+        <v>2.7</v>
+      </c>
+      <c r="AF80">
+        <v>1.08</v>
+      </c>
+      <c r="AG80">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH80">
+        <v>1.39</v>
+      </c>
+      <c r="AI80">
+        <v>2.94</v>
+      </c>
+      <c r="AJ80">
+        <v>2.15</v>
+      </c>
+      <c r="AK80">
+        <v>1.62</v>
+      </c>
+      <c r="AL80">
+        <v>1.88</v>
+      </c>
+      <c r="AM80">
+        <v>1.83</v>
+      </c>
+      <c r="AN80">
+        <v>1.54</v>
+      </c>
+      <c r="AO80">
+        <v>1.36</v>
+      </c>
+      <c r="AP80">
+        <v>1.37</v>
+      </c>
+      <c r="AQ80">
+        <v>0.71</v>
+      </c>
+      <c r="AR80">
+        <v>0.6</v>
+      </c>
+      <c r="AS80">
+        <v>1</v>
+      </c>
+      <c r="AT80">
+        <v>0.5</v>
+      </c>
+      <c r="AU80">
+        <v>1.23</v>
+      </c>
+      <c r="AV80">
+        <v>1.15</v>
+      </c>
+      <c r="AW80">
+        <v>2.38</v>
+      </c>
+      <c r="AX80">
+        <v>2.66</v>
+      </c>
+      <c r="AY80">
+        <v>8.5</v>
+      </c>
+      <c r="AZ80">
+        <v>1.64</v>
+      </c>
+      <c r="BA80">
+        <v>1.21</v>
+      </c>
+      <c r="BB80">
+        <v>1.26</v>
+      </c>
+      <c r="BC80">
+        <v>1.47</v>
+      </c>
+      <c r="BD80">
+        <v>1.88</v>
+      </c>
+      <c r="BE80">
+        <v>2.35</v>
+      </c>
+      <c r="BF80">
+        <v>5</v>
+      </c>
+      <c r="BG80">
+        <v>5</v>
+      </c>
+      <c r="BH80">
+        <v>6</v>
+      </c>
+      <c r="BI80">
+        <v>7</v>
+      </c>
+      <c r="BJ80">
+        <v>11</v>
+      </c>
+      <c r="BK80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2465441</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44871.375</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" t="s">
+        <v>73</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>135</v>
+      </c>
+      <c r="P81" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>20</v>
+      </c>
+      <c r="S81">
+        <v>20</v>
+      </c>
+      <c r="T81">
+        <v>9</v>
+      </c>
+      <c r="U81">
+        <v>2.5</v>
+      </c>
+      <c r="V81">
+        <v>1.73</v>
+      </c>
+      <c r="W81">
+        <v>1.33</v>
+      </c>
+      <c r="X81">
+        <v>3.25</v>
+      </c>
+      <c r="Y81">
+        <v>2.5</v>
+      </c>
+      <c r="Z81">
+        <v>1.5</v>
+      </c>
+      <c r="AA81">
+        <v>6</v>
+      </c>
+      <c r="AB81">
+        <v>1.13</v>
+      </c>
+      <c r="AC81">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="AD81">
+        <v>5.24</v>
+      </c>
+      <c r="AE81">
+        <v>1.22</v>
+      </c>
+      <c r="AF81">
+        <v>1.02</v>
+      </c>
+      <c r="AG81">
+        <v>15</v>
+      </c>
+      <c r="AH81">
+        <v>1.22</v>
+      </c>
+      <c r="AI81">
+        <v>4.33</v>
+      </c>
+      <c r="AJ81">
+        <v>1.77</v>
+      </c>
+      <c r="AK81">
+        <v>1.9</v>
+      </c>
+      <c r="AL81">
+        <v>2.2</v>
+      </c>
+      <c r="AM81">
+        <v>1.62</v>
+      </c>
+      <c r="AN81">
+        <v>3.5</v>
+      </c>
+      <c r="AO81">
+        <v>1.15</v>
+      </c>
+      <c r="AP81">
+        <v>1.06</v>
+      </c>
+      <c r="AQ81">
+        <v>1.17</v>
+      </c>
+      <c r="AR81">
+        <v>2</v>
+      </c>
+      <c r="AS81">
+        <v>1.38</v>
+      </c>
+      <c r="AT81">
+        <v>1.57</v>
+      </c>
+      <c r="AU81">
+        <v>1.05</v>
+      </c>
+      <c r="AV81">
+        <v>1.7</v>
+      </c>
+      <c r="AW81">
+        <v>2.75</v>
+      </c>
+      <c r="AX81">
+        <v>5.65</v>
+      </c>
+      <c r="AY81">
+        <v>11</v>
+      </c>
+      <c r="AZ81">
+        <v>1.19</v>
+      </c>
+      <c r="BA81">
+        <v>1.25</v>
+      </c>
+      <c r="BB81">
+        <v>1.31</v>
+      </c>
+      <c r="BC81">
+        <v>1.55</v>
+      </c>
+      <c r="BD81">
+        <v>1.95</v>
+      </c>
+      <c r="BE81">
+        <v>2.6</v>
+      </c>
+      <c r="BF81">
+        <v>3</v>
+      </c>
+      <c r="BG81">
+        <v>8</v>
+      </c>
+      <c r="BH81">
+        <v>5</v>
+      </c>
+      <c r="BI81">
+        <v>6</v>
+      </c>
+      <c r="BJ81">
+        <v>8</v>
+      </c>
+      <c r="BK81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2465438</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44871.5</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>66</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>136</v>
+      </c>
+      <c r="P82" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q82">
+        <v>6</v>
+      </c>
+      <c r="R82">
+        <v>11</v>
+      </c>
+      <c r="S82">
+        <v>17</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>2.3</v>
+      </c>
+      <c r="V82">
+        <v>4</v>
+      </c>
+      <c r="W82">
+        <v>1.33</v>
+      </c>
+      <c r="X82">
+        <v>3.25</v>
+      </c>
+      <c r="Y82">
+        <v>2.63</v>
+      </c>
+      <c r="Z82">
+        <v>1.44</v>
+      </c>
+      <c r="AA82">
+        <v>6.5</v>
+      </c>
+      <c r="AB82">
+        <v>1.11</v>
+      </c>
+      <c r="AC82">
+        <v>2</v>
+      </c>
+      <c r="AD82">
+        <v>3.25</v>
+      </c>
+      <c r="AE82">
+        <v>3.25</v>
+      </c>
+      <c r="AF82">
+        <v>1.04</v>
+      </c>
+      <c r="AG82">
+        <v>12</v>
+      </c>
+      <c r="AH82">
+        <v>1.25</v>
+      </c>
+      <c r="AI82">
+        <v>3.75</v>
+      </c>
+      <c r="AJ82">
+        <v>1.75</v>
+      </c>
+      <c r="AK82">
+        <v>1.95</v>
+      </c>
+      <c r="AL82">
+        <v>1.67</v>
+      </c>
+      <c r="AM82">
+        <v>2.1</v>
+      </c>
+      <c r="AN82">
+        <v>1.26</v>
+      </c>
+      <c r="AO82">
+        <v>1.27</v>
+      </c>
+      <c r="AP82">
+        <v>1.83</v>
+      </c>
+      <c r="AQ82">
+        <v>1.8</v>
+      </c>
+      <c r="AR82">
+        <v>1.71</v>
+      </c>
+      <c r="AS82">
+        <v>1.86</v>
+      </c>
+      <c r="AT82">
+        <v>1.44</v>
+      </c>
+      <c r="AU82">
+        <v>1.82</v>
+      </c>
+      <c r="AV82">
+        <v>1.33</v>
+      </c>
+      <c r="AW82">
+        <v>3.15</v>
+      </c>
+      <c r="AX82">
+        <v>1.51</v>
+      </c>
+      <c r="AY82">
+        <v>9</v>
+      </c>
+      <c r="AZ82">
+        <v>3.06</v>
+      </c>
+      <c r="BA82">
+        <v>1.2</v>
+      </c>
+      <c r="BB82">
+        <v>1.27</v>
+      </c>
+      <c r="BC82">
+        <v>1.5</v>
+      </c>
+      <c r="BD82">
+        <v>2</v>
+      </c>
+      <c r="BE82">
+        <v>2.45</v>
+      </c>
+      <c r="BF82">
+        <v>7</v>
+      </c>
+      <c r="BG82">
+        <v>7</v>
+      </c>
+      <c r="BH82">
+        <v>9</v>
+      </c>
+      <c r="BI82">
+        <v>12</v>
+      </c>
+      <c r="BJ82">
+        <v>16</v>
+      </c>
+      <c r="BK82">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2465443</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F83">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>80</v>
+      </c>
+      <c r="P83" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>7</v>
+      </c>
+      <c r="T83">
+        <v>2.12</v>
+      </c>
+      <c r="U83">
+        <v>2.2</v>
+      </c>
+      <c r="V83">
+        <v>6.55</v>
+      </c>
+      <c r="W83">
+        <v>1.45</v>
+      </c>
+      <c r="X83">
+        <v>2.68</v>
+      </c>
+      <c r="Y83">
+        <v>3.24</v>
+      </c>
+      <c r="Z83">
+        <v>1.33</v>
+      </c>
+      <c r="AA83">
+        <v>9</v>
+      </c>
+      <c r="AB83">
+        <v>1.07</v>
+      </c>
+      <c r="AC83">
+        <v>1.51</v>
+      </c>
+      <c r="AD83">
+        <v>4.23</v>
+      </c>
+      <c r="AE83">
+        <v>6.84</v>
+      </c>
+      <c r="AF83">
+        <v>1.07</v>
+      </c>
+      <c r="AG83">
+        <v>7.5</v>
+      </c>
+      <c r="AH83">
+        <v>1.36</v>
+      </c>
+      <c r="AI83">
+        <v>3</v>
+      </c>
+      <c r="AJ83">
+        <v>1.93</v>
+      </c>
+      <c r="AK83">
+        <v>1.92</v>
+      </c>
+      <c r="AL83">
+        <v>2.2</v>
+      </c>
+      <c r="AM83">
+        <v>1.64</v>
+      </c>
+      <c r="AN83">
+        <v>1.11</v>
+      </c>
+      <c r="AO83">
+        <v>1.22</v>
+      </c>
+      <c r="AP83">
+        <v>2.5</v>
+      </c>
+      <c r="AQ83">
+        <v>2</v>
+      </c>
+      <c r="AR83">
+        <v>0.67</v>
+      </c>
+      <c r="AS83">
+        <v>1.75</v>
+      </c>
+      <c r="AT83">
+        <v>0.88</v>
+      </c>
+      <c r="AU83">
+        <v>1.89</v>
+      </c>
+      <c r="AV83">
+        <v>0.99</v>
+      </c>
+      <c r="AW83">
+        <v>2.88</v>
+      </c>
+      <c r="AX83">
+        <v>1.1</v>
+      </c>
+      <c r="AY83">
+        <v>14</v>
+      </c>
+      <c r="AZ83">
+        <v>9.1</v>
+      </c>
+      <c r="BA83">
+        <v>1.17</v>
+      </c>
+      <c r="BB83">
+        <v>1.24</v>
+      </c>
+      <c r="BC83">
+        <v>1.47</v>
+      </c>
+      <c r="BD83">
+        <v>1.81</v>
+      </c>
+      <c r="BE83">
+        <v>2.28</v>
+      </c>
+      <c r="BF83">
+        <v>4</v>
+      </c>
+      <c r="BG83">
+        <v>4</v>
+      </c>
+      <c r="BH83">
+        <v>18</v>
+      </c>
+      <c r="BI83">
+        <v>3</v>
+      </c>
+      <c r="BJ83">
+        <v>22</v>
+      </c>
+      <c r="BK83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2465444</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>65</v>
+      </c>
+      <c r="H84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>137</v>
+      </c>
+      <c r="P84" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q84">
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <v>8</v>
+      </c>
+      <c r="S84">
+        <v>15</v>
+      </c>
+      <c r="T84">
+        <v>3.2</v>
+      </c>
+      <c r="U84">
+        <v>2.1</v>
+      </c>
+      <c r="V84">
+        <v>3.2</v>
+      </c>
+      <c r="W84">
+        <v>1.46</v>
+      </c>
+      <c r="X84">
+        <v>2.5</v>
+      </c>
+      <c r="Y84">
+        <v>3</v>
+      </c>
+      <c r="Z84">
+        <v>1.33</v>
+      </c>
+      <c r="AA84">
+        <v>8.25</v>
+      </c>
+      <c r="AB84">
+        <v>1.06</v>
+      </c>
+      <c r="AC84">
+        <v>2.77</v>
+      </c>
+      <c r="AD84">
+        <v>3.3</v>
+      </c>
+      <c r="AE84">
+        <v>2.67</v>
+      </c>
+      <c r="AF84">
+        <v>1.08</v>
+      </c>
+      <c r="AG84">
+        <v>7</v>
+      </c>
+      <c r="AH84">
+        <v>1.4</v>
+      </c>
+      <c r="AI84">
+        <v>2.75</v>
+      </c>
+      <c r="AJ84">
+        <v>2.12</v>
+      </c>
+      <c r="AK84">
+        <v>1.64</v>
+      </c>
+      <c r="AL84">
+        <v>1.85</v>
+      </c>
+      <c r="AM84">
+        <v>1.85</v>
+      </c>
+      <c r="AN84">
+        <v>1.45</v>
+      </c>
+      <c r="AO84">
+        <v>1.35</v>
+      </c>
+      <c r="AP84">
+        <v>1.47</v>
+      </c>
+      <c r="AQ84">
+        <v>1.71</v>
+      </c>
+      <c r="AR84">
+        <v>1</v>
+      </c>
+      <c r="AS84">
+        <v>1.88</v>
+      </c>
+      <c r="AT84">
+        <v>0.88</v>
+      </c>
+      <c r="AU84">
+        <v>1.37</v>
+      </c>
+      <c r="AV84">
+        <v>1.18</v>
+      </c>
+      <c r="AW84">
+        <v>2.55</v>
+      </c>
+      <c r="AX84">
+        <v>2.25</v>
+      </c>
+      <c r="AY84">
+        <v>5.75</v>
+      </c>
+      <c r="AZ84">
+        <v>1.83</v>
+      </c>
+      <c r="BA84">
+        <v>1.2</v>
+      </c>
+      <c r="BB84">
+        <v>1.35</v>
+      </c>
+      <c r="BC84">
+        <v>1.76</v>
+      </c>
+      <c r="BD84">
+        <v>2.18</v>
+      </c>
+      <c r="BE84">
+        <v>2.6</v>
+      </c>
+      <c r="BF84">
+        <v>4</v>
+      </c>
+      <c r="BG84">
+        <v>11</v>
+      </c>
+      <c r="BH84">
+        <v>6</v>
+      </c>
+      <c r="BI84">
+        <v>18</v>
+      </c>
+      <c r="BJ84">
+        <v>10</v>
+      </c>
+      <c r="BK84">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2465445</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44874.69791666666</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>93</v>
+      </c>
+      <c r="P85" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q85">
+        <v>5</v>
+      </c>
+      <c r="R85">
+        <v>10</v>
+      </c>
+      <c r="S85">
+        <v>15</v>
+      </c>
+      <c r="T85">
+        <v>7.4</v>
+      </c>
+      <c r="U85">
+        <v>2.6</v>
+      </c>
+      <c r="V85">
+        <v>1.82</v>
+      </c>
+      <c r="W85">
+        <v>1.29</v>
+      </c>
+      <c r="X85">
+        <v>3.24</v>
+      </c>
+      <c r="Y85">
+        <v>2.5</v>
+      </c>
+      <c r="Z85">
+        <v>1.5</v>
+      </c>
+      <c r="AA85">
+        <v>6</v>
+      </c>
+      <c r="AB85">
+        <v>1.11</v>
+      </c>
+      <c r="AC85">
+        <v>8.1</v>
+      </c>
+      <c r="AD85">
+        <v>5.3</v>
+      </c>
+      <c r="AE85">
+        <v>1.3</v>
+      </c>
+      <c r="AF85">
+        <v>1.03</v>
+      </c>
+      <c r="AG85">
+        <v>11</v>
+      </c>
+      <c r="AH85">
+        <v>1.2</v>
+      </c>
+      <c r="AI85">
+        <v>4.33</v>
+      </c>
+      <c r="AJ85">
+        <v>1.5</v>
+      </c>
+      <c r="AK85">
+        <v>2.48</v>
+      </c>
+      <c r="AL85">
+        <v>1.95</v>
+      </c>
+      <c r="AM85">
+        <v>1.81</v>
+      </c>
+      <c r="AN85">
+        <v>3.24</v>
+      </c>
+      <c r="AO85">
+        <v>1.17</v>
+      </c>
+      <c r="AP85">
+        <v>1.07</v>
+      </c>
+      <c r="AQ85">
+        <v>0.67</v>
+      </c>
+      <c r="AR85">
+        <v>2.57</v>
+      </c>
+      <c r="AS85">
+        <v>0.57</v>
+      </c>
+      <c r="AT85">
+        <v>2.63</v>
+      </c>
+      <c r="AU85">
+        <v>1.48</v>
+      </c>
+      <c r="AV85">
+        <v>2.27</v>
+      </c>
+      <c r="AW85">
+        <v>3.75</v>
+      </c>
+      <c r="AX85">
+        <v>10.25</v>
+      </c>
+      <c r="AY85">
+        <v>14.75</v>
+      </c>
+      <c r="AZ85">
+        <v>1.09</v>
+      </c>
+      <c r="BA85">
+        <v>1.16</v>
+      </c>
+      <c r="BB85">
+        <v>1.28</v>
+      </c>
+      <c r="BC85">
+        <v>1.54</v>
+      </c>
+      <c r="BD85">
+        <v>1.93</v>
+      </c>
+      <c r="BE85">
+        <v>2.47</v>
+      </c>
+      <c r="BF85">
+        <v>3</v>
+      </c>
+      <c r="BG85">
+        <v>5</v>
+      </c>
+      <c r="BH85">
+        <v>5</v>
+      </c>
+      <c r="BI85">
+        <v>13</v>
+      </c>
+      <c r="BJ85">
+        <v>8</v>
+      </c>
+      <c r="BK85">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2465446</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44874.69791666666</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>66</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>138</v>
+      </c>
+      <c r="P86" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q86">
+        <v>7</v>
+      </c>
+      <c r="R86">
+        <v>5</v>
+      </c>
+      <c r="S86">
+        <v>12</v>
+      </c>
+      <c r="T86">
+        <v>1.75</v>
+      </c>
+      <c r="U86">
+        <v>2.63</v>
+      </c>
+      <c r="V86">
+        <v>8</v>
+      </c>
+      <c r="W86">
+        <v>1.29</v>
+      </c>
+      <c r="X86">
+        <v>3.25</v>
+      </c>
+      <c r="Y86">
+        <v>2.25</v>
+      </c>
+      <c r="Z86">
+        <v>1.57</v>
+      </c>
+      <c r="AA86">
+        <v>5</v>
+      </c>
+      <c r="AB86">
+        <v>1.15</v>
+      </c>
+      <c r="AC86">
+        <v>1.27</v>
+      </c>
+      <c r="AD86">
+        <v>5.5</v>
+      </c>
+      <c r="AE86">
+        <v>8.6</v>
+      </c>
+      <c r="AF86">
+        <v>1.03</v>
+      </c>
+      <c r="AG86">
+        <v>11</v>
+      </c>
+      <c r="AH86">
+        <v>1.17</v>
+      </c>
+      <c r="AI86">
+        <v>4.5</v>
+      </c>
+      <c r="AJ86">
+        <v>1.47</v>
+      </c>
+      <c r="AK86">
+        <v>2.57</v>
+      </c>
+      <c r="AL86">
+        <v>2</v>
+      </c>
+      <c r="AM86">
+        <v>1.73</v>
+      </c>
+      <c r="AN86">
+        <v>1.07</v>
+      </c>
+      <c r="AO86">
+        <v>1.14</v>
+      </c>
+      <c r="AP86">
+        <v>3.5</v>
+      </c>
+      <c r="AQ86">
+        <v>2.71</v>
+      </c>
+      <c r="AR86">
+        <v>1.14</v>
+      </c>
+      <c r="AS86">
+        <v>2.75</v>
+      </c>
+      <c r="AT86">
+        <v>1</v>
+      </c>
+      <c r="AU86">
+        <v>2.79</v>
+      </c>
+      <c r="AV86">
+        <v>1.22</v>
+      </c>
+      <c r="AW86">
+        <v>4.01</v>
+      </c>
+      <c r="AX86">
+        <v>1.1</v>
+      </c>
+      <c r="AY86">
+        <v>14.25</v>
+      </c>
+      <c r="AZ86">
+        <v>9.5</v>
+      </c>
+      <c r="BA86">
+        <v>1.14</v>
+      </c>
+      <c r="BB86">
+        <v>1.3</v>
+      </c>
+      <c r="BC86">
+        <v>1.57</v>
+      </c>
+      <c r="BD86">
+        <v>1.98</v>
+      </c>
+      <c r="BE86">
+        <v>2.56</v>
+      </c>
+      <c r="BF86">
+        <v>6</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>9</v>
+      </c>
+      <c r="BI86">
+        <v>10</v>
+      </c>
+      <c r="BJ86">
+        <v>15</v>
+      </c>
+      <c r="BK86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>2465447</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44874.69791666666</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>69</v>
+      </c>
+      <c r="H87" t="s">
+        <v>68</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>139</v>
+      </c>
+      <c r="P87" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>3</v>
+      </c>
+      <c r="S87">
+        <v>9</v>
+      </c>
+      <c r="T87">
+        <v>2.65</v>
+      </c>
+      <c r="U87">
+        <v>2.05</v>
+      </c>
+      <c r="V87">
+        <v>4.8</v>
+      </c>
+      <c r="W87">
+        <v>1.48</v>
+      </c>
+      <c r="X87">
+        <v>2.6</v>
+      </c>
+      <c r="Y87">
+        <v>3.24</v>
+      </c>
+      <c r="Z87">
+        <v>1.33</v>
+      </c>
+      <c r="AA87">
+        <v>10</v>
+      </c>
+      <c r="AB87">
+        <v>1.06</v>
+      </c>
+      <c r="AC87">
+        <v>2</v>
+      </c>
+      <c r="AD87">
+        <v>3.3</v>
+      </c>
+      <c r="AE87">
+        <v>3.6</v>
+      </c>
+      <c r="AF87">
+        <v>1.08</v>
+      </c>
+      <c r="AG87">
+        <v>7</v>
+      </c>
+      <c r="AH87">
+        <v>1.4</v>
+      </c>
+      <c r="AI87">
+        <v>2.75</v>
+      </c>
+      <c r="AJ87">
+        <v>2.25</v>
+      </c>
+      <c r="AK87">
+        <v>1.6</v>
+      </c>
+      <c r="AL87">
+        <v>2</v>
+      </c>
+      <c r="AM87">
+        <v>1.73</v>
+      </c>
+      <c r="AN87">
+        <v>1.22</v>
+      </c>
+      <c r="AO87">
+        <v>1.33</v>
+      </c>
+      <c r="AP87">
+        <v>1.83</v>
+      </c>
+      <c r="AQ87">
+        <v>2.29</v>
+      </c>
+      <c r="AR87">
+        <v>1.29</v>
+      </c>
+      <c r="AS87">
+        <v>2</v>
+      </c>
+      <c r="AT87">
+        <v>1.25</v>
+      </c>
+      <c r="AU87">
+        <v>1.29</v>
+      </c>
+      <c r="AV87">
+        <v>1.14</v>
+      </c>
+      <c r="AW87">
+        <v>2.43</v>
+      </c>
+      <c r="AX87">
+        <v>1.38</v>
+      </c>
+      <c r="AY87">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ87">
+        <v>3.94</v>
+      </c>
+      <c r="BA87">
+        <v>1.19</v>
+      </c>
+      <c r="BB87">
+        <v>1.27</v>
+      </c>
+      <c r="BC87">
+        <v>1.53</v>
+      </c>
+      <c r="BD87">
+        <v>1.9</v>
+      </c>
+      <c r="BE87">
+        <v>2.45</v>
+      </c>
+      <c r="BF87">
+        <v>4</v>
+      </c>
+      <c r="BG87">
+        <v>3</v>
+      </c>
+      <c r="BH87">
+        <v>11</v>
+      </c>
+      <c r="BI87">
+        <v>6</v>
+      </c>
+      <c r="BJ87">
+        <v>15</v>
+      </c>
+      <c r="BK87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2465442</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>44874.69791666666</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s">
+        <v>67</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>140</v>
+      </c>
+      <c r="P88" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>7</v>
+      </c>
+      <c r="T88">
+        <v>3.02</v>
+      </c>
+      <c r="U88">
+        <v>2.05</v>
+      </c>
+      <c r="V88">
+        <v>3.82</v>
+      </c>
+      <c r="W88">
+        <v>1.48</v>
+      </c>
+      <c r="X88">
+        <v>2.6</v>
+      </c>
+      <c r="Y88">
+        <v>3.24</v>
+      </c>
+      <c r="Z88">
+        <v>1.33</v>
+      </c>
+      <c r="AA88">
+        <v>10</v>
+      </c>
+      <c r="AB88">
+        <v>1.06</v>
+      </c>
+      <c r="AC88">
+        <v>2.23</v>
+      </c>
+      <c r="AD88">
+        <v>3.3</v>
+      </c>
+      <c r="AE88">
+        <v>3.05</v>
+      </c>
+      <c r="AF88">
+        <v>1.08</v>
+      </c>
+      <c r="AG88">
+        <v>7</v>
+      </c>
+      <c r="AH88">
+        <v>1.36</v>
+      </c>
+      <c r="AI88">
+        <v>3</v>
+      </c>
+      <c r="AJ88">
+        <v>2.16</v>
+      </c>
+      <c r="AK88">
+        <v>1.65</v>
+      </c>
+      <c r="AL88">
+        <v>1.85</v>
+      </c>
+      <c r="AM88">
+        <v>1.85</v>
+      </c>
+      <c r="AN88">
+        <v>1.36</v>
+      </c>
+      <c r="AO88">
+        <v>1.36</v>
+      </c>
+      <c r="AP88">
+        <v>1.62</v>
+      </c>
+      <c r="AQ88">
+        <v>0.86</v>
+      </c>
+      <c r="AR88">
+        <v>0.14</v>
+      </c>
+      <c r="AS88">
+        <v>1.13</v>
+      </c>
+      <c r="AT88">
+        <v>0.13</v>
+      </c>
+      <c r="AU88">
+        <v>1.51</v>
+      </c>
+      <c r="AV88">
+        <v>1.04</v>
+      </c>
+      <c r="AW88">
+        <v>2.55</v>
+      </c>
+      <c r="AX88">
+        <v>1.8</v>
+      </c>
+      <c r="AY88">
+        <v>7.9</v>
+      </c>
+      <c r="AZ88">
+        <v>2.47</v>
+      </c>
+      <c r="BA88">
+        <v>1.18</v>
+      </c>
+      <c r="BB88">
+        <v>1.33</v>
+      </c>
+      <c r="BC88">
+        <v>1.62</v>
+      </c>
+      <c r="BD88">
+        <v>2.04</v>
+      </c>
+      <c r="BE88">
+        <v>2.69</v>
+      </c>
+      <c r="BF88">
+        <v>7</v>
+      </c>
+      <c r="BG88">
+        <v>2</v>
+      </c>
+      <c r="BH88">
+        <v>2</v>
+      </c>
+      <c r="BI88">
+        <v>15</v>
+      </c>
+      <c r="BJ88">
+        <v>9</v>
+      </c>
+      <c r="BK88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>2465453</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>44877.39583333334</v>
+      </c>
+      <c r="F89">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>69</v>
+      </c>
+      <c r="H89" t="s">
+        <v>73</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>141</v>
+      </c>
+      <c r="P89" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q89">
+        <v>6</v>
+      </c>
+      <c r="R89">
+        <v>5</v>
+      </c>
+      <c r="S89">
+        <v>11</v>
+      </c>
+      <c r="T89">
+        <v>6.55</v>
+      </c>
+      <c r="U89">
+        <v>2.51</v>
+      </c>
+      <c r="V89">
+        <v>1.89</v>
+      </c>
+      <c r="W89">
+        <v>1.3</v>
+      </c>
+      <c r="X89">
+        <v>3.4</v>
+      </c>
+      <c r="Y89">
+        <v>2.39</v>
+      </c>
+      <c r="Z89">
+        <v>1.55</v>
+      </c>
+      <c r="AA89">
+        <v>5.6</v>
+      </c>
+      <c r="AB89">
+        <v>1.13</v>
+      </c>
+      <c r="AC89">
+        <v>7.1</v>
+      </c>
+      <c r="AD89">
+        <v>4.8</v>
+      </c>
+      <c r="AE89">
+        <v>1.41</v>
+      </c>
+      <c r="AF89">
+        <v>1.03</v>
+      </c>
+      <c r="AG89">
+        <v>15</v>
+      </c>
+      <c r="AH89">
+        <v>1.2</v>
+      </c>
+      <c r="AI89">
+        <v>4.45</v>
+      </c>
+      <c r="AJ89">
+        <v>1.7</v>
+      </c>
+      <c r="AK89">
+        <v>2.15</v>
+      </c>
+      <c r="AL89">
+        <v>1.85</v>
+      </c>
+      <c r="AM89">
+        <v>1.9</v>
+      </c>
+      <c r="AN89">
+        <v>2.9</v>
+      </c>
+      <c r="AO89">
+        <v>1.16</v>
+      </c>
+      <c r="AP89">
+        <v>1.08</v>
+      </c>
+      <c r="AQ89">
+        <v>2.13</v>
+      </c>
+      <c r="AR89">
+        <v>1.67</v>
+      </c>
+      <c r="AS89">
+        <v>2</v>
+      </c>
+      <c r="AT89">
+        <v>1.57</v>
+      </c>
+      <c r="AU89">
+        <v>1.33</v>
+      </c>
+      <c r="AV89">
+        <v>1.74</v>
+      </c>
+      <c r="AW89">
+        <v>3.07</v>
+      </c>
+      <c r="AX89">
+        <v>4.95</v>
+      </c>
+      <c r="AY89">
+        <v>10.25</v>
+      </c>
+      <c r="AZ89">
+        <v>1.27</v>
+      </c>
+      <c r="BA89">
+        <v>1.12</v>
+      </c>
+      <c r="BB89">
+        <v>1.26</v>
+      </c>
+      <c r="BC89">
+        <v>1.47</v>
+      </c>
+      <c r="BD89">
+        <v>1.93</v>
+      </c>
+      <c r="BE89">
+        <v>2.37</v>
+      </c>
+      <c r="BF89">
+        <v>4</v>
+      </c>
+      <c r="BG89">
+        <v>6</v>
+      </c>
+      <c r="BH89">
+        <v>7</v>
+      </c>
+      <c r="BI89">
+        <v>9</v>
+      </c>
+      <c r="BJ89">
+        <v>11</v>
+      </c>
+      <c r="BK89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2465449</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F90">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" t="s">
+        <v>142</v>
+      </c>
+      <c r="P90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q90">
+        <v>8</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>8</v>
+      </c>
+      <c r="T90">
+        <v>1.38</v>
+      </c>
+      <c r="U90">
+        <v>3.17</v>
+      </c>
+      <c r="V90">
+        <v>14</v>
+      </c>
+      <c r="W90">
+        <v>1.2</v>
+      </c>
+      <c r="X90">
+        <v>4.08</v>
+      </c>
+      <c r="Y90">
+        <v>1.96</v>
+      </c>
+      <c r="Z90">
+        <v>1.76</v>
+      </c>
+      <c r="AA90">
+        <v>3.93</v>
+      </c>
+      <c r="AB90">
+        <v>1.21</v>
+      </c>
+      <c r="AC90">
+        <v>1.1</v>
+      </c>
+      <c r="AD90">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE90">
+        <v>24</v>
+      </c>
+      <c r="AF90">
+        <v>1.02</v>
+      </c>
+      <c r="AG90">
+        <v>15</v>
+      </c>
+      <c r="AH90">
+        <v>1.1</v>
+      </c>
+      <c r="AI90">
+        <v>6.5</v>
+      </c>
+      <c r="AJ90">
+        <v>1.33</v>
+      </c>
+      <c r="AK90">
+        <v>2.96</v>
+      </c>
+      <c r="AL90">
+        <v>2.46</v>
+      </c>
+      <c r="AM90">
+        <v>1.52</v>
+      </c>
+      <c r="AN90">
+        <v>1.01</v>
+      </c>
+      <c r="AO90">
+        <v>1.05</v>
+      </c>
+      <c r="AP90">
+        <v>6.9</v>
+      </c>
+      <c r="AQ90">
+        <v>3</v>
+      </c>
+      <c r="AR90">
+        <v>1</v>
+      </c>
+      <c r="AS90">
+        <v>3</v>
+      </c>
+      <c r="AT90">
+        <v>0.88</v>
+      </c>
+      <c r="AU90">
+        <v>2.4</v>
+      </c>
+      <c r="AV90">
+        <v>0.98</v>
+      </c>
+      <c r="AW90">
+        <v>3.38</v>
+      </c>
+      <c r="AX90">
+        <v>1.03</v>
+      </c>
+      <c r="AY90">
+        <v>19.5</v>
+      </c>
+      <c r="AZ90">
+        <v>15</v>
+      </c>
+      <c r="BA90">
+        <v>1.08</v>
+      </c>
+      <c r="BB90">
+        <v>1.19</v>
+      </c>
+      <c r="BC90">
+        <v>1.35</v>
+      </c>
+      <c r="BD90">
+        <v>1.65</v>
+      </c>
+      <c r="BE90">
+        <v>2</v>
+      </c>
+      <c r="BF90">
+        <v>7</v>
+      </c>
+      <c r="BG90">
+        <v>3</v>
+      </c>
+      <c r="BH90">
+        <v>16</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>23</v>
+      </c>
+      <c r="BK90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>2465450</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>66</v>
+      </c>
+      <c r="H91" t="s">
+        <v>65</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>143</v>
+      </c>
+      <c r="P91" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q91">
+        <v>11</v>
+      </c>
+      <c r="R91">
+        <v>6</v>
+      </c>
+      <c r="S91">
+        <v>17</v>
+      </c>
+      <c r="T91">
+        <v>2.72</v>
+      </c>
+      <c r="U91">
+        <v>2.09</v>
+      </c>
+      <c r="V91">
+        <v>4.26</v>
+      </c>
+      <c r="W91">
+        <v>1.44</v>
+      </c>
+      <c r="X91">
+        <v>2.7</v>
+      </c>
+      <c r="Y91">
+        <v>3.04</v>
+      </c>
+      <c r="Z91">
+        <v>1.36</v>
+      </c>
+      <c r="AA91">
+        <v>8</v>
+      </c>
+      <c r="AB91">
+        <v>1.06</v>
+      </c>
+      <c r="AC91">
+        <v>2.13</v>
+      </c>
+      <c r="AD91">
+        <v>3.4</v>
+      </c>
+      <c r="AE91">
+        <v>3.4</v>
+      </c>
+      <c r="AF91">
+        <v>1.03</v>
+      </c>
+      <c r="AG91">
+        <v>10</v>
+      </c>
+      <c r="AH91">
+        <v>1.36</v>
+      </c>
+      <c r="AI91">
+        <v>3.04</v>
+      </c>
+      <c r="AJ91">
+        <v>2.11</v>
+      </c>
+      <c r="AK91">
+        <v>1.73</v>
+      </c>
+      <c r="AL91">
+        <v>1.88</v>
+      </c>
+      <c r="AM91">
+        <v>1.88</v>
+      </c>
+      <c r="AN91">
+        <v>1.3</v>
+      </c>
+      <c r="AO91">
+        <v>1.28</v>
+      </c>
+      <c r="AP91">
+        <v>1.75</v>
+      </c>
+      <c r="AQ91">
+        <v>2</v>
+      </c>
+      <c r="AR91">
+        <v>1.17</v>
+      </c>
+      <c r="AS91">
+        <v>1.86</v>
+      </c>
+      <c r="AT91">
+        <v>1.14</v>
+      </c>
+      <c r="AU91">
+        <v>1.81</v>
+      </c>
+      <c r="AV91">
+        <v>0.99</v>
+      </c>
+      <c r="AW91">
+        <v>2.8</v>
+      </c>
+      <c r="AX91">
+        <v>1.56</v>
+      </c>
+      <c r="AY91">
+        <v>8.5</v>
+      </c>
+      <c r="AZ91">
+        <v>3.04</v>
+      </c>
+      <c r="BA91">
+        <v>1.2</v>
+      </c>
+      <c r="BB91">
+        <v>1.41</v>
+      </c>
+      <c r="BC91">
+        <v>1.74</v>
+      </c>
+      <c r="BD91">
+        <v>2.15</v>
+      </c>
+      <c r="BE91">
+        <v>2.79</v>
+      </c>
+      <c r="BF91">
+        <v>7</v>
+      </c>
+      <c r="BG91">
+        <v>9</v>
+      </c>
+      <c r="BH91">
+        <v>12</v>
+      </c>
+      <c r="BI91">
+        <v>12</v>
+      </c>
+      <c r="BJ91">
+        <v>19</v>
+      </c>
+      <c r="BK91">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>2465451</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>67</v>
+      </c>
+      <c r="H92" t="s">
+        <v>75</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>144</v>
+      </c>
+      <c r="P92" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
+      </c>
+      <c r="S92">
+        <v>5</v>
+      </c>
+      <c r="T92">
+        <v>4.22</v>
+      </c>
+      <c r="U92">
+        <v>2.07</v>
+      </c>
+      <c r="V92">
+        <v>2.78</v>
+      </c>
+      <c r="W92">
+        <v>1.45</v>
+      </c>
+      <c r="X92">
+        <v>2.67</v>
+      </c>
+      <c r="Y92">
+        <v>3.1</v>
+      </c>
+      <c r="Z92">
+        <v>1.35</v>
+      </c>
+      <c r="AA92">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB92">
+        <v>1.06</v>
+      </c>
+      <c r="AC92">
+        <v>3.4</v>
+      </c>
+      <c r="AD92">
+        <v>3.38</v>
+      </c>
+      <c r="AE92">
+        <v>2.14</v>
+      </c>
+      <c r="AF92">
+        <v>1.07</v>
+      </c>
+      <c r="AG92">
+        <v>9.35</v>
+      </c>
+      <c r="AH92">
+        <v>1.36</v>
+      </c>
+      <c r="AI92">
+        <v>3.05</v>
+      </c>
+      <c r="AJ92">
+        <v>2.15</v>
+      </c>
+      <c r="AK92">
+        <v>1.7</v>
+      </c>
+      <c r="AL92">
+        <v>1.89</v>
+      </c>
+      <c r="AM92">
+        <v>1.87</v>
+      </c>
+      <c r="AN92">
+        <v>1.67</v>
+      </c>
+      <c r="AO92">
+        <v>1.34</v>
+      </c>
+      <c r="AP92">
+        <v>1.31</v>
+      </c>
+      <c r="AQ92">
+        <v>1.57</v>
+      </c>
+      <c r="AR92">
+        <v>0.86</v>
+      </c>
+      <c r="AS92">
+        <v>1.75</v>
+      </c>
+      <c r="AT92">
+        <v>0.75</v>
+      </c>
+      <c r="AU92">
+        <v>1.49</v>
+      </c>
+      <c r="AV92">
+        <v>1.95</v>
+      </c>
+      <c r="AW92">
+        <v>3.44</v>
+      </c>
+      <c r="AX92">
+        <v>2.35</v>
+      </c>
+      <c r="AY92">
+        <v>7.3</v>
+      </c>
+      <c r="AZ92">
+        <v>1.91</v>
+      </c>
+      <c r="BA92">
+        <v>1.2</v>
+      </c>
+      <c r="BB92">
+        <v>1.32</v>
+      </c>
+      <c r="BC92">
+        <v>1.65</v>
+      </c>
+      <c r="BD92">
+        <v>2</v>
+      </c>
+      <c r="BE92">
+        <v>2.61</v>
+      </c>
+      <c r="BF92">
+        <v>2</v>
+      </c>
+      <c r="BG92">
+        <v>2</v>
+      </c>
+      <c r="BH92">
+        <v>5</v>
+      </c>
+      <c r="BI92">
+        <v>15</v>
+      </c>
+      <c r="BJ92">
+        <v>7</v>
+      </c>
+      <c r="BK92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>2465452</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>68</v>
+      </c>
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>145</v>
+      </c>
+      <c r="P93" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q93">
+        <v>8</v>
+      </c>
+      <c r="R93">
+        <v>4</v>
+      </c>
+      <c r="S93">
+        <v>12</v>
+      </c>
+      <c r="T93">
+        <v>2.96</v>
+      </c>
+      <c r="U93">
+        <v>2.03</v>
+      </c>
+      <c r="V93">
+        <v>4</v>
+      </c>
+      <c r="W93">
+        <v>1.49</v>
+      </c>
+      <c r="X93">
+        <v>2.44</v>
+      </c>
+      <c r="Y93">
+        <v>3.2</v>
+      </c>
+      <c r="Z93">
+        <v>1.3</v>
+      </c>
+      <c r="AA93">
+        <v>7.5</v>
+      </c>
+      <c r="AB93">
+        <v>1.06</v>
+      </c>
+      <c r="AC93">
+        <v>2.3</v>
+      </c>
+      <c r="AD93">
+        <v>3.24</v>
+      </c>
+      <c r="AE93">
+        <v>3.2</v>
+      </c>
+      <c r="AF93">
+        <v>1.08</v>
+      </c>
+      <c r="AG93">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AH93">
+        <v>1.41</v>
+      </c>
+      <c r="AI93">
+        <v>2.87</v>
+      </c>
+      <c r="AJ93">
+        <v>2.25</v>
+      </c>
+      <c r="AK93">
+        <v>1.57</v>
+      </c>
+      <c r="AL93">
+        <v>1.93</v>
+      </c>
+      <c r="AM93">
+        <v>1.83</v>
+      </c>
+      <c r="AN93">
+        <v>1.32</v>
+      </c>
+      <c r="AO93">
+        <v>1.35</v>
+      </c>
+      <c r="AP93">
+        <v>1.62</v>
+      </c>
+      <c r="AQ93">
+        <v>1.43</v>
+      </c>
+      <c r="AR93">
+        <v>1.5</v>
+      </c>
+      <c r="AS93">
+        <v>1.38</v>
+      </c>
+      <c r="AT93">
+        <v>1.44</v>
+      </c>
+      <c r="AU93">
+        <v>1.03</v>
+      </c>
+      <c r="AV93">
+        <v>1.41</v>
+      </c>
+      <c r="AW93">
+        <v>2.44</v>
+      </c>
+      <c r="AX93">
+        <v>1.86</v>
+      </c>
+      <c r="AY93">
+        <v>7.2</v>
+      </c>
+      <c r="AZ93">
+        <v>2.43</v>
+      </c>
+      <c r="BA93">
+        <v>1.22</v>
+      </c>
+      <c r="BB93">
+        <v>1.33</v>
+      </c>
+      <c r="BC93">
+        <v>1.69</v>
+      </c>
+      <c r="BD93">
+        <v>1.98</v>
+      </c>
+      <c r="BE93">
+        <v>2.69</v>
+      </c>
+      <c r="BF93">
+        <v>3</v>
+      </c>
+      <c r="BG93">
+        <v>4</v>
+      </c>
+      <c r="BH93">
+        <v>7</v>
+      </c>
+      <c r="BI93">
+        <v>8</v>
+      </c>
+      <c r="BJ93">
+        <v>10</v>
+      </c>
+      <c r="BK93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2465448</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44877.625</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>146</v>
+      </c>
+      <c r="P94" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q94">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
+        <v>6</v>
+      </c>
+      <c r="T94">
+        <v>2.4</v>
+      </c>
+      <c r="U94">
+        <v>2.1</v>
+      </c>
+      <c r="V94">
+        <v>5.5</v>
+      </c>
+      <c r="W94">
+        <v>1.45</v>
+      </c>
+      <c r="X94">
+        <v>2.6</v>
+      </c>
+      <c r="Y94">
+        <v>3.1</v>
+      </c>
+      <c r="Z94">
+        <v>1.32</v>
+      </c>
+      <c r="AA94">
+        <v>8.5</v>
+      </c>
+      <c r="AB94">
+        <v>1.06</v>
+      </c>
+      <c r="AC94">
+        <v>1.7</v>
+      </c>
+      <c r="AD94">
+        <v>3.75</v>
+      </c>
+      <c r="AE94">
+        <v>4.5</v>
+      </c>
+      <c r="AF94">
+        <v>1.07</v>
+      </c>
+      <c r="AG94">
+        <v>9</v>
+      </c>
+      <c r="AH94">
+        <v>1.38</v>
+      </c>
+      <c r="AI94">
+        <v>2.8</v>
+      </c>
+      <c r="AJ94">
+        <v>1.93</v>
+      </c>
+      <c r="AK94">
+        <v>1.9</v>
+      </c>
+      <c r="AL94">
+        <v>2.1</v>
+      </c>
+      <c r="AM94">
+        <v>1.7</v>
+      </c>
+      <c r="AN94">
+        <v>1.15</v>
+      </c>
+      <c r="AO94">
+        <v>1.27</v>
+      </c>
+      <c r="AP94">
+        <v>2.17</v>
+      </c>
+      <c r="AQ94">
+        <v>2.5</v>
+      </c>
+      <c r="AR94">
+        <v>0.43</v>
+      </c>
+      <c r="AS94">
+        <v>2.57</v>
+      </c>
+      <c r="AT94">
+        <v>0.38</v>
+      </c>
+      <c r="AU94">
+        <v>1.58</v>
+      </c>
+      <c r="AV94">
+        <v>1.19</v>
+      </c>
+      <c r="AW94">
+        <v>2.77</v>
+      </c>
+      <c r="AX94">
+        <v>1.37</v>
+      </c>
+      <c r="AY94">
+        <v>9.6</v>
+      </c>
+      <c r="AZ94">
+        <v>3.95</v>
+      </c>
+      <c r="BA94">
+        <v>1.2</v>
+      </c>
+      <c r="BB94">
+        <v>1.3</v>
+      </c>
+      <c r="BC94">
+        <v>1.58</v>
+      </c>
+      <c r="BD94">
+        <v>2</v>
+      </c>
+      <c r="BE94">
+        <v>2.41</v>
+      </c>
+      <c r="BF94">
+        <v>3</v>
+      </c>
+      <c r="BG94">
+        <v>3</v>
+      </c>
+      <c r="BH94">
+        <v>8</v>
+      </c>
+      <c r="BI94">
+        <v>4</v>
+      </c>
+      <c r="BJ94">
+        <v>11</v>
+      </c>
+      <c r="BK94">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK94"/>
+  <dimension ref="A1:BK95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT10" t="n">
         <v>0.13</v>
@@ -3542,7 +3542,7 @@
         <v>1.88</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0.68</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT16" t="n">
         <v>1.25</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT28" t="n">
         <v>0.88</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU29" t="n">
         <v>1.44</v>
@@ -8208,7 +8208,7 @@
         <v>0.67</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT38" t="n">
         <v>0.38</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU46" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -12271,7 +12271,7 @@
         <v>1.13</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12880,7 +12880,7 @@
         <v>3</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU61" t="n">
         <v>2.2</v>
@@ -14501,7 +14501,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT69" t="n">
         <v>1.14</v>
@@ -15110,7 +15110,7 @@
         <v>1.17</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT72" t="n">
         <v>0.88</v>
@@ -16128,7 +16128,7 @@
         <v>2.57</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -17952,7 +17952,7 @@
         <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.75</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU92" t="n">
         <v>1.49</v>
@@ -19631,6 +19631,209 @@
       </c>
       <c r="BK94" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2465458</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44910.70833333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>17</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['15', '58', '62']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['8', '16']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>8</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>12</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V95" t="n">
+        <v>8</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.88</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT6" t="n">
         <v>1.44</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.78</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT11" t="n">
         <v>2.67</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT15" t="n">
         <v>0.88</v>
@@ -3745,7 +3745,7 @@
         <v>2.78</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU16" t="n">
         <v>2.09</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU22" t="n">
         <v>0.34</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5369,7 +5369,7 @@
         <v>1.38</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU24" t="n">
         <v>0.58</v>
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU26" t="n">
         <v>1.02</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT29" t="n">
         <v>0.67</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT30" t="n">
         <v>2.67</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU31" t="n">
         <v>1.71</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU32" t="n">
         <v>2.39</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.06</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT35" t="n">
         <v>0.38</v>
@@ -7802,10 +7802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU36" t="n">
         <v>1.09</v>
@@ -8414,7 +8414,7 @@
         <v>1.88</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU39" t="n">
         <v>1.19</v>
@@ -8614,10 +8614,10 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU40" t="n">
         <v>1.67</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT42" t="n">
         <v>2.67</v>
@@ -9223,7 +9223,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU44" t="n">
         <v>2.05</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU45" t="n">
         <v>1.31</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU46" t="n">
         <v>1.27</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT47" t="n">
         <v>0.67</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU49" t="n">
         <v>1.36</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT50" t="n">
         <v>1.44</v>
@@ -10850,7 +10850,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU51" t="n">
         <v>1.74</v>
@@ -11253,7 +11253,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT53" t="n">
         <v>1.44</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU56" t="n">
         <v>1.49</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT58" t="n">
         <v>0.67</v>
@@ -12474,7 +12474,7 @@
         <v>1.88</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU59" t="n">
         <v>1.36</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT60" t="n">
         <v>0.38</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.18</v>
@@ -13283,10 +13283,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -14298,10 +14298,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU68" t="n">
         <v>1.43</v>
@@ -14504,7 +14504,7 @@
         <v>2.78</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU69" t="n">
         <v>2.62</v>
@@ -14704,7 +14704,7 @@
         <v>0.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT70" t="n">
         <v>0.38</v>
@@ -14910,7 +14910,7 @@
         <v>1.38</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU71" t="n">
         <v>1.04</v>
@@ -15113,7 +15113,7 @@
         <v>2.78</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU72" t="n">
         <v>2.63</v>
@@ -15313,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT73" t="n">
         <v>1.44</v>
@@ -15516,7 +15516,7 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT74" t="n">
         <v>0.5</v>
@@ -15922,7 +15922,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16331,7 +16331,7 @@
         <v>1.75</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16734,7 +16734,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT80" t="n">
         <v>0.5</v>
@@ -16940,7 +16940,7 @@
         <v>1.38</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU81" t="n">
         <v>1.05</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT83" t="n">
         <v>0.88</v>
@@ -17549,7 +17549,7 @@
         <v>1.88</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -17952,10 +17952,10 @@
         <v>1.29</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU86" t="n">
         <v>1.29</v>
@@ -18155,10 +18155,10 @@
         <v>0.14</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU87" t="n">
         <v>1.51</v>
@@ -18358,7 +18358,7 @@
         <v>2.57</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT88" t="n">
         <v>2.67</v>
@@ -18561,10 +18561,10 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -19376,7 +19376,7 @@
         <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU93" t="n">
         <v>1.81</v>
@@ -20188,7 +20188,7 @@
         <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.87</v>
@@ -20388,10 +20388,10 @@
         <v>1.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU98" t="n">
         <v>1.25</v>
@@ -20594,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -20797,7 +20797,7 @@
         <v>3</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -20849,6 +20849,1224 @@
       </c>
       <c r="BK100" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2465464</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44918.6875</v>
+      </c>
+      <c r="F101" t="n">
+        <v>18</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="n">
+        <v>7</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V101" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X101" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2465463</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44918.69791666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>18</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['22', '60']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['73', '75']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>12</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>13</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2465465</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44919.39583333334</v>
+      </c>
+      <c r="F103" t="n">
+        <v>18</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['38', '53', '90+5']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>8</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>13</v>
+      </c>
+      <c r="T103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2465460</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44919.39583333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3</v>
+      </c>
+      <c r="L104" t="n">
+        <v>4</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>5</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['14', '18', '40', '52']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>9</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>10</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V104" t="n">
+        <v>17</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2465461</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44919.45833333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>4</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['20', '47']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['41', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>6</v>
+      </c>
+      <c r="R105" t="n">
+        <v>9</v>
+      </c>
+      <c r="S105" t="n">
+        <v>15</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2465462</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44919.45833333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3</v>
+      </c>
+      <c r="L106" t="n">
+        <v>4</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['33', '35', '40', '50']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>9</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>10</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>5</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT2" t="n">
         <v>1.89</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT4" t="n">
         <v>0.38</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT5" t="n">
         <v>0.67</v>
@@ -1715,7 +1715,7 @@
         <v>2.1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT10" t="n">
         <v>0.2</v>
@@ -2730,7 +2730,7 @@
         <v>0.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT13" t="n">
         <v>0.89</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU14" t="n">
         <v>0.75</v>
@@ -3542,7 +3542,7 @@
         <v>2.1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU15" t="n">
         <v>1.61</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT16" t="n">
         <v>1.3</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT17" t="n">
         <v>0.67</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU18" t="n">
         <v>2.08</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT20" t="n">
         <v>1.89</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU21" t="n">
         <v>1.5</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU24" t="n">
         <v>0.58</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU25" t="n">
         <v>2.68</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU27" t="n">
         <v>1.62</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU28" t="n">
         <v>2.53</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU30" t="n">
         <v>1.54</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT33" t="n">
         <v>0.2</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.17</v>
@@ -7805,7 +7805,7 @@
         <v>0.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU36" t="n">
         <v>1.09</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU37" t="n">
         <v>0.82</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU38" t="n">
         <v>0.93</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT39" t="n">
         <v>0.2</v>
@@ -8614,10 +8614,10 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU40" t="n">
         <v>1.67</v>
@@ -8817,7 +8817,7 @@
         <v>0.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT41" t="n">
         <v>0.38</v>
@@ -9023,7 +9023,7 @@
         <v>2.1</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU42" t="n">
         <v>1.42</v>
@@ -9226,7 +9226,7 @@
         <v>0.63</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU43" t="n">
         <v>1.2</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT45" t="n">
         <v>1.3</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU48" t="n">
         <v>2.23</v>
@@ -10647,7 +10647,7 @@
         <v>0.8</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU50" t="n">
         <v>1.1</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT51" t="n">
         <v>1.3</v>
@@ -11050,10 +11050,10 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU52" t="n">
         <v>1.05</v>
@@ -11253,10 +11253,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU53" t="n">
         <v>1.97</v>
@@ -11456,10 +11456,10 @@
         <v>0.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU56" t="n">
         <v>1.49</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT58" t="n">
         <v>0.67</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT59" t="n">
         <v>1.3</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.54</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT65" t="n">
         <v>1.3</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU66" t="n">
         <v>1.76</v>
@@ -14095,10 +14095,10 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU67" t="n">
         <v>1.55</v>
@@ -14301,7 +14301,7 @@
         <v>0.63</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU68" t="n">
         <v>1.43</v>
@@ -14501,7 +14501,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT69" t="n">
         <v>0.89</v>
@@ -14907,7 +14907,7 @@
         <v>0.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT71" t="n">
         <v>0.2</v>
@@ -15110,10 +15110,10 @@
         <v>1.17</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU72" t="n">
         <v>2.63</v>
@@ -15313,10 +15313,10 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU73" t="n">
         <v>1.55</v>
@@ -15516,10 +15516,10 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU74" t="n">
         <v>1.9</v>
@@ -15719,10 +15719,10 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -15925,7 +15925,7 @@
         <v>0.8</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU76" t="n">
         <v>1.07</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT78" t="n">
         <v>0.89</v>
@@ -16737,7 +16737,7 @@
         <v>0.8</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT81" t="n">
         <v>1.89</v>
@@ -17143,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU82" t="n">
         <v>1.82</v>
@@ -17343,10 +17343,10 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU83" t="n">
         <v>1.89</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -17749,10 +17749,10 @@
         <v>1.14</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU85" t="n">
         <v>2.79</v>
@@ -18155,7 +18155,7 @@
         <v>0.14</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT87" t="n">
         <v>0.2</v>
@@ -18361,7 +18361,7 @@
         <v>0.63</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU88" t="n">
         <v>1.48</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU90" t="n">
         <v>1.03</v>
@@ -18967,7 +18967,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT91" t="n">
         <v>0.67</v>
@@ -19173,7 +19173,7 @@
         <v>3</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU92" t="n">
         <v>2.4</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT95" t="n">
         <v>0.67</v>
@@ -19985,7 +19985,7 @@
         <v>2</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -21406,7 +21406,7 @@
         <v>2.1</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU103" t="n">
         <v>1.31</v>
@@ -21809,10 +21809,10 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT106" t="n">
         <v>0.89</v>
@@ -22067,6 +22067,1224 @@
       </c>
       <c r="BK106" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2465471</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>44923.69791666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>19</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['55', '79']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['14', '33', '64']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>11</v>
+      </c>
+      <c r="S107" t="n">
+        <v>15</v>
+      </c>
+      <c r="T107" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2465469</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>44923.69791666666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>19</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>9</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2465468</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>44923.69791666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>19</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['31', '42']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6</v>
+      </c>
+      <c r="S109" t="n">
+        <v>8</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2465470</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>44923.69791666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['13', '39', '63']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>7</v>
+      </c>
+      <c r="R110" t="n">
+        <v>7</v>
+      </c>
+      <c r="S110" t="n">
+        <v>14</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V110" t="n">
+        <v>10</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2465466</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44923.69791666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['9', '70', '90+6']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>4</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2465467</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44923.70833333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['28', '36', '58', '64']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>13</v>
+      </c>
+      <c r="S112" t="n">
+        <v>18</v>
+      </c>
+      <c r="T112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -21668,7 +21668,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>2465461</v>
+        <v>2465462</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -21688,182 +21688,182 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Dundee United</t>
+          <t>Hibernian</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
         <v>4</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>['20', '47']</t>
+          <t>['33', '35', '40', '50']</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>['41', '90+4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R105" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S105" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T105" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U105" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V105" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="W105" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X105" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Y105" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Z105" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA105" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB105" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AC105" t="n">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="AD105" t="n">
         <v>3.45</v>
       </c>
       <c r="AE105" t="n">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="AF105" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AG105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH105" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AI105" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AJ105" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AK105" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU105" t="n">
         <v>1.92</v>
       </c>
-      <c r="AL105" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM105" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AO105" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP105" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AQ105" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AR105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS105" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AT105" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AU105" t="n">
-        <v>1.48</v>
-      </c>
       <c r="AV105" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AW105" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AX105" t="n">
-        <v>2.18</v>
+        <v>1.34</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ105" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
       <c r="BA105" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="BB105" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BC105" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="BD105" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="BE105" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BF105" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BG105" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH105" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BI105" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BJ105" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="BK105" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
@@ -21871,7 +21871,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>2465462</v>
+        <v>2465461</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -21891,182 +21891,182 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Hibernian</t>
+          <t>Dundee United</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N106" t="n">
         <v>4</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>['33', '35', '40', '50']</t>
+          <t>['20', '47']</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['41', '90+4']</t>
         </is>
       </c>
       <c r="Q106" t="n">
+        <v>6</v>
+      </c>
+      <c r="R106" t="n">
         <v>9</v>
       </c>
-      <c r="R106" t="n">
-        <v>1</v>
-      </c>
       <c r="S106" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T106" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U106" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V106" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="W106" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X106" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Y106" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Z106" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AA106" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB106" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AC106" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="AD106" t="n">
         <v>3.45</v>
       </c>
       <c r="AE106" t="n">
-        <v>4.2</v>
+        <v>2.35</v>
       </c>
       <c r="AF106" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AG106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH106" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AI106" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AJ106" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM106" t="n">
         <v>2.05</v>
       </c>
-      <c r="AK106" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM106" t="n">
-        <v>1.75</v>
-      </c>
       <c r="AN106" t="n">
-        <v>1.31</v>
+        <v>1.6</v>
       </c>
       <c r="AO106" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AR106" t="n">
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AU106" t="n">
-        <v>1.92</v>
+        <v>1.48</v>
       </c>
       <c r="AV106" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AW106" t="n">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="AX106" t="n">
-        <v>1.34</v>
+        <v>2.18</v>
       </c>
       <c r="AY106" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ106" t="n">
-        <v>4.1</v>
+        <v>1.97</v>
       </c>
       <c r="BA106" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BB106" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BC106" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="BD106" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="BE106" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="BF106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ106" t="n">
         <v>12</v>
       </c>
-      <c r="BG106" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH106" t="n">
-        <v>17</v>
-      </c>
-      <c r="BI106" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ106" t="n">
-        <v>29</v>
-      </c>
       <c r="BK106" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
@@ -22074,7 +22074,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>2465471</v>
+        <v>2465466</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -22094,182 +22094,182 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>St. Johnstone</t>
+          <t>Dundee United</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['9', '70', '90+6']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="n">
         <v>5</v>
       </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>['55', '79']</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>['14', '33', '64']</t>
-        </is>
-      </c>
-      <c r="Q107" t="n">
+      <c r="T107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V107" t="n">
         <v>4</v>
       </c>
-      <c r="R107" t="n">
-        <v>11</v>
-      </c>
-      <c r="S107" t="n">
-        <v>15</v>
-      </c>
-      <c r="T107" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U107" t="n">
-        <v>2</v>
-      </c>
-      <c r="V107" t="n">
+      <c r="W107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD107" t="n">
         <v>3.2</v>
       </c>
-      <c r="W107" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X107" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB107" t="n">
+      <c r="AE107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF107" t="n">
         <v>1.06</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>1.07</v>
       </c>
       <c r="AG107" t="n">
         <v>9.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI107" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AJ107" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="AK107" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="AL107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM107" t="n">
         <v>1.95</v>
       </c>
-      <c r="AM107" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AN107" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AO107" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="AR107" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.2</v>
+        <v>0.78</v>
       </c>
       <c r="AU107" t="n">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="AV107" t="n">
-        <v>1.23</v>
+        <v>0.92</v>
       </c>
       <c r="AW107" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="AX107" t="n">
-        <v>2.91</v>
+        <v>1.58</v>
       </c>
       <c r="AY107" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AZ107" t="n">
-        <v>1.61</v>
+        <v>2.99</v>
       </c>
       <c r="BA107" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="BB107" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BC107" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="BD107" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="BE107" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="BF107" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BG107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ107" t="n">
         <v>13</v>
       </c>
-      <c r="BI107" t="n">
-        <v>12</v>
-      </c>
-      <c r="BJ107" t="n">
-        <v>17</v>
-      </c>
       <c r="BK107" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
@@ -22277,7 +22277,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>2465469</v>
+        <v>2465468</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -22297,59 +22297,59 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>St. Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>['56']</t>
+          <t>['31', '42']</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>['63']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T108" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="U108" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V108" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="W108" t="n">
         <v>1.44</v>
@@ -22358,121 +22358,121 @@
         <v>2.63</v>
       </c>
       <c r="Y108" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AA108" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB108" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC108" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AD108" t="n">
         <v>3.4</v>
       </c>
       <c r="AE108" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AF108" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AG108" t="n">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="AH108" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AI108" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AJ108" t="n">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="AK108" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AL108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM108" t="n">
         <v>1.95</v>
       </c>
-      <c r="AM108" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AN108" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP108" t="n">
         <v>1.38</v>
       </c>
-      <c r="AO108" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP108" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AQ108" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="AR108" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="AU108" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AV108" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="AW108" t="n">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="AX108" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="AY108" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AZ108" t="n">
-        <v>1.99</v>
+        <v>2.44</v>
       </c>
       <c r="BA108" t="n">
         <v>1.18</v>
       </c>
       <c r="BB108" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="BC108" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="BD108" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="BE108" t="n">
-        <v>2.42</v>
+        <v>2.61</v>
       </c>
       <c r="BF108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH108" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BI108" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BJ108" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BK108" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
@@ -22480,7 +22480,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>2465468</v>
+        <v>2465469</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -22500,59 +22500,59 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>St. Mirren</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
       <c r="N109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>['31', '42']</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['63']</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V109" t="n">
         <v>3.75</v>
-      </c>
-      <c r="U109" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V109" t="n">
-        <v>2.88</v>
       </c>
       <c r="W109" t="n">
         <v>1.44</v>
@@ -22561,121 +22561,121 @@
         <v>2.63</v>
       </c>
       <c r="Y109" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Z109" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA109" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB109" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC109" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD109" t="n">
         <v>3.4</v>
       </c>
       <c r="AE109" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AF109" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AG109" t="n">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AI109" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AJ109" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="AK109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS109" t="n">
         <v>1.78</v>
       </c>
-      <c r="AL109" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP109" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AQ109" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR109" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AS109" t="n">
-        <v>1.89</v>
-      </c>
       <c r="AT109" t="n">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="AU109" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AV109" t="n">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="AW109" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="AX109" t="n">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="AY109" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AZ109" t="n">
-        <v>2.44</v>
+        <v>1.99</v>
       </c>
       <c r="BA109" t="n">
         <v>1.18</v>
       </c>
       <c r="BB109" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="BC109" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="BD109" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="BE109" t="n">
-        <v>2.61</v>
+        <v>2.42</v>
       </c>
       <c r="BF109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI109" t="n">
         <v>14</v>
       </c>
-      <c r="BI109" t="n">
+      <c r="BJ109" t="n">
         <v>8</v>
       </c>
-      <c r="BJ109" t="n">
-        <v>17</v>
-      </c>
       <c r="BK109" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -22886,7 +22886,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>2465466</v>
+        <v>2465471</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -22906,182 +22906,182 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Dundee United</t>
+          <t>St. Johnstone</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>['9', '70', '90+6']</t>
+          <t>['55', '79']</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '33', '64']</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R111" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S111" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T111" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V111" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="W111" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X111" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y111" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Z111" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA111" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF111" t="n">
         <v>1.07</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>1.06</v>
       </c>
       <c r="AG111" t="n">
         <v>9.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AI111" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AJ111" t="n">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="AK111" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="AL111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM111" t="n">
         <v>1.8</v>
       </c>
-      <c r="AM111" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AN111" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AO111" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="AR111" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.78</v>
+        <v>1.2</v>
       </c>
       <c r="AU111" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="AV111" t="n">
-        <v>0.92</v>
+        <v>1.23</v>
       </c>
       <c r="AW111" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="AX111" t="n">
-        <v>1.58</v>
+        <v>2.91</v>
       </c>
       <c r="AY111" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ111" t="n">
-        <v>2.99</v>
+        <v>1.61</v>
       </c>
       <c r="BA111" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="BB111" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="BC111" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="BD111" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="BE111" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="BF111" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BG111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH111" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BI111" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BJ111" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BK111" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT2" t="n">
         <v>1.89</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>2.1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT10" t="n">
         <v>0.2</v>
@@ -2730,7 +2730,7 @@
         <v>0.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU14" t="n">
         <v>0.75</v>
@@ -3542,7 +3542,7 @@
         <v>2.1</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU15" t="n">
         <v>1.61</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT16" t="n">
         <v>1.3</v>
@@ -3945,10 +3945,10 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU17" t="n">
         <v>0.68</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU18" t="n">
         <v>2.08</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -4760,7 +4760,7 @@
         <v>1.3</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU21" t="n">
         <v>1.5</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT24" t="n">
         <v>0.7</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT26" t="n">
         <v>0.89</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU27" t="n">
         <v>1.62</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU28" t="n">
         <v>2.53</v>
@@ -6384,7 +6384,7 @@
         <v>2.1</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU29" t="n">
         <v>1.44</v>
@@ -6587,7 +6587,7 @@
         <v>1.3</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU30" t="n">
         <v>1.54</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT31" t="n">
         <v>1.3</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT34" t="n">
         <v>1.2</v>
@@ -7602,7 +7602,7 @@
         <v>0.63</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU35" t="n">
         <v>0.85</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU37" t="n">
         <v>0.82</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU38" t="n">
         <v>0.93</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT39" t="n">
         <v>0.2</v>
@@ -8817,10 +8817,10 @@
         <v>0.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU41" t="n">
         <v>2.8</v>
@@ -9023,7 +9023,7 @@
         <v>2.1</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU42" t="n">
         <v>1.42</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT44" t="n">
         <v>1.89</v>
@@ -10038,7 +10038,7 @@
         <v>0.8</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU47" t="n">
         <v>1.09</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU48" t="n">
         <v>2.23</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT49" t="n">
         <v>0.2</v>
@@ -10647,7 +10647,7 @@
         <v>0.8</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU50" t="n">
         <v>1.1</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT51" t="n">
         <v>1.3</v>
@@ -11050,10 +11050,10 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU52" t="n">
         <v>1.05</v>
@@ -11256,7 +11256,7 @@
         <v>1.7</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU53" t="n">
         <v>1.97</v>
@@ -11456,10 +11456,10 @@
         <v>0.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT57" t="n">
         <v>1.2</v>
@@ -12271,7 +12271,7 @@
         <v>1.3</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT59" t="n">
         <v>1.3</v>
@@ -12677,7 +12677,7 @@
         <v>0.8</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU60" t="n">
         <v>1.1</v>
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU62" t="n">
         <v>2.2</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT64" t="n">
         <v>1.2</v>
@@ -13892,10 +13892,10 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU66" t="n">
         <v>1.76</v>
@@ -14095,10 +14095,10 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU67" t="n">
         <v>1.55</v>
@@ -14501,7 +14501,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT69" t="n">
         <v>0.89</v>
@@ -14707,7 +14707,7 @@
         <v>2.1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -14907,7 +14907,7 @@
         <v>0.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT71" t="n">
         <v>0.2</v>
@@ -15110,7 +15110,7 @@
         <v>1.17</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT72" t="n">
         <v>0.7</v>
@@ -15316,7 +15316,7 @@
         <v>1.3</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU73" t="n">
         <v>1.55</v>
@@ -15519,7 +15519,7 @@
         <v>1.7</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU74" t="n">
         <v>1.9</v>
@@ -15719,10 +15719,10 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT78" t="n">
         <v>0.89</v>
@@ -16534,7 +16534,7 @@
         <v>3</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU79" t="n">
         <v>2.25</v>
@@ -16737,7 +16737,7 @@
         <v>0.8</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT81" t="n">
         <v>1.89</v>
@@ -17140,10 +17140,10 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU82" t="n">
         <v>1.82</v>
@@ -17346,7 +17346,7 @@
         <v>1.7</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU83" t="n">
         <v>1.89</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT84" t="n">
         <v>0.7</v>
@@ -17749,7 +17749,7 @@
         <v>1.14</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT85" t="n">
         <v>1.2</v>
@@ -18361,7 +18361,7 @@
         <v>0.63</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU88" t="n">
         <v>1.48</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU90" t="n">
         <v>1.03</v>
@@ -18967,10 +18967,10 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU91" t="n">
         <v>1.49</v>
@@ -19173,7 +19173,7 @@
         <v>3</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU92" t="n">
         <v>2.4</v>
@@ -19373,7 +19373,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT93" t="n">
         <v>0.89</v>
@@ -19576,10 +19576,10 @@
         <v>0.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.58</v>
@@ -19779,10 +19779,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU95" t="n">
         <v>2.69</v>
@@ -19982,10 +19982,10 @@
         <v>2.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -20185,7 +20185,7 @@
         <v>0.13</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT97" t="n">
         <v>0.2</v>
@@ -20591,7 +20591,7 @@
         <v>1.57</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT99" t="n">
         <v>1.89</v>
@@ -22218,7 +22218,7 @@
         <v>1.3</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU107" t="n">
         <v>1.45</v>
@@ -22418,7 +22418,7 @@
         <v>0.78</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT108" t="n">
         <v>0.7</v>
@@ -22621,10 +22621,10 @@
         <v>0.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU109" t="n">
         <v>1.35</v>
@@ -22824,10 +22824,10 @@
         <v>1.44</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU110" t="n">
         <v>2.69</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT111" t="n">
         <v>1.2</v>
@@ -23233,7 +23233,7 @@
         <v>1.7</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AU112" t="n">
         <v>2.07</v>
@@ -23285,6 +23285,1224 @@
       </c>
       <c r="BK112" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2465476</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44928.39583333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>20</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="n">
+        <v>4</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['47', '53']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['5', '88']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>9</v>
+      </c>
+      <c r="T113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X113" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2465474</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>20</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>6</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>10</v>
+      </c>
+      <c r="T114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2465477</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>20</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="n">
+        <v>3</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V115" t="n">
+        <v>4</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2465472</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>11</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1</v>
+      </c>
+      <c r="S116" t="n">
+        <v>12</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V116" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2465473</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['8', '38', '90+4']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>7</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X117" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2465475</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>9</v>
+      </c>
+      <c r="T118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>1.27</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>0.63</v>
@@ -2324,7 +2324,7 @@
         <v>0.63</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.64</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT11" t="n">
         <v>2.55</v>
@@ -2933,7 +2933,7 @@
         <v>1.7</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1.27</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.8</v>
@@ -3745,7 +3745,7 @@
         <v>2.64</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU16" t="n">
         <v>2.09</v>
@@ -4963,7 +4963,7 @@
         <v>0.63</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU22" t="n">
         <v>0.34</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU25" t="n">
         <v>2.68</v>
@@ -5772,10 +5772,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.02</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>0.6</v>
@@ -6790,7 +6790,7 @@
         <v>2.11</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU31" t="n">
         <v>1.71</v>
@@ -7196,7 +7196,7 @@
         <v>1.7</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU33" t="n">
         <v>1.06</v>
@@ -7399,7 +7399,7 @@
         <v>1.7</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU34" t="n">
         <v>1.17</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT36" t="n">
         <v>0.7</v>
@@ -8414,7 +8414,7 @@
         <v>1.7</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU39" t="n">
         <v>1.19</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
         <v>2.55</v>
@@ -9226,7 +9226,7 @@
         <v>0.63</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU43" t="n">
         <v>1.2</v>
@@ -9632,7 +9632,7 @@
         <v>1.3</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU45" t="n">
         <v>1.31</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.27</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT47" t="n">
         <v>0.6</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU49" t="n">
         <v>1.36</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT50" t="n">
         <v>1.27</v>
@@ -10850,7 +10850,7 @@
         <v>1.8</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU51" t="n">
         <v>1.74</v>
@@ -12068,7 +12068,7 @@
         <v>1.8</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12474,7 +12474,7 @@
         <v>1.7</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU59" t="n">
         <v>1.36</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT60" t="n">
         <v>0.67</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU61" t="n">
         <v>1.18</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU64" t="n">
         <v>1.54</v>
@@ -13692,7 +13692,7 @@
         <v>1.7</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -14504,7 +14504,7 @@
         <v>2.64</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU69" t="n">
         <v>2.62</v>
@@ -14704,7 +14704,7 @@
         <v>0.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
         <v>0.67</v>
@@ -14910,7 +14910,7 @@
         <v>1.1</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU71" t="n">
         <v>1.04</v>
@@ -15922,10 +15922,10 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU76" t="n">
         <v>1.07</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT77" t="n">
         <v>0.6</v>
@@ -16331,7 +16331,7 @@
         <v>1.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16734,7 +16734,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT80" t="n">
         <v>0.63</v>
@@ -17752,7 +17752,7 @@
         <v>2.64</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU85" t="n">
         <v>2.79</v>
@@ -17952,10 +17952,10 @@
         <v>1.29</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU86" t="n">
         <v>1.29</v>
@@ -18158,7 +18158,7 @@
         <v>1.3</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU87" t="n">
         <v>1.51</v>
@@ -18561,7 +18561,7 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
         <v>1.89</v>
@@ -19376,7 +19376,7 @@
         <v>2.11</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.81</v>
@@ -19576,7 +19576,7 @@
         <v>0.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.67</v>
@@ -19982,7 +19982,7 @@
         <v>2.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT96" t="n">
         <v>2.55</v>
@@ -20188,7 +20188,7 @@
         <v>2.11</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU97" t="n">
         <v>1.87</v>
@@ -20388,10 +20388,10 @@
         <v>1.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU98" t="n">
         <v>1.25</v>
@@ -20591,7 +20591,7 @@
         <v>1.57</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT99" t="n">
         <v>1.89</v>
@@ -20797,7 +20797,7 @@
         <v>3</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT101" t="n">
         <v>1.89</v>
@@ -21203,7 +21203,7 @@
         <v>0.63</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21403,7 +21403,7 @@
         <v>0.88</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
         <v>0.7</v>
@@ -21609,7 +21609,7 @@
         <v>3</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU104" t="n">
         <v>2.57</v>
@@ -21812,7 +21812,7 @@
         <v>1.7</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU105" t="n">
         <v>1.92</v>
@@ -22015,7 +22015,7 @@
         <v>1.3</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU106" t="n">
         <v>1.48</v>
@@ -23030,7 +23030,7 @@
         <v>1.1</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU111" t="n">
         <v>1.04</v>
@@ -24042,7 +24042,7 @@
         <v>0.78</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT116" t="n">
         <v>0.8</v>
@@ -24503,6 +24503,818 @@
       </c>
       <c r="BK118" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2465478</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>21</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['74', '84']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>9</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2</v>
+      </c>
+      <c r="S119" t="n">
+        <v>11</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V119" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2465479</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>21</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['45', '51']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>4</v>
+      </c>
+      <c r="R120" t="n">
+        <v>3</v>
+      </c>
+      <c r="S120" t="n">
+        <v>7</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V120" t="n">
+        <v>17</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X120" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2465482</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>21</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="n">
+        <v>2</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['67', '70']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>4</v>
+      </c>
+      <c r="R121" t="n">
+        <v>4</v>
+      </c>
+      <c r="S121" t="n">
+        <v>8</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2465483</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>3</v>
+      </c>
+      <c r="R122" t="n">
+        <v>4</v>
+      </c>
+      <c r="S122" t="n">
+        <v>7</v>
+      </c>
+      <c r="T122" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.7</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT9" t="n">
         <v>1.18</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT13" t="n">
         <v>1.1</v>
@@ -3948,7 +3948,7 @@
         <v>1.7</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU17" t="n">
         <v>0.68</v>
@@ -4557,7 +4557,7 @@
         <v>1.7</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT21" t="n">
         <v>0.63</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT22" t="n">
         <v>1.1</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU29" t="n">
         <v>1.44</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT30" t="n">
         <v>2.55</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>2.39</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT35" t="n">
         <v>0.67</v>
@@ -9223,7 +9223,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT43" t="n">
         <v>1.18</v>
@@ -9429,7 +9429,7 @@
         <v>2.11</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU44" t="n">
         <v>2.05</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT45" t="n">
         <v>1.18</v>
@@ -10038,7 +10038,7 @@
         <v>0.73</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU47" t="n">
         <v>1.09</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT56" t="n">
         <v>0.7</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU62" t="n">
         <v>2.2</v>
@@ -13283,10 +13283,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -14298,7 +14298,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT68" t="n">
         <v>0.7</v>
@@ -15313,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT73" t="n">
         <v>1.27</v>
@@ -16128,7 +16128,7 @@
         <v>2</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -16940,7 +16940,7 @@
         <v>1.1</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU81" t="n">
         <v>1.05</v>
@@ -18155,7 +18155,7 @@
         <v>0.14</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT87" t="n">
         <v>0.18</v>
@@ -18358,7 +18358,7 @@
         <v>2.57</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT88" t="n">
         <v>2.55</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -18970,7 +18970,7 @@
         <v>1.8</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU91" t="n">
         <v>1.49</v>
@@ -19782,7 +19782,7 @@
         <v>2.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU95" t="n">
         <v>2.69</v>
@@ -20594,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -21000,7 +21000,7 @@
         <v>0.73</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21200,7 +21200,7 @@
         <v>0.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT102" t="n">
         <v>0.18</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT106" t="n">
         <v>1.18</v>
@@ -22215,7 +22215,7 @@
         <v>0.88</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT107" t="n">
         <v>0.8</v>
@@ -24248,7 +24248,7 @@
         <v>2.11</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU117" t="n">
         <v>1.86</v>
@@ -25314,6 +25314,412 @@
         <v>14</v>
       </c>
       <c r="BK122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2465481</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44934.4375</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3</v>
+      </c>
+      <c r="N123" t="n">
+        <v>5</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['59', '90+1']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['16', '52', '74']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2</v>
+      </c>
+      <c r="S123" t="n">
+        <v>7</v>
+      </c>
+      <c r="T123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2465480</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44934.54166666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>21</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['54', '57']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>1</v>
+      </c>
+      <c r="R124" t="n">
+        <v>7</v>
+      </c>
+      <c r="S124" t="n">
+        <v>8</v>
+      </c>
+      <c r="T124" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK124" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK124"/>
+  <dimension ref="A1:BK128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.8</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>0.82</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT9" t="n">
         <v>1.18</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT12" t="n">
         <v>1.18</v>
@@ -3136,7 +3136,7 @@
         <v>1.18</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU15" t="n">
         <v>1.61</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT20" t="n">
         <v>2</v>
@@ -4760,7 +4760,7 @@
         <v>1.18</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>1.5</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU22" t="n">
         <v>0.34</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>0.7</v>
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU26" t="n">
         <v>1.02</v>
@@ -6181,7 +6181,7 @@
         <v>2.64</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU28" t="n">
         <v>2.53</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT31" t="n">
         <v>1.18</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT33" t="n">
         <v>0.18</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU35" t="n">
         <v>0.85</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37" t="n">
         <v>0.82</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU38" t="n">
         <v>0.93</v>
@@ -8614,7 +8614,7 @@
         <v>1.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT40" t="n">
         <v>0.7</v>
@@ -8820,7 +8820,7 @@
         <v>2.64</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU41" t="n">
         <v>2.8</v>
@@ -9223,7 +9223,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT43" t="n">
         <v>1.18</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT44" t="n">
         <v>2</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU46" t="n">
         <v>1.27</v>
@@ -11050,7 +11050,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>2.55</v>
@@ -11253,7 +11253,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT53" t="n">
         <v>1.27</v>
@@ -11459,7 +11459,7 @@
         <v>1.7</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -11662,7 +11662,7 @@
         <v>2.64</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -12677,7 +12677,7 @@
         <v>0.73</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU60" t="n">
         <v>1.1</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT63" t="n">
         <v>2</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT65" t="n">
         <v>1.18</v>
@@ -13892,7 +13892,7 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT66" t="n">
         <v>2.55</v>
@@ -14098,7 +14098,7 @@
         <v>1.8</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU67" t="n">
         <v>1.55</v>
@@ -14298,7 +14298,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT68" t="n">
         <v>0.7</v>
@@ -14504,7 +14504,7 @@
         <v>2.64</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU69" t="n">
         <v>2.62</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -14907,7 +14907,7 @@
         <v>0.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT71" t="n">
         <v>0.18</v>
@@ -15516,10 +15516,10 @@
         <v>0.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU74" t="n">
         <v>1.9</v>
@@ -16331,7 +16331,7 @@
         <v>1.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16534,7 +16534,7 @@
         <v>3</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU79" t="n">
         <v>2.25</v>
@@ -16737,7 +16737,7 @@
         <v>0.73</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
         <v>2</v>
@@ -17140,7 +17140,7 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT82" t="n">
         <v>1.27</v>
@@ -17343,10 +17343,10 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU83" t="n">
         <v>1.89</v>
@@ -18358,7 +18358,7 @@
         <v>2.57</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT88" t="n">
         <v>2.55</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
         <v>1.27</v>
@@ -19173,7 +19173,7 @@
         <v>3</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU92" t="n">
         <v>2.4</v>
@@ -19373,10 +19373,10 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU93" t="n">
         <v>1.81</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU94" t="n">
         <v>1.58</v>
@@ -20185,7 +20185,7 @@
         <v>0.13</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT97" t="n">
         <v>0.18</v>
@@ -20797,7 +20797,7 @@
         <v>3</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -21200,7 +21200,7 @@
         <v>0.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT102" t="n">
         <v>0.18</v>
@@ -21809,10 +21809,10 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU105" t="n">
         <v>1.92</v>
@@ -22218,7 +22218,7 @@
         <v>1.18</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU107" t="n">
         <v>1.45</v>
@@ -22624,7 +22624,7 @@
         <v>1.7</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU109" t="n">
         <v>1.35</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT111" t="n">
         <v>1.18</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT112" t="n">
         <v>2.55</v>
@@ -23639,7 +23639,7 @@
         <v>1.8</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU114" t="n">
         <v>1.44</v>
@@ -23839,10 +23839,10 @@
         <v>0.38</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU115" t="n">
         <v>1.12</v>
@@ -24045,7 +24045,7 @@
         <v>2</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU116" t="n">
         <v>1.35</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT117" t="n">
         <v>0.82</v>
@@ -25060,7 +25060,7 @@
         <v>0.73</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU121" t="n">
         <v>1.13</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AT123" t="n">
         <v>0.82</v>
@@ -25721,6 +25721,818 @@
       </c>
       <c r="BK124" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2465397</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44939.69791666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>7</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>5</v>
+      </c>
+      <c r="R125" t="n">
+        <v>5</v>
+      </c>
+      <c r="S125" t="n">
+        <v>10</v>
+      </c>
+      <c r="T125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V125" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2465493</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44940.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>22</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>3</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>4</v>
+      </c>
+      <c r="N126" t="n">
+        <v>6</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['65', '67']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['8', '15', '39', '81']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2465492</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44940.5</v>
+      </c>
+      <c r="F127" t="n">
+        <v>22</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V127" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2465486</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44940.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>22</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>3</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>4</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['25', '90+2']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['6', '30']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V128" t="n">
+        <v>5</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -25988,13 +25988,13 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R126" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S126" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T126" t="n">
         <v>3.2</v>
@@ -26111,22 +26111,22 @@
         <v>2.85</v>
       </c>
       <c r="BF126" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG126" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH126" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI126" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ126" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK126" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
@@ -26191,13 +26191,13 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R127" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S127" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T127" t="n">
         <v>2.31</v>
@@ -26314,22 +26314,22 @@
         <v>2.8</v>
       </c>
       <c r="BF127" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG127" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH127" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI127" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ127" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK127" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -26394,13 +26394,13 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R128" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S128" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T128" t="n">
         <v>2.3</v>
@@ -26517,22 +26517,22 @@
         <v>2.43</v>
       </c>
       <c r="BF128" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG128" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH128" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BI128" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ128" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK128" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK128"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.7</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT3" t="n">
         <v>0.82</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT4" t="n">
         <v>0.7</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT18" t="n">
         <v>2.55</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT19" t="n">
         <v>0.7</v>
@@ -4557,7 +4557,7 @@
         <v>1.64</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4760,7 +4760,7 @@
         <v>1.18</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.5</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU24" t="n">
         <v>0.58</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT27" t="n">
         <v>1.27</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT31" t="n">
         <v>1.18</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU32" t="n">
         <v>2.39</v>
@@ -7805,7 +7805,7 @@
         <v>0.73</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>1.09</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>0.82</v>
@@ -8617,7 +8617,7 @@
         <v>1.64</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU40" t="n">
         <v>1.67</v>
@@ -9426,10 +9426,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU44" t="n">
         <v>2.05</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT51" t="n">
         <v>1.18</v>
@@ -11662,7 +11662,7 @@
         <v>2.64</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -11865,7 +11865,7 @@
         <v>1.18</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU56" t="n">
         <v>1.49</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT57" t="n">
         <v>1.18</v>
@@ -13286,7 +13286,7 @@
         <v>0.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13892,7 +13892,7 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT66" t="n">
         <v>2.55</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT67" t="n">
         <v>0.82</v>
@@ -14301,7 +14301,7 @@
         <v>0.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU68" t="n">
         <v>1.43</v>
@@ -15113,7 +15113,7 @@
         <v>2.64</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU72" t="n">
         <v>2.63</v>
@@ -15519,7 +15519,7 @@
         <v>1.64</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU74" t="n">
         <v>1.9</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT78" t="n">
         <v>1.27</v>
@@ -16737,7 +16737,7 @@
         <v>0.73</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU81" t="n">
         <v>1.05</v>
@@ -17140,7 +17140,7 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT82" t="n">
         <v>1.27</v>
@@ -17549,7 +17549,7 @@
         <v>1.7</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -18967,7 +18967,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT91" t="n">
         <v>0.82</v>
@@ -19373,7 +19373,7 @@
         <v>1.17</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT93" t="n">
         <v>1.27</v>
@@ -20185,7 +20185,7 @@
         <v>0.13</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT97" t="n">
         <v>0.18</v>
@@ -20594,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -21000,7 +21000,7 @@
         <v>0.73</v>
       </c>
       <c r="AT101" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21406,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU103" t="n">
         <v>1.31</v>
@@ -22418,10 +22418,10 @@
         <v>0.78</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU108" t="n">
         <v>1.42</v>
@@ -22624,7 +22624,7 @@
         <v>1.7</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.35</v>
@@ -23636,10 +23636,10 @@
         <v>0.57</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.44</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT117" t="n">
         <v>0.82</v>
@@ -25669,7 +25669,7 @@
         <v>1.18</v>
       </c>
       <c r="AT124" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU124" t="n">
         <v>1.48</v>
@@ -25869,10 +25869,10 @@
         <v>0.63</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU125" t="n">
         <v>1.8</v>
@@ -26533,6 +26533,615 @@
       </c>
       <c r="BK128" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2465484</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44944.69791666666</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2</v>
+      </c>
+      <c r="L129" t="n">
+        <v>4</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['15', '35', '53', '86']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>8</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2</v>
+      </c>
+      <c r="S129" t="n">
+        <v>10</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U129" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="V129" t="n">
+        <v>12</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X129" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2465485</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44944.69791666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>4</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>4</v>
+      </c>
+      <c r="L130" t="n">
+        <v>5</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>5</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['15', '28', '40', '45+1', '61']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>3</v>
+      </c>
+      <c r="R130" t="n">
+        <v>8</v>
+      </c>
+      <c r="S130" t="n">
+        <v>11</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2465491</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44944.70833333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>3</v>
+      </c>
+      <c r="N131" t="n">
+        <v>5</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['6', '85']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['23', '51', '72']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>3</v>
+      </c>
+      <c r="R131" t="n">
+        <v>4</v>
+      </c>
+      <c r="S131" t="n">
+        <v>7</v>
+      </c>
+      <c r="T131" t="n">
+        <v>8</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V131" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT11" t="n">
         <v>2.55</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT12" t="n">
         <v>1.18</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT14" t="n">
         <v>0.82</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU15" t="n">
         <v>2.09</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU17" t="n">
         <v>0.75</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT20" t="n">
         <v>2.09</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU24" t="n">
         <v>0.58</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT26" t="n">
         <v>0.82</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT27" t="n">
         <v>0.82</v>
@@ -6181,7 +6181,7 @@
         <v>1.64</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU28" t="n">
         <v>1.62</v>
@@ -6790,7 +6790,7 @@
         <v>2.27</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU31" t="n">
         <v>1.71</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU34" t="n">
         <v>1.06</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU37" t="n">
         <v>1.09</v>
@@ -8211,7 +8211,7 @@
         <v>1.7</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -8411,10 +8411,10 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -8817,7 +8817,7 @@
         <v>0.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT41" t="n">
         <v>0.7</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT42" t="n">
         <v>2.55</v>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU45" t="n">
         <v>1.36</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT46" t="n">
         <v>0.82</v>
@@ -10038,7 +10038,7 @@
         <v>1.18</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU47" t="n">
         <v>1.31</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU48" t="n">
         <v>2.23</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT49" t="n">
         <v>1.27</v>
@@ -10644,10 +10644,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU50" t="n">
         <v>1.1</v>
@@ -10850,7 +10850,7 @@
         <v>1.64</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU51" t="n">
         <v>1.74</v>
@@ -11253,10 +11253,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU53" t="n">
         <v>1.97</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -11865,7 +11865,7 @@
         <v>1.18</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU56" t="n">
         <v>1.49</v>
@@ -12677,7 +12677,7 @@
         <v>1.7</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU60" t="n">
         <v>1.36</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT61" t="n">
         <v>0.7</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU62" t="n">
         <v>1.18</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -14301,7 +14301,7 @@
         <v>0.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU68" t="n">
         <v>1.43</v>
@@ -14501,7 +14501,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT69" t="n">
         <v>1.27</v>
@@ -14704,7 +14704,7 @@
         <v>0.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT70" t="n">
         <v>0.7</v>
@@ -14907,10 +14907,10 @@
         <v>1.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU71" t="n">
         <v>2.63</v>
@@ -15110,7 +15110,7 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT72" t="n">
         <v>0.5</v>
@@ -15316,7 +15316,7 @@
         <v>1.18</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU73" t="n">
         <v>1.55</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU74" t="n">
         <v>1.04</v>
@@ -15922,7 +15922,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT76" t="n">
         <v>1.18</v>
@@ -16734,7 +16734,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT80" t="n">
         <v>0.5</v>
@@ -17143,7 +17143,7 @@
         <v>2.27</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU82" t="n">
         <v>1.82</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT83" t="n">
         <v>0.82</v>
@@ -17549,7 +17549,7 @@
         <v>1.7</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -17749,7 +17749,7 @@
         <v>1.14</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT85" t="n">
         <v>1.18</v>
@@ -17955,7 +17955,7 @@
         <v>1.18</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU86" t="n">
         <v>1.51</v>
@@ -18358,10 +18358,10 @@
         <v>1.29</v>
       </c>
       <c r="AS88" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU88" t="n">
         <v>1.29</v>
@@ -18561,7 +18561,7 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT89" t="n">
         <v>2.09</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU90" t="n">
         <v>1.03</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT95" t="n">
         <v>0.82</v>
@@ -20185,10 +20185,10 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU97" t="n">
         <v>1.25</v>
@@ -20391,7 +20391,7 @@
         <v>2.27</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU98" t="n">
         <v>1.87</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT101" t="n">
         <v>2.09</v>
@@ -21203,7 +21203,7 @@
         <v>0.6</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21406,7 +21406,7 @@
         <v>3</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU103" t="n">
         <v>2.57</v>
@@ -21606,10 +21606,10 @@
         <v>0.88</v>
       </c>
       <c r="AS104" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU104" t="n">
         <v>1.31</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT106" t="n">
         <v>1.27</v>
@@ -22624,7 +22624,7 @@
         <v>1.64</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU109" t="n">
         <v>1.42</v>
@@ -23027,10 +23027,10 @@
         <v>1.44</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU111" t="n">
         <v>2.69</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT112" t="n">
         <v>2.55</v>
@@ -23433,7 +23433,7 @@
         <v>2.7</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT113" t="n">
         <v>2.55</v>
@@ -23639,7 +23639,7 @@
         <v>1.7</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU114" t="n">
         <v>1.32</v>
@@ -24651,7 +24651,7 @@
         <v>0.89</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT119" t="n">
         <v>1.27</v>
@@ -24854,7 +24854,7 @@
         <v>1.2</v>
       </c>
       <c r="AS120" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT120" t="n">
         <v>1.18</v>
@@ -25060,7 +25060,7 @@
         <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25263,7 +25263,7 @@
         <v>3</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AU122" t="n">
         <v>2.62</v>
@@ -26478,7 +26478,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT128" t="n">
         <v>0.7</v>
@@ -26887,7 +26887,7 @@
         <v>2.27</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU130" t="n">
         <v>1.75</v>
@@ -27142,6 +27142,818 @@
       </c>
       <c r="BK131" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2465495</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>23</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3</v>
+      </c>
+      <c r="L132" t="n">
+        <v>6</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>6</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['10', '15', '45', '73', '88', '90+1']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>6</v>
+      </c>
+      <c r="R132" t="n">
+        <v>9</v>
+      </c>
+      <c r="S132" t="n">
+        <v>15</v>
+      </c>
+      <c r="T132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V132" t="n">
+        <v>4</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2465497</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>23</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['15', '57']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>9</v>
+      </c>
+      <c r="R133" t="n">
+        <v>3</v>
+      </c>
+      <c r="S133" t="n">
+        <v>12</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V133" t="n">
+        <v>13</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2465498</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>23</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>3</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['13', '48', '63']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>5</v>
+      </c>
+      <c r="S134" t="n">
+        <v>5</v>
+      </c>
+      <c r="T134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2</v>
+      </c>
+      <c r="V134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>19</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2465499</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>23</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>6</v>
+      </c>
+      <c r="R135" t="n">
+        <v>5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>11</v>
+      </c>
+      <c r="T135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT2" t="n">
         <v>2.09</v>
@@ -2730,7 +2730,7 @@
         <v>0.92</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT13" t="n">
         <v>1.27</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT16" t="n">
         <v>0.82</v>
@@ -4151,7 +4151,7 @@
         <v>1.64</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU18" t="n">
         <v>2.08</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>2.68</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU30" t="n">
         <v>1.54</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU35" t="n">
         <v>1.17</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT38" t="n">
         <v>0.17</v>
@@ -9023,7 +9023,7 @@
         <v>2.08</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU42" t="n">
         <v>1.42</v>
@@ -9226,7 +9226,7 @@
         <v>0.6</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU43" t="n">
         <v>1.2</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT47" t="n">
         <v>1.08</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU52" t="n">
         <v>1.05</v>
@@ -11456,7 +11456,7 @@
         <v>0.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT54" t="n">
         <v>0.82</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT56" t="n">
         <v>0.58</v>
@@ -12068,7 +12068,7 @@
         <v>1.64</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT58" t="n">
         <v>0.82</v>
@@ -12674,7 +12674,7 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT60" t="n">
         <v>1.08</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU64" t="n">
         <v>1.54</v>
@@ -13895,7 +13895,7 @@
         <v>2.27</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU66" t="n">
         <v>1.76</v>
@@ -15313,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT73" t="n">
         <v>1.17</v>
@@ -15719,10 +15719,10 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -15925,7 +15925,7 @@
         <v>0.92</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU76" t="n">
         <v>1.07</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT84" t="n">
         <v>0.58</v>
@@ -17752,7 +17752,7 @@
         <v>2.67</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU85" t="n">
         <v>2.79</v>
@@ -17952,7 +17952,7 @@
         <v>0.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT86" t="n">
         <v>0.17</v>
@@ -18158,7 +18158,7 @@
         <v>0.6</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU87" t="n">
         <v>1.48</v>
@@ -19985,7 +19985,7 @@
         <v>2</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -21809,10 +21809,10 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22218,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU107" t="n">
         <v>1.04</v>
@@ -22418,7 +22418,7 @@
         <v>0.88</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT108" t="n">
         <v>0.82</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT110" t="n">
         <v>0.5</v>
@@ -23233,7 +23233,7 @@
         <v>1.75</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU112" t="n">
         <v>2.07</v>
@@ -23436,7 +23436,7 @@
         <v>2.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU113" t="n">
         <v>2.64</v>
@@ -23636,7 +23636,7 @@
         <v>1.3</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT114" t="n">
         <v>1.17</v>
@@ -24857,7 +24857,7 @@
         <v>2.08</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU120" t="n">
         <v>1.38</v>
@@ -25666,7 +25666,7 @@
         <v>1.89</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT124" t="n">
         <v>2.09</v>
@@ -27954,6 +27954,412 @@
       </c>
       <c r="BK135" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2465496</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44955.4375</v>
+      </c>
+      <c r="F136" t="n">
+        <v>23</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>1</v>
+      </c>
+      <c r="R136" t="n">
+        <v>5</v>
+      </c>
+      <c r="S136" t="n">
+        <v>6</v>
+      </c>
+      <c r="T136" t="n">
+        <v>4</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2465494</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44955.54166666666</v>
+      </c>
+      <c r="F137" t="n">
+        <v>23</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['51', '56']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
+      <c r="R137" t="n">
+        <v>3</v>
+      </c>
+      <c r="S137" t="n">
+        <v>4</v>
+      </c>
+      <c r="T137" t="n">
+        <v>9</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V137" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X137" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.64</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU16" t="n">
         <v>0.68</v>
@@ -5775,7 +5775,7 @@
         <v>2.08</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU26" t="n">
         <v>1.44</v>
@@ -9835,7 +9835,7 @@
         <v>0.92</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU46" t="n">
         <v>1.09</v>
@@ -12271,7 +12271,7 @@
         <v>1.08</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12474,7 +12474,7 @@
         <v>3</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU59" t="n">
         <v>2.2</v>
@@ -16128,7 +16128,7 @@
         <v>2</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -19376,7 +19376,7 @@
         <v>1.64</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -19782,7 +19782,7 @@
         <v>2.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU95" t="n">
         <v>2.69</v>
@@ -24045,7 +24045,7 @@
         <v>2.27</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU116" t="n">
         <v>1.86</v>
@@ -25466,7 +25466,7 @@
         <v>0.6</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU123" t="n">
         <v>1.44</v>
@@ -28360,6 +28360,209 @@
       </c>
       <c r="BK137" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2465505</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>24</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>3</v>
+      </c>
+      <c r="R138" t="n">
+        <v>3</v>
+      </c>
+      <c r="S138" t="n">
+        <v>6</v>
+      </c>
+      <c r="T138" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK138"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT3" t="n">
         <v>0.82</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.08</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU15" t="n">
         <v>2.09</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT17" t="n">
         <v>1.17</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
         <v>2.58</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -4557,7 +4557,7 @@
         <v>1.75</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4760,7 +4760,7 @@
         <v>1.08</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU21" t="n">
         <v>1.5</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU22" t="n">
         <v>0.34</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT28" t="n">
         <v>1.17</v>
@@ -6381,10 +6381,10 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -6787,10 +6787,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU31" t="n">
         <v>1.71</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU32" t="n">
         <v>2.39</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU33" t="n">
         <v>0.82</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>0.85</v>
@@ -8820,7 +8820,7 @@
         <v>2.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU41" t="n">
         <v>2.8</v>
@@ -9223,7 +9223,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT43" t="n">
         <v>1.17</v>
@@ -9426,10 +9426,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU44" t="n">
         <v>2.05</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT45" t="n">
         <v>0.17</v>
@@ -10038,7 +10038,7 @@
         <v>1.08</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU47" t="n">
         <v>1.31</v>
@@ -10444,7 +10444,7 @@
         <v>2.08</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU49" t="n">
         <v>1.27</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU51" t="n">
         <v>1.74</v>
@@ -11662,7 +11662,7 @@
         <v>2.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
         <v>1.17</v>
@@ -12677,7 +12677,7 @@
         <v>1.64</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU60" t="n">
         <v>1.36</v>
@@ -12880,7 +12880,7 @@
         <v>0.92</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU61" t="n">
         <v>1.1</v>
@@ -13283,10 +13283,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT64" t="n">
         <v>1.17</v>
@@ -13692,7 +13692,7 @@
         <v>1.75</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -13892,7 +13892,7 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT66" t="n">
         <v>2.58</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT67" t="n">
         <v>0.82</v>
@@ -14298,7 +14298,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT68" t="n">
         <v>0.58</v>
@@ -14504,7 +14504,7 @@
         <v>2.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU69" t="n">
         <v>2.62</v>
@@ -14707,7 +14707,7 @@
         <v>2.08</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -15113,7 +15113,7 @@
         <v>1.75</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT77" t="n">
         <v>0.83</v>
@@ -16328,10 +16328,10 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16534,7 +16534,7 @@
         <v>3</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU79" t="n">
         <v>2.25</v>
@@ -16737,7 +16737,7 @@
         <v>0.92</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU81" t="n">
         <v>1.05</v>
@@ -17140,7 +17140,7 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT82" t="n">
         <v>1.17</v>
@@ -18155,7 +18155,7 @@
         <v>2.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT87" t="n">
         <v>2.58</v>
@@ -18361,7 +18361,7 @@
         <v>2.08</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU88" t="n">
         <v>1.29</v>
@@ -18564,7 +18564,7 @@
         <v>2.08</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -19170,10 +19170,10 @@
         <v>1.17</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -19373,7 +19373,7 @@
         <v>0.86</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT93" t="n">
         <v>0.83</v>
@@ -19576,10 +19576,10 @@
         <v>0.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU94" t="n">
         <v>1.58</v>
@@ -19982,7 +19982,7 @@
         <v>2.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT96" t="n">
         <v>2.58</v>
@@ -20188,7 +20188,7 @@
         <v>0.92</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU97" t="n">
         <v>1.25</v>
@@ -20388,7 +20388,7 @@
         <v>0.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT98" t="n">
         <v>0.17</v>
@@ -20591,10 +20591,10 @@
         <v>1.57</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -20797,7 +20797,7 @@
         <v>3</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -21000,7 +21000,7 @@
         <v>0.92</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21200,7 +21200,7 @@
         <v>0.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT102" t="n">
         <v>0.17</v>
@@ -21406,7 +21406,7 @@
         <v>3</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU103" t="n">
         <v>2.57</v>
@@ -22015,7 +22015,7 @@
         <v>1.75</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22621,7 +22621,7 @@
         <v>0.78</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT109" t="n">
         <v>0.58</v>
@@ -22827,7 +22827,7 @@
         <v>1.64</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU110" t="n">
         <v>1.35</v>
@@ -23839,10 +23839,10 @@
         <v>0.57</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU115" t="n">
         <v>1.44</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT116" t="n">
         <v>0.83</v>
@@ -24248,7 +24248,7 @@
         <v>1</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU117" t="n">
         <v>1.12</v>
@@ -24448,7 +24448,7 @@
         <v>0.78</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT118" t="n">
         <v>0.82</v>
@@ -24654,7 +24654,7 @@
         <v>0.92</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU119" t="n">
         <v>1.13</v>
@@ -25057,10 +25057,10 @@
         <v>1.3</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT123" t="n">
         <v>0.83</v>
@@ -25669,7 +25669,7 @@
         <v>1.08</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU124" t="n">
         <v>1.48</v>
@@ -25869,10 +25869,10 @@
         <v>0.63</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU125" t="n">
         <v>1.8</v>
@@ -26075,7 +26075,7 @@
         <v>1</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU126" t="n">
         <v>1.11</v>
@@ -26275,7 +26275,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT127" t="n">
         <v>0.82</v>
@@ -26481,7 +26481,7 @@
         <v>1.75</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU128" t="n">
         <v>1.95</v>
@@ -26684,7 +26684,7 @@
         <v>3</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AU129" t="n">
         <v>2.67</v>
@@ -26884,7 +26884,7 @@
         <v>0.7</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT130" t="n">
         <v>0.58</v>
@@ -27087,10 +27087,10 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AU131" t="n">
         <v>1.47</v>
@@ -27496,7 +27496,7 @@
         <v>2.67</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU133" t="n">
         <v>2.55</v>
@@ -28563,6 +28563,1021 @@
       </c>
       <c r="BK138" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2465503</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44958.69791666666</v>
+      </c>
+      <c r="F139" t="n">
+        <v>24</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>7</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>3</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2465502</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44958.69791666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>24</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['9', '34', '68']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>1</v>
+      </c>
+      <c r="R140" t="n">
+        <v>7</v>
+      </c>
+      <c r="S140" t="n">
+        <v>8</v>
+      </c>
+      <c r="T140" t="n">
+        <v>6</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2465504</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44958.69791666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>24</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['5', '49']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>3</v>
+      </c>
+      <c r="S141" t="n">
+        <v>4</v>
+      </c>
+      <c r="T141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2</v>
+      </c>
+      <c r="V141" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2465500</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44958.69791666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>24</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>3</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['57', '81', '90']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>2</v>
+      </c>
+      <c r="R142" t="n">
+        <v>11</v>
+      </c>
+      <c r="S142" t="n">
+        <v>13</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V142" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2465501</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44958.69791666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>24</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['29', '33', '45+2']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>8</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" t="n">
+        <v>8</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V143" t="n">
+        <v>10</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X143" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>42</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT2" t="n">
         <v>2.17</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT8" t="n">
         <v>0.73</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>1.61</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT15" t="n">
         <v>1.23</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0.68</v>
@@ -3945,10 +3945,10 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU17" t="n">
         <v>0.75</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -5166,7 +5166,7 @@
         <v>0.92</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5772,10 +5772,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.44</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>2.53</v>
@@ -6181,7 +6181,7 @@
         <v>1.75</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU28" t="n">
         <v>1.62</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT29" t="n">
         <v>1.17</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT31" t="n">
         <v>1.23</v>
@@ -7399,7 +7399,7 @@
         <v>1.75</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU34" t="n">
         <v>1.06</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
         <v>1.17</v>
@@ -7805,7 +7805,7 @@
         <v>0.55</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU36" t="n">
         <v>0.85</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU40" t="n">
         <v>0.93</v>
@@ -8817,10 +8817,10 @@
         <v>0.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU41" t="n">
         <v>2.8</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT42" t="n">
         <v>2.58</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT44" t="n">
         <v>2.17</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU45" t="n">
         <v>1.36</v>
@@ -9835,7 +9835,7 @@
         <v>0.92</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.09</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU48" t="n">
         <v>2.23</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT49" t="n">
         <v>1.17</v>
@@ -10647,7 +10647,7 @@
         <v>0.92</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU50" t="n">
         <v>1.1</v>
@@ -11256,7 +11256,7 @@
         <v>1.75</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU53" t="n">
         <v>1.97</v>
@@ -11456,10 +11456,10 @@
         <v>0.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT55" t="n">
         <v>0.73</v>
@@ -12271,7 +12271,7 @@
         <v>1.08</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12474,7 +12474,7 @@
         <v>3</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>2.2</v>
@@ -12674,7 +12674,7 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT60" t="n">
         <v>1.23</v>
@@ -12880,7 +12880,7 @@
         <v>0.92</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU61" t="n">
         <v>1.1</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU62" t="n">
         <v>1.18</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT64" t="n">
         <v>1.17</v>
@@ -13892,7 +13892,7 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT66" t="n">
         <v>2.58</v>
@@ -14098,7 +14098,7 @@
         <v>1.75</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU67" t="n">
         <v>1.55</v>
@@ -14501,7 +14501,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT69" t="n">
         <v>1.17</v>
@@ -14704,10 +14704,10 @@
         <v>0.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -14907,7 +14907,7 @@
         <v>1.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT71" t="n">
         <v>0.58</v>
@@ -15316,7 +15316,7 @@
         <v>1.08</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU73" t="n">
         <v>1.55</v>
@@ -15519,7 +15519,7 @@
         <v>1</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU74" t="n">
         <v>1.04</v>
@@ -15719,7 +15719,7 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT75" t="n">
         <v>2.58</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -16534,7 +16534,7 @@
         <v>3</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU79" t="n">
         <v>2.25</v>
@@ -17140,10 +17140,10 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU82" t="n">
         <v>1.82</v>
@@ -17346,7 +17346,7 @@
         <v>1.75</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU83" t="n">
         <v>1.89</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT84" t="n">
         <v>0.58</v>
@@ -17749,7 +17749,7 @@
         <v>1.14</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT85" t="n">
         <v>1.17</v>
@@ -17955,7 +17955,7 @@
         <v>1.08</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU86" t="n">
         <v>1.51</v>
@@ -18358,7 +18358,7 @@
         <v>1.29</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT88" t="n">
         <v>1.23</v>
@@ -18561,7 +18561,7 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT89" t="n">
         <v>2.17</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU90" t="n">
         <v>1.03</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU91" t="n">
         <v>2.4</v>
@@ -19170,7 +19170,7 @@
         <v>1.17</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT92" t="n">
         <v>1.17</v>
@@ -19376,7 +19376,7 @@
         <v>1.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -19576,10 +19576,10 @@
         <v>0.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU94" t="n">
         <v>1.58</v>
@@ -19779,10 +19779,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>2.69</v>
@@ -19982,7 +19982,7 @@
         <v>2.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT96" t="n">
         <v>2.58</v>
@@ -20388,10 +20388,10 @@
         <v>0.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU98" t="n">
         <v>1.87</v>
@@ -20591,7 +20591,7 @@
         <v>1.57</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT99" t="n">
         <v>2.17</v>
@@ -21203,7 +21203,7 @@
         <v>0.55</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21606,7 +21606,7 @@
         <v>0.88</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT104" t="n">
         <v>0.58</v>
@@ -22421,7 +22421,7 @@
         <v>1.08</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU108" t="n">
         <v>1.45</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT110" t="n">
         <v>0.73</v>
@@ -23027,10 +23027,10 @@
         <v>1.44</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU111" t="n">
         <v>2.69</v>
@@ -23433,7 +23433,7 @@
         <v>2.7</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT113" t="n">
         <v>2.58</v>
@@ -23636,10 +23636,10 @@
         <v>1.3</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU114" t="n">
         <v>1.32</v>
@@ -24042,10 +24042,10 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU116" t="n">
         <v>1.86</v>
@@ -24248,7 +24248,7 @@
         <v>1</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU117" t="n">
         <v>1.12</v>
@@ -24448,10 +24448,10 @@
         <v>0.78</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU118" t="n">
         <v>1.35</v>
@@ -24854,7 +24854,7 @@
         <v>1.2</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT120" t="n">
         <v>1.17</v>
@@ -25057,7 +25057,7 @@
         <v>1.3</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT121" t="n">
         <v>1.23</v>
@@ -25263,7 +25263,7 @@
         <v>3</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU122" t="n">
         <v>2.62</v>
@@ -25466,7 +25466,7 @@
         <v>0.55</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU123" t="n">
         <v>1.44</v>
@@ -25869,7 +25869,7 @@
         <v>0.63</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT125" t="n">
         <v>0.73</v>
@@ -26278,7 +26278,7 @@
         <v>0.55</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU127" t="n">
         <v>1.45</v>
@@ -26481,7 +26481,7 @@
         <v>1.75</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU128" t="n">
         <v>1.95</v>
@@ -26884,7 +26884,7 @@
         <v>0.7</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT130" t="n">
         <v>0.58</v>
@@ -27493,7 +27493,7 @@
         <v>1.18</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT133" t="n">
         <v>1.23</v>
@@ -27699,7 +27699,7 @@
         <v>0.92</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AU134" t="n">
         <v>1.15</v>
@@ -27899,10 +27899,10 @@
         <v>1.27</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU135" t="n">
         <v>1.39</v>
@@ -28102,7 +28102,7 @@
         <v>1.18</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT136" t="n">
         <v>1.17</v>
@@ -28511,7 +28511,7 @@
         <v>0.92</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.18</v>
@@ -28714,7 +28714,7 @@
         <v>1.75</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU139" t="n">
         <v>1.43</v>
@@ -28914,7 +28914,7 @@
         <v>2.09</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT140" t="n">
         <v>2.17</v>
@@ -29320,7 +29320,7 @@
         <v>0.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT142" t="n">
         <v>0.73</v>
@@ -29578,6 +29578,1021 @@
       </c>
       <c r="BK143" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2465506</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>25</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>4</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['42', '64', '69']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>9</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" t="n">
+        <v>12</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2465507</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>25</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>3</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>4</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['71', '77', '90+8']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>10</v>
+      </c>
+      <c r="R145" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" t="n">
+        <v>13</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V145" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2465508</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>25</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>3</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>3</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['10', '12', '29']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>5</v>
+      </c>
+      <c r="R146" t="n">
+        <v>5</v>
+      </c>
+      <c r="S146" t="n">
+        <v>10</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V146" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2465509</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>25</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['45+2', '75']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>4</v>
+      </c>
+      <c r="R147" t="n">
+        <v>6</v>
+      </c>
+      <c r="S147" t="n">
+        <v>10</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V147" t="n">
+        <v>13</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X147" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2465511</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44961.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>25</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>5</v>
+      </c>
+      <c r="R148" t="n">
+        <v>4</v>
+      </c>
+      <c r="S148" t="n">
+        <v>9</v>
+      </c>
+      <c r="T148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>0.92</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU18" t="n">
         <v>2.08</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT24" t="n">
         <v>0.58</v>
@@ -6587,7 +6587,7 @@
         <v>1.08</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU30" t="n">
         <v>1.54</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT33" t="n">
         <v>0.73</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT40" t="n">
         <v>0.75</v>
@@ -9023,7 +9023,7 @@
         <v>1.92</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU42" t="n">
         <v>1.42</v>
@@ -11050,10 +11050,10 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU52" t="n">
         <v>1.05</v>
@@ -13895,7 +13895,7 @@
         <v>2.15</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU66" t="n">
         <v>1.76</v>
@@ -15516,7 +15516,7 @@
         <v>0.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT74" t="n">
         <v>0.15</v>
@@ -15722,7 +15722,7 @@
         <v>1.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT81" t="n">
         <v>2.17</v>
@@ -18158,7 +18158,7 @@
         <v>0.55</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU87" t="n">
         <v>1.48</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT90" t="n">
         <v>1.08</v>
@@ -19985,7 +19985,7 @@
         <v>1.92</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT107" t="n">
         <v>1.17</v>
@@ -23233,7 +23233,7 @@
         <v>1.75</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU112" t="n">
         <v>2.07</v>
@@ -23436,7 +23436,7 @@
         <v>2.69</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU113" t="n">
         <v>2.64</v>
@@ -24245,7 +24245,7 @@
         <v>0.38</v>
       </c>
       <c r="AS117" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT117" t="n">
         <v>0.58</v>
@@ -26072,7 +26072,7 @@
         <v>1.1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT126" t="n">
         <v>1.17</v>
@@ -28308,7 +28308,7 @@
         <v>1.08</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -29645,10 +29645,10 @@
         <v>9</v>
       </c>
       <c r="R144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S144" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T144" t="n">
         <v>2.5</v>
@@ -30593,6 +30593,209 @@
       </c>
       <c r="BK148" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2465510</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44962.375</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3</v>
+      </c>
+      <c r="K149" t="n">
+        <v>4</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>4</v>
+      </c>
+      <c r="N149" t="n">
+        <v>5</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['13', '22', '38', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>3</v>
+      </c>
+      <c r="R149" t="n">
+        <v>4</v>
+      </c>
+      <c r="S149" t="n">
+        <v>7</v>
+      </c>
+      <c r="T149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X149" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,9 @@
     <t>['45+2', '75']</t>
   </si>
   <si>
+    <t>['8', '19']</t>
+  </si>
+  <si>
     <t>['72', '74']</t>
   </si>
   <si>
@@ -785,6 +788,9 @@
   </si>
   <si>
     <t>['13', '22', '38', '90+3']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +1396,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1581,7 +1587,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1772,7 +1778,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1963,7 +1969,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2154,7 +2160,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2626,7 +2632,7 @@
         <v>1.92</v>
       </c>
       <c r="AT8">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2727,7 +2733,7 @@
         <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2814,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT9">
         <v>1.23</v>
@@ -3109,7 +3115,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3491,7 +3497,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -4255,7 +4261,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4446,7 +4452,7 @@
         <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4637,7 +4643,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4828,7 +4834,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5019,7 +5025,7 @@
         <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5109,7 +5115,7 @@
         <v>1.08</v>
       </c>
       <c r="AT21">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>1.5</v>
@@ -5297,7 +5303,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT22">
         <v>1.17</v>
@@ -6356,7 +6362,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6738,7 +6744,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6929,7 +6935,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7401,7 +7407,7 @@
         <v>0.92</v>
       </c>
       <c r="AT33">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU33">
         <v>0.82</v>
@@ -7971,7 +7977,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT36">
         <v>0.58</v>
@@ -8075,7 +8081,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8839,7 +8845,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9221,7 +9227,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9308,7 +9314,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT43">
         <v>1.17</v>
@@ -9412,7 +9418,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9603,7 +9609,7 @@
         <v>108</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9794,7 +9800,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9985,7 +9991,7 @@
         <v>109</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10176,7 +10182,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10558,7 +10564,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10940,7 +10946,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11603,7 +11609,7 @@
         <v>2.69</v>
       </c>
       <c r="AT55">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU55">
         <v>2.69</v>
@@ -11895,7 +11901,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12659,7 +12665,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13041,7 +13047,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13128,7 +13134,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT63">
         <v>2.17</v>
@@ -13423,7 +13429,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13614,7 +13620,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13996,7 +14002,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14083,7 +14089,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT68">
         <v>0.58</v>
@@ -14569,7 +14575,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14850,7 +14856,7 @@
         <v>1.75</v>
       </c>
       <c r="AT72">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU72">
         <v>1.9</v>
@@ -15333,7 +15339,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -15524,7 +15530,7 @@
         <v>118</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15715,7 +15721,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15906,7 +15912,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16097,7 +16103,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16288,7 +16294,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16378,7 +16384,7 @@
         <v>0.92</v>
       </c>
       <c r="AT80">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU80">
         <v>1.23</v>
@@ -16670,7 +16676,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16861,7 +16867,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17625,7 +17631,7 @@
         <v>93</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17712,7 +17718,7 @@
         <v>2.57</v>
       </c>
       <c r="AS87">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT87">
         <v>2.62</v>
@@ -17816,7 +17822,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18007,7 +18013,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18198,7 +18204,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19153,7 +19159,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -19344,7 +19350,7 @@
         <v>80</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19535,7 +19541,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -19917,7 +19923,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20108,7 +20114,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>10</v>
@@ -20490,7 +20496,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20577,7 +20583,7 @@
         <v>0.11</v>
       </c>
       <c r="AS102">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT102">
         <v>0.15</v>
@@ -20872,7 +20878,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21063,7 +21069,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21445,7 +21451,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22018,7 +22024,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22108,7 +22114,7 @@
         <v>1.75</v>
       </c>
       <c r="AT110">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -22400,7 +22406,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22591,7 +22597,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22782,7 +22788,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23063,7 +23069,7 @@
         <v>1.75</v>
       </c>
       <c r="AT115">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU115">
         <v>1.44</v>
@@ -23355,7 +23361,7 @@
         <v>80</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23737,7 +23743,7 @@
         <v>80</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23928,7 +23934,7 @@
         <v>130</v>
       </c>
       <c r="P120" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24501,7 +24507,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24588,7 +24594,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT123">
         <v>1</v>
@@ -24692,7 +24698,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24973,7 +24979,7 @@
         <v>2.15</v>
       </c>
       <c r="AT125">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU125">
         <v>1.8</v>
@@ -25074,7 +25080,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25265,7 +25271,7 @@
         <v>92</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25352,7 +25358,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT127">
         <v>0.75</v>
@@ -25456,7 +25462,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25737,7 +25743,7 @@
         <v>3</v>
       </c>
       <c r="AT129">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU129">
         <v>2.67</v>
@@ -26029,7 +26035,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -27175,7 +27181,7 @@
         <v>80</v>
       </c>
       <c r="P137" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -27366,7 +27372,7 @@
         <v>177</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27748,7 +27754,7 @@
         <v>80</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27939,7 +27945,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28026,7 +28032,7 @@
         <v>1.08</v>
       </c>
       <c r="AS141">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AT141">
         <v>1.23</v>
@@ -28130,7 +28136,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28220,7 +28226,7 @@
         <v>1.92</v>
       </c>
       <c r="AT142">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU142">
         <v>1.53</v>
@@ -28512,7 +28518,7 @@
         <v>180</v>
       </c>
       <c r="P144" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -28703,7 +28709,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -29085,7 +29091,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29467,7 +29473,7 @@
         <v>104</v>
       </c>
       <c r="P149" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29609,6 +29615,197 @@
       </c>
       <c r="BK149">
         <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2465457</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44972.69791666666</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>72</v>
+      </c>
+      <c r="H150" t="s">
+        <v>69</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>184</v>
+      </c>
+      <c r="P150" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>5</v>
+      </c>
+      <c r="T150">
+        <v>3</v>
+      </c>
+      <c r="U150">
+        <v>2.05</v>
+      </c>
+      <c r="V150">
+        <v>3.75</v>
+      </c>
+      <c r="W150">
+        <v>1.44</v>
+      </c>
+      <c r="X150">
+        <v>2.63</v>
+      </c>
+      <c r="Y150">
+        <v>3.25</v>
+      </c>
+      <c r="Z150">
+        <v>1.33</v>
+      </c>
+      <c r="AA150">
+        <v>10</v>
+      </c>
+      <c r="AB150">
+        <v>1.06</v>
+      </c>
+      <c r="AC150">
+        <v>2.38</v>
+      </c>
+      <c r="AD150">
+        <v>3.2</v>
+      </c>
+      <c r="AE150">
+        <v>3</v>
+      </c>
+      <c r="AF150">
+        <v>1.07</v>
+      </c>
+      <c r="AG150">
+        <v>9</v>
+      </c>
+      <c r="AH150">
+        <v>1.4</v>
+      </c>
+      <c r="AI150">
+        <v>2.95</v>
+      </c>
+      <c r="AJ150">
+        <v>2.15</v>
+      </c>
+      <c r="AK150">
+        <v>1.61</v>
+      </c>
+      <c r="AL150">
+        <v>1.91</v>
+      </c>
+      <c r="AM150">
+        <v>1.91</v>
+      </c>
+      <c r="AN150">
+        <v>1.36</v>
+      </c>
+      <c r="AO150">
+        <v>1.28</v>
+      </c>
+      <c r="AP150">
+        <v>1.6</v>
+      </c>
+      <c r="AQ150">
+        <v>0.55</v>
+      </c>
+      <c r="AR150">
+        <v>0.73</v>
+      </c>
+      <c r="AS150">
+        <v>0.75</v>
+      </c>
+      <c r="AT150">
+        <v>0.67</v>
+      </c>
+      <c r="AU150">
+        <v>1.37</v>
+      </c>
+      <c r="AV150">
+        <v>1.34</v>
+      </c>
+      <c r="AW150">
+        <v>2.71</v>
+      </c>
+      <c r="AX150">
+        <v>1.98</v>
+      </c>
+      <c r="AY150">
+        <v>7.8</v>
+      </c>
+      <c r="AZ150">
+        <v>2.2</v>
+      </c>
+      <c r="BA150">
+        <v>1.19</v>
+      </c>
+      <c r="BB150">
+        <v>1.29</v>
+      </c>
+      <c r="BC150">
+        <v>1.55</v>
+      </c>
+      <c r="BD150">
+        <v>1.93</v>
+      </c>
+      <c r="BE150">
+        <v>2.5</v>
+      </c>
+      <c r="BF150">
+        <v>5</v>
+      </c>
+      <c r="BG150">
+        <v>6</v>
+      </c>
+      <c r="BH150">
+        <v>3</v>
+      </c>
+      <c r="BI150">
+        <v>8</v>
+      </c>
+      <c r="BJ150">
+        <v>8</v>
+      </c>
+      <c r="BK150">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,21 @@
     <t>['8', '19']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['16', '47']</t>
+  </si>
+  <si>
+    <t>['2', '13', '76', '89']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['40', '46']</t>
+  </si>
+  <si>
     <t>['72', '74']</t>
   </si>
   <si>
@@ -742,9 +757,6 @@
     <t>['5', '88']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['67', '70']</t>
   </si>
   <si>
@@ -791,6 +803,12 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['24', '78', '85']</t>
+  </si>
+  <si>
+    <t>['31', '82']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK150"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1414,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1483,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT2">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1587,7 +1605,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1677,7 +1695,7 @@
         <v>2.15</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1778,7 +1796,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1969,7 +1987,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2160,7 +2178,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2247,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>1.08</v>
@@ -2441,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2733,7 +2751,7 @@
         <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2820,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT9">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3014,7 +3032,7 @@
         <v>2.69</v>
       </c>
       <c r="AT10">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3115,7 +3133,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3393,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT12">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3497,7 +3515,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3584,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT13">
         <v>1.17</v>
@@ -3775,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU14">
         <v>1.61</v>
@@ -3969,7 +3987,7 @@
         <v>2.69</v>
       </c>
       <c r="AT15">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU15">
         <v>2.09</v>
@@ -4157,7 +4175,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -4261,7 +4279,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4452,7 +4470,7 @@
         <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4643,7 +4661,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4834,7 +4852,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4921,10 +4939,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT20">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU20">
         <v>1.23</v>
@@ -5025,7 +5043,7 @@
         <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5112,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT21">
         <v>0.67</v>
@@ -5303,7 +5321,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT22">
         <v>1.17</v>
@@ -5497,7 +5515,7 @@
         <v>0.92</v>
       </c>
       <c r="AT23">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5688,7 +5706,7 @@
         <v>0.92</v>
       </c>
       <c r="AT24">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU24">
         <v>0.58</v>
@@ -5879,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="AT25">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU25">
         <v>2.68</v>
@@ -6067,7 +6085,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6261,7 +6279,7 @@
         <v>2.69</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU27">
         <v>2.53</v>
@@ -6362,7 +6380,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6744,7 +6762,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6831,7 +6849,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT30">
         <v>2.62</v>
@@ -6935,7 +6953,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7025,7 +7043,7 @@
         <v>2.15</v>
       </c>
       <c r="AT31">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU31">
         <v>1.71</v>
@@ -7216,7 +7234,7 @@
         <v>3</v>
       </c>
       <c r="AT32">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU32">
         <v>2.39</v>
@@ -7595,10 +7613,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT34">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU34">
         <v>1.06</v>
@@ -7786,10 +7804,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT35">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU35">
         <v>1.17</v>
@@ -7977,7 +7995,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT36">
         <v>0.58</v>
@@ -8081,7 +8099,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8171,7 +8189,7 @@
         <v>0.92</v>
       </c>
       <c r="AT37">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU37">
         <v>1.09</v>
@@ -8359,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT38">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU38">
         <v>1.19</v>
@@ -8550,10 +8568,10 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT39">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU39">
         <v>1.67</v>
@@ -8744,7 +8762,7 @@
         <v>0.92</v>
       </c>
       <c r="AT40">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU40">
         <v>0.93</v>
@@ -8845,7 +8863,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9123,7 +9141,7 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>2.62</v>
@@ -9227,7 +9245,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9314,10 +9332,10 @@
         <v>0.33</v>
       </c>
       <c r="AS43">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT43">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU43">
         <v>1.2</v>
@@ -9418,7 +9436,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9508,7 +9526,7 @@
         <v>2.15</v>
       </c>
       <c r="AT44">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU44">
         <v>2.05</v>
@@ -9609,7 +9627,7 @@
         <v>108</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9699,7 +9717,7 @@
         <v>1.92</v>
       </c>
       <c r="AT45">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU45">
         <v>1.36</v>
@@ -9800,7 +9818,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9991,7 +10009,7 @@
         <v>109</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10078,10 +10096,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT47">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU47">
         <v>1.31</v>
@@ -10182,7 +10200,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10460,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT49">
         <v>1.17</v>
@@ -10564,7 +10582,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10845,7 +10863,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU51">
         <v>1.74</v>
@@ -10946,7 +10964,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11224,7 +11242,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT53">
         <v>1.08</v>
@@ -11415,10 +11433,10 @@
         <v>0.25</v>
       </c>
       <c r="AS54">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT54">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU54">
         <v>1.22</v>
@@ -11797,10 +11815,10 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU56">
         <v>1.49</v>
@@ -11901,7 +11919,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11991,7 +12009,7 @@
         <v>1.75</v>
       </c>
       <c r="AT57">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -12179,7 +12197,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12561,10 +12579,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT60">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU60">
         <v>1.36</v>
@@ -12665,7 +12683,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12943,10 +12961,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT62">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU62">
         <v>1.18</v>
@@ -13047,7 +13065,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13134,10 +13152,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT63">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13328,7 +13346,7 @@
         <v>1.92</v>
       </c>
       <c r="AT64">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU64">
         <v>1.54</v>
@@ -13429,7 +13447,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13516,10 +13534,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT65">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU65">
         <v>1.93</v>
@@ -13620,7 +13638,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13901,7 +13919,7 @@
         <v>1.75</v>
       </c>
       <c r="AT67">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU67">
         <v>1.55</v>
@@ -14002,7 +14020,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14089,10 +14107,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT68">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU68">
         <v>1.43</v>
@@ -14471,7 +14489,7 @@
         <v>0.6</v>
       </c>
       <c r="AS70">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>0.58</v>
@@ -14575,7 +14593,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14665,7 +14683,7 @@
         <v>2.69</v>
       </c>
       <c r="AT71">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU71">
         <v>2.63</v>
@@ -14853,7 +14871,7 @@
         <v>0.75</v>
       </c>
       <c r="AS72">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT72">
         <v>0.67</v>
@@ -15044,7 +15062,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT73">
         <v>1.08</v>
@@ -15238,7 +15256,7 @@
         <v>0.92</v>
       </c>
       <c r="AT74">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU74">
         <v>1.04</v>
@@ -15339,7 +15357,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -15426,7 +15444,7 @@
         <v>2.5</v>
       </c>
       <c r="AS75">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT75">
         <v>2.62</v>
@@ -15530,7 +15548,7 @@
         <v>118</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15620,7 +15638,7 @@
         <v>0.92</v>
       </c>
       <c r="AT76">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU76">
         <v>1.07</v>
@@ -15721,7 +15739,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15912,7 +15930,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16103,7 +16121,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16294,7 +16312,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16575,7 +16593,7 @@
         <v>0.92</v>
       </c>
       <c r="AT81">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU81">
         <v>1.05</v>
@@ -16676,7 +16694,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16867,7 +16885,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -16954,10 +16972,10 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT83">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU83">
         <v>1.89</v>
@@ -17145,10 +17163,10 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT84">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU84">
         <v>1.37</v>
@@ -17339,7 +17357,7 @@
         <v>2.69</v>
       </c>
       <c r="AT85">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU85">
         <v>2.79</v>
@@ -17527,10 +17545,10 @@
         <v>0.14</v>
       </c>
       <c r="AS86">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT86">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU86">
         <v>1.51</v>
@@ -17631,7 +17649,7 @@
         <v>93</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17718,7 +17736,7 @@
         <v>2.57</v>
       </c>
       <c r="AS87">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT87">
         <v>2.62</v>
@@ -17822,7 +17840,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17909,10 +17927,10 @@
         <v>1.29</v>
       </c>
       <c r="AS88">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT88">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU88">
         <v>1.29</v>
@@ -18013,7 +18031,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18100,10 +18118,10 @@
         <v>1.67</v>
       </c>
       <c r="AS89">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT89">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU89">
         <v>1.33</v>
@@ -18204,7 +18222,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18485,7 +18503,7 @@
         <v>3</v>
       </c>
       <c r="AT91">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU91">
         <v>2.4</v>
@@ -19159,7 +19177,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -19350,7 +19368,7 @@
         <v>80</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19541,7 +19559,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -19631,7 +19649,7 @@
         <v>0.92</v>
       </c>
       <c r="AT97">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU97">
         <v>1.25</v>
@@ -19822,7 +19840,7 @@
         <v>2.15</v>
       </c>
       <c r="AT98">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU98">
         <v>1.87</v>
@@ -19923,7 +19941,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20013,7 +20031,7 @@
         <v>1.92</v>
       </c>
       <c r="AT99">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU99">
         <v>1.37</v>
@@ -20114,7 +20132,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>10</v>
@@ -20395,7 +20413,7 @@
         <v>0.92</v>
       </c>
       <c r="AT101">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU101">
         <v>1.17</v>
@@ -20496,7 +20514,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20583,10 +20601,10 @@
         <v>0.11</v>
       </c>
       <c r="AS102">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT102">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20777,7 +20795,7 @@
         <v>3</v>
       </c>
       <c r="AT103">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU103">
         <v>2.57</v>
@@ -20878,7 +20896,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -20965,10 +20983,10 @@
         <v>0.88</v>
       </c>
       <c r="AS104">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT104">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU104">
         <v>1.31</v>
@@ -21069,7 +21087,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21156,10 +21174,10 @@
         <v>1</v>
       </c>
       <c r="AS105">
+        <v>1</v>
+      </c>
+      <c r="AT105">
         <v>1.08</v>
-      </c>
-      <c r="AT105">
-        <v>1.17</v>
       </c>
       <c r="AU105">
         <v>1.48</v>
@@ -21347,7 +21365,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT106">
         <v>1.17</v>
@@ -21451,7 +21469,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21541,7 +21559,7 @@
         <v>0.92</v>
       </c>
       <c r="AT107">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU107">
         <v>1.04</v>
@@ -21729,10 +21747,10 @@
         <v>0.88</v>
       </c>
       <c r="AS108">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT108">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU108">
         <v>1.45</v>
@@ -21923,7 +21941,7 @@
         <v>1.75</v>
       </c>
       <c r="AT109">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU109">
         <v>1.42</v>
@@ -22024,7 +22042,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22111,7 +22129,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT110">
         <v>0.67</v>
@@ -22406,7 +22424,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22493,7 +22511,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT112">
         <v>2.62</v>
@@ -22597,7 +22615,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22788,7 +22806,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22875,7 +22893,7 @@
         <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT114">
         <v>1.08</v>
@@ -23361,7 +23379,7 @@
         <v>80</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23642,7 +23660,7 @@
         <v>1.92</v>
       </c>
       <c r="AT118">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU118">
         <v>1.35</v>
@@ -23743,7 +23761,7 @@
         <v>80</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23934,7 +23952,7 @@
         <v>130</v>
       </c>
       <c r="P120" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24021,10 +24039,10 @@
         <v>1.2</v>
       </c>
       <c r="AS120">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT120">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU120">
         <v>1.38</v>
@@ -24215,7 +24233,7 @@
         <v>1.92</v>
       </c>
       <c r="AT121">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU121">
         <v>1.47</v>
@@ -24406,7 +24424,7 @@
         <v>3</v>
       </c>
       <c r="AT122">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU122">
         <v>2.62</v>
@@ -24507,7 +24525,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24594,7 +24612,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT123">
         <v>1</v>
@@ -24698,7 +24716,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24785,10 +24803,10 @@
         <v>1.89</v>
       </c>
       <c r="AS124">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT124">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU124">
         <v>1.48</v>
@@ -25080,7 +25098,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25271,7 +25289,7 @@
         <v>92</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25358,10 +25376,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT127">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU127">
         <v>1.45</v>
@@ -25462,7 +25480,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25549,7 +25567,7 @@
         <v>0.67</v>
       </c>
       <c r="AS128">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT128">
         <v>0.58</v>
@@ -25934,7 +25952,7 @@
         <v>2.15</v>
       </c>
       <c r="AT130">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU130">
         <v>1.75</v>
@@ -26035,7 +26053,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26125,7 +26143,7 @@
         <v>1.75</v>
       </c>
       <c r="AT131">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU131">
         <v>1.47</v>
@@ -26313,10 +26331,10 @@
         <v>0.64</v>
       </c>
       <c r="AS132">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT132">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU132">
         <v>1.91</v>
@@ -26507,7 +26525,7 @@
         <v>2.69</v>
       </c>
       <c r="AT133">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU133">
         <v>2.55</v>
@@ -26698,7 +26716,7 @@
         <v>0.92</v>
       </c>
       <c r="AT134">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU134">
         <v>1.15</v>
@@ -26886,7 +26904,7 @@
         <v>1.27</v>
       </c>
       <c r="AS135">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT135">
         <v>1.08</v>
@@ -27077,10 +27095,10 @@
         <v>1.18</v>
       </c>
       <c r="AS136">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT136">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU136">
         <v>1.35</v>
@@ -27181,7 +27199,7 @@
         <v>80</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -27268,7 +27286,7 @@
         <v>2.55</v>
       </c>
       <c r="AS137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT137">
         <v>2.62</v>
@@ -27372,7 +27390,7 @@
         <v>177</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27754,7 +27772,7 @@
         <v>80</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27844,7 +27862,7 @@
         <v>2.15</v>
       </c>
       <c r="AT140">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU140">
         <v>1.75</v>
@@ -27945,7 +27963,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28032,10 +28050,10 @@
         <v>1.08</v>
       </c>
       <c r="AS141">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT141">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU141">
         <v>1.42</v>
@@ -28136,7 +28154,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28518,7 +28536,7 @@
         <v>180</v>
       </c>
       <c r="P144" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -28709,7 +28727,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -28987,10 +29005,10 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT146">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AU146">
         <v>1.32</v>
@@ -29091,7 +29109,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29181,7 +29199,7 @@
         <v>2.69</v>
       </c>
       <c r="AT147">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU147">
         <v>2.56</v>
@@ -29369,7 +29387,7 @@
         <v>0.83</v>
       </c>
       <c r="AS148">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT148">
         <v>1</v>
@@ -29473,7 +29491,7 @@
         <v>104</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29664,7 +29682,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29751,7 +29769,7 @@
         <v>0.73</v>
       </c>
       <c r="AS150">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT150">
         <v>0.67</v>
@@ -29806,6 +29824,1152 @@
       </c>
       <c r="BK150">
         <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2465517</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F151">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>69</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>185</v>
+      </c>
+      <c r="P151" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q151">
+        <v>10</v>
+      </c>
+      <c r="R151">
+        <v>8</v>
+      </c>
+      <c r="S151">
+        <v>18</v>
+      </c>
+      <c r="T151">
+        <v>2.45</v>
+      </c>
+      <c r="U151">
+        <v>2</v>
+      </c>
+      <c r="V151">
+        <v>4.6</v>
+      </c>
+      <c r="W151">
+        <v>1.44</v>
+      </c>
+      <c r="X151">
+        <v>2.62</v>
+      </c>
+      <c r="Y151">
+        <v>3</v>
+      </c>
+      <c r="Z151">
+        <v>1.36</v>
+      </c>
+      <c r="AA151">
+        <v>7.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.07</v>
+      </c>
+      <c r="AC151">
+        <v>1.91</v>
+      </c>
+      <c r="AD151">
+        <v>3.1</v>
+      </c>
+      <c r="AE151">
+        <v>4</v>
+      </c>
+      <c r="AF151">
+        <v>1.08</v>
+      </c>
+      <c r="AG151">
+        <v>7</v>
+      </c>
+      <c r="AH151">
+        <v>1.4</v>
+      </c>
+      <c r="AI151">
+        <v>2.75</v>
+      </c>
+      <c r="AJ151">
+        <v>2.16</v>
+      </c>
+      <c r="AK151">
+        <v>1.65</v>
+      </c>
+      <c r="AL151">
+        <v>2</v>
+      </c>
+      <c r="AM151">
+        <v>1.73</v>
+      </c>
+      <c r="AN151">
+        <v>1.2</v>
+      </c>
+      <c r="AO151">
+        <v>1.33</v>
+      </c>
+      <c r="AP151">
+        <v>1.83</v>
+      </c>
+      <c r="AQ151">
+        <v>1.92</v>
+      </c>
+      <c r="AR151">
+        <v>0.75</v>
+      </c>
+      <c r="AS151">
+        <v>2</v>
+      </c>
+      <c r="AT151">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU151">
+        <v>1.36</v>
+      </c>
+      <c r="AV151">
+        <v>1</v>
+      </c>
+      <c r="AW151">
+        <v>2.36</v>
+      </c>
+      <c r="AX151">
+        <v>1.38</v>
+      </c>
+      <c r="AY151">
+        <v>8.5</v>
+      </c>
+      <c r="AZ151">
+        <v>3.85</v>
+      </c>
+      <c r="BA151">
+        <v>1.14</v>
+      </c>
+      <c r="BB151">
+        <v>1.3</v>
+      </c>
+      <c r="BC151">
+        <v>1.54</v>
+      </c>
+      <c r="BD151">
+        <v>1.91</v>
+      </c>
+      <c r="BE151">
+        <v>2.5</v>
+      </c>
+      <c r="BF151">
+        <v>6</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>4</v>
+      </c>
+      <c r="BI151">
+        <v>5</v>
+      </c>
+      <c r="BJ151">
+        <v>10</v>
+      </c>
+      <c r="BK151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2465515</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F152">
+        <v>26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>65</v>
+      </c>
+      <c r="H152" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>80</v>
+      </c>
+      <c r="P152" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q152">
+        <v>2</v>
+      </c>
+      <c r="R152">
+        <v>9</v>
+      </c>
+      <c r="S152">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>6.25</v>
+      </c>
+      <c r="U152">
+        <v>2.45</v>
+      </c>
+      <c r="V152">
+        <v>1.82</v>
+      </c>
+      <c r="W152">
+        <v>1.29</v>
+      </c>
+      <c r="X152">
+        <v>3.25</v>
+      </c>
+      <c r="Y152">
+        <v>2.37</v>
+      </c>
+      <c r="Z152">
+        <v>1.5</v>
+      </c>
+      <c r="AA152">
+        <v>5.5</v>
+      </c>
+      <c r="AB152">
+        <v>1.12</v>
+      </c>
+      <c r="AC152">
+        <v>7.5</v>
+      </c>
+      <c r="AD152">
+        <v>4.7</v>
+      </c>
+      <c r="AE152">
+        <v>1.34</v>
+      </c>
+      <c r="AF152">
+        <v>1.03</v>
+      </c>
+      <c r="AG152">
+        <v>12</v>
+      </c>
+      <c r="AH152">
+        <v>1.17</v>
+      </c>
+      <c r="AI152">
+        <v>4.3</v>
+      </c>
+      <c r="AJ152">
+        <v>1.67</v>
+      </c>
+      <c r="AK152">
+        <v>2.12</v>
+      </c>
+      <c r="AL152">
+        <v>1.9</v>
+      </c>
+      <c r="AM152">
+        <v>1.77</v>
+      </c>
+      <c r="AN152">
+        <v>2.95</v>
+      </c>
+      <c r="AO152">
+        <v>1.18</v>
+      </c>
+      <c r="AP152">
+        <v>1.02</v>
+      </c>
+      <c r="AQ152">
+        <v>1.75</v>
+      </c>
+      <c r="AR152">
+        <v>2.17</v>
+      </c>
+      <c r="AS152">
+        <v>1.62</v>
+      </c>
+      <c r="AT152">
+        <v>2.23</v>
+      </c>
+      <c r="AU152">
+        <v>1.36</v>
+      </c>
+      <c r="AV152">
+        <v>1.87</v>
+      </c>
+      <c r="AW152">
+        <v>3.23</v>
+      </c>
+      <c r="AX152">
+        <v>5.6</v>
+      </c>
+      <c r="AY152">
+        <v>10</v>
+      </c>
+      <c r="AZ152">
+        <v>1.21</v>
+      </c>
+      <c r="BA152">
+        <v>1.18</v>
+      </c>
+      <c r="BB152">
+        <v>1.34</v>
+      </c>
+      <c r="BC152">
+        <v>1.61</v>
+      </c>
+      <c r="BD152">
+        <v>2.02</v>
+      </c>
+      <c r="BE152">
+        <v>2.7</v>
+      </c>
+      <c r="BF152">
+        <v>2</v>
+      </c>
+      <c r="BG152">
+        <v>9</v>
+      </c>
+      <c r="BH152">
+        <v>3</v>
+      </c>
+      <c r="BI152">
+        <v>3</v>
+      </c>
+      <c r="BJ152">
+        <v>5</v>
+      </c>
+      <c r="BK152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2465514</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F153">
+        <v>26</v>
+      </c>
+      <c r="G153" t="s">
+        <v>75</v>
+      </c>
+      <c r="H153" t="s">
+        <v>67</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>186</v>
+      </c>
+      <c r="P153" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q153">
+        <v>8</v>
+      </c>
+      <c r="R153">
+        <v>4</v>
+      </c>
+      <c r="S153">
+        <v>12</v>
+      </c>
+      <c r="T153">
+        <v>2.35</v>
+      </c>
+      <c r="U153">
+        <v>2.2</v>
+      </c>
+      <c r="V153">
+        <v>5</v>
+      </c>
+      <c r="W153">
+        <v>1.39</v>
+      </c>
+      <c r="X153">
+        <v>2.8</v>
+      </c>
+      <c r="Y153">
+        <v>2.9</v>
+      </c>
+      <c r="Z153">
+        <v>1.37</v>
+      </c>
+      <c r="AA153">
+        <v>7.4</v>
+      </c>
+      <c r="AB153">
+        <v>1.06</v>
+      </c>
+      <c r="AC153">
+        <v>1.75</v>
+      </c>
+      <c r="AD153">
+        <v>3.65</v>
+      </c>
+      <c r="AE153">
+        <v>4.35</v>
+      </c>
+      <c r="AF153">
+        <v>1.05</v>
+      </c>
+      <c r="AG153">
+        <v>8</v>
+      </c>
+      <c r="AH153">
+        <v>1.27</v>
+      </c>
+      <c r="AI153">
+        <v>3.4</v>
+      </c>
+      <c r="AJ153">
+        <v>1.95</v>
+      </c>
+      <c r="AK153">
+        <v>1.79</v>
+      </c>
+      <c r="AL153">
+        <v>1.9</v>
+      </c>
+      <c r="AM153">
+        <v>1.85</v>
+      </c>
+      <c r="AN153">
+        <v>1.12</v>
+      </c>
+      <c r="AO153">
+        <v>1.25</v>
+      </c>
+      <c r="AP153">
+        <v>2.1</v>
+      </c>
+      <c r="AQ153">
+        <v>1.75</v>
+      </c>
+      <c r="AR153">
+        <v>0.15</v>
+      </c>
+      <c r="AS153">
+        <v>1.85</v>
+      </c>
+      <c r="AT153">
+        <v>0.14</v>
+      </c>
+      <c r="AU153">
+        <v>1.9</v>
+      </c>
+      <c r="AV153">
+        <v>1.07</v>
+      </c>
+      <c r="AW153">
+        <v>2.97</v>
+      </c>
+      <c r="AX153">
+        <v>1.65</v>
+      </c>
+      <c r="AY153">
+        <v>7.5</v>
+      </c>
+      <c r="AZ153">
+        <v>2.75</v>
+      </c>
+      <c r="BA153">
+        <v>1.19</v>
+      </c>
+      <c r="BB153">
+        <v>1.35</v>
+      </c>
+      <c r="BC153">
+        <v>1.63</v>
+      </c>
+      <c r="BD153">
+        <v>2.05</v>
+      </c>
+      <c r="BE153">
+        <v>2.75</v>
+      </c>
+      <c r="BF153">
+        <v>12</v>
+      </c>
+      <c r="BG153">
+        <v>4</v>
+      </c>
+      <c r="BH153">
+        <v>5</v>
+      </c>
+      <c r="BI153">
+        <v>1</v>
+      </c>
+      <c r="BJ153">
+        <v>17</v>
+      </c>
+      <c r="BK153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2465512</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F154">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>70</v>
+      </c>
+      <c r="H154" t="s">
+        <v>71</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>187</v>
+      </c>
+      <c r="P154" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q154">
+        <v>8</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>8</v>
+      </c>
+      <c r="T154">
+        <v>1.44</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
+        <v>10</v>
+      </c>
+      <c r="W154">
+        <v>1.2</v>
+      </c>
+      <c r="X154">
+        <v>4.1</v>
+      </c>
+      <c r="Y154">
+        <v>1.98</v>
+      </c>
+      <c r="Z154">
+        <v>1.72</v>
+      </c>
+      <c r="AA154">
+        <v>4.2</v>
+      </c>
+      <c r="AB154">
+        <v>1.2</v>
+      </c>
+      <c r="AC154">
+        <v>1.15</v>
+      </c>
+      <c r="AD154">
+        <v>7</v>
+      </c>
+      <c r="AE154">
+        <v>16</v>
+      </c>
+      <c r="AF154">
+        <v>1.02</v>
+      </c>
+      <c r="AG154">
+        <v>15</v>
+      </c>
+      <c r="AH154">
+        <v>1.1</v>
+      </c>
+      <c r="AI154">
+        <v>6.5</v>
+      </c>
+      <c r="AJ154">
+        <v>1.35</v>
+      </c>
+      <c r="AK154">
+        <v>3.04</v>
+      </c>
+      <c r="AL154">
+        <v>2.1</v>
+      </c>
+      <c r="AM154">
+        <v>1.67</v>
+      </c>
+      <c r="AN154">
+        <v>1.02</v>
+      </c>
+      <c r="AO154">
+        <v>1.04</v>
+      </c>
+      <c r="AP154">
+        <v>4.75</v>
+      </c>
+      <c r="AQ154">
+        <v>3</v>
+      </c>
+      <c r="AR154">
+        <v>0.58</v>
+      </c>
+      <c r="AS154">
+        <v>3</v>
+      </c>
+      <c r="AT154">
+        <v>0.54</v>
+      </c>
+      <c r="AU154">
+        <v>2.58</v>
+      </c>
+      <c r="AV154">
+        <v>1.36</v>
+      </c>
+      <c r="AW154">
+        <v>3.94</v>
+      </c>
+      <c r="AX154">
+        <v>1.1</v>
+      </c>
+      <c r="AY154">
+        <v>14</v>
+      </c>
+      <c r="AZ154">
+        <v>9.5</v>
+      </c>
+      <c r="BA154">
+        <v>1.12</v>
+      </c>
+      <c r="BB154">
+        <v>1.19</v>
+      </c>
+      <c r="BC154">
+        <v>1.34</v>
+      </c>
+      <c r="BD154">
+        <v>1.8</v>
+      </c>
+      <c r="BE154">
+        <v>1.97</v>
+      </c>
+      <c r="BF154">
+        <v>10</v>
+      </c>
+      <c r="BG154">
+        <v>0</v>
+      </c>
+      <c r="BH154">
+        <v>9</v>
+      </c>
+      <c r="BI154">
+        <v>5</v>
+      </c>
+      <c r="BJ154">
+        <v>19</v>
+      </c>
+      <c r="BK154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2465513</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44975.5</v>
+      </c>
+      <c r="F155">
+        <v>26</v>
+      </c>
+      <c r="G155" t="s">
+        <v>76</v>
+      </c>
+      <c r="H155" t="s">
+        <v>68</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>188</v>
+      </c>
+      <c r="P155" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q155">
+        <v>11</v>
+      </c>
+      <c r="R155">
+        <v>6</v>
+      </c>
+      <c r="S155">
+        <v>17</v>
+      </c>
+      <c r="T155">
+        <v>2.8</v>
+      </c>
+      <c r="U155">
+        <v>1.98</v>
+      </c>
+      <c r="V155">
+        <v>3.9</v>
+      </c>
+      <c r="W155">
+        <v>1.47</v>
+      </c>
+      <c r="X155">
+        <v>2.45</v>
+      </c>
+      <c r="Y155">
+        <v>3.2</v>
+      </c>
+      <c r="Z155">
+        <v>1.31</v>
+      </c>
+      <c r="AA155">
+        <v>8.75</v>
+      </c>
+      <c r="AB155">
+        <v>1.06</v>
+      </c>
+      <c r="AC155">
+        <v>2.14</v>
+      </c>
+      <c r="AD155">
+        <v>3.15</v>
+      </c>
+      <c r="AE155">
+        <v>3.45</v>
+      </c>
+      <c r="AF155">
+        <v>1.08</v>
+      </c>
+      <c r="AG155">
+        <v>8.5</v>
+      </c>
+      <c r="AH155">
+        <v>1.44</v>
+      </c>
+      <c r="AI155">
+        <v>2.75</v>
+      </c>
+      <c r="AJ155">
+        <v>2.18</v>
+      </c>
+      <c r="AK155">
+        <v>1.64</v>
+      </c>
+      <c r="AL155">
+        <v>1.93</v>
+      </c>
+      <c r="AM155">
+        <v>1.75</v>
+      </c>
+      <c r="AN155">
+        <v>1.3</v>
+      </c>
+      <c r="AO155">
+        <v>1.33</v>
+      </c>
+      <c r="AP155">
+        <v>1.62</v>
+      </c>
+      <c r="AQ155">
+        <v>1.08</v>
+      </c>
+      <c r="AR155">
+        <v>1.23</v>
+      </c>
+      <c r="AS155">
+        <v>1</v>
+      </c>
+      <c r="AT155">
+        <v>1.36</v>
+      </c>
+      <c r="AU155">
+        <v>1.33</v>
+      </c>
+      <c r="AV155">
+        <v>1.18</v>
+      </c>
+      <c r="AW155">
+        <v>2.51</v>
+      </c>
+      <c r="AX155">
+        <v>1.67</v>
+      </c>
+      <c r="AY155">
+        <v>7.5</v>
+      </c>
+      <c r="AZ155">
+        <v>2.75</v>
+      </c>
+      <c r="BA155">
+        <v>1.25</v>
+      </c>
+      <c r="BB155">
+        <v>1.46</v>
+      </c>
+      <c r="BC155">
+        <v>1.81</v>
+      </c>
+      <c r="BD155">
+        <v>2.35</v>
+      </c>
+      <c r="BE155">
+        <v>3.2</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>6</v>
+      </c>
+      <c r="BH155">
+        <v>10</v>
+      </c>
+      <c r="BI155">
+        <v>3</v>
+      </c>
+      <c r="BJ155">
+        <v>15</v>
+      </c>
+      <c r="BK155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2465516</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44976.375</v>
+      </c>
+      <c r="F156">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>72</v>
+      </c>
+      <c r="H156" t="s">
+        <v>66</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>189</v>
+      </c>
+      <c r="P156" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q156">
+        <v>5</v>
+      </c>
+      <c r="R156">
+        <v>9</v>
+      </c>
+      <c r="S156">
+        <v>14</v>
+      </c>
+      <c r="T156">
+        <v>3.6</v>
+      </c>
+      <c r="U156">
+        <v>2.2</v>
+      </c>
+      <c r="V156">
+        <v>3</v>
+      </c>
+      <c r="W156">
+        <v>1.4</v>
+      </c>
+      <c r="X156">
+        <v>2.75</v>
+      </c>
+      <c r="Y156">
+        <v>2.75</v>
+      </c>
+      <c r="Z156">
+        <v>1.4</v>
+      </c>
+      <c r="AA156">
+        <v>8</v>
+      </c>
+      <c r="AB156">
+        <v>1.08</v>
+      </c>
+      <c r="AC156">
+        <v>2.87</v>
+      </c>
+      <c r="AD156">
+        <v>3.38</v>
+      </c>
+      <c r="AE156">
+        <v>2.44</v>
+      </c>
+      <c r="AF156">
+        <v>1.05</v>
+      </c>
+      <c r="AG156">
+        <v>10</v>
+      </c>
+      <c r="AH156">
+        <v>1.33</v>
+      </c>
+      <c r="AI156">
+        <v>3.25</v>
+      </c>
+      <c r="AJ156">
+        <v>2.05</v>
+      </c>
+      <c r="AK156">
+        <v>1.7</v>
+      </c>
+      <c r="AL156">
+        <v>1.75</v>
+      </c>
+      <c r="AM156">
+        <v>2</v>
+      </c>
+      <c r="AN156">
+        <v>1.52</v>
+      </c>
+      <c r="AO156">
+        <v>1.31</v>
+      </c>
+      <c r="AP156">
+        <v>1.42</v>
+      </c>
+      <c r="AQ156">
+        <v>0.75</v>
+      </c>
+      <c r="AR156">
+        <v>1.17</v>
+      </c>
+      <c r="AS156">
+        <v>0.92</v>
+      </c>
+      <c r="AT156">
+        <v>1.08</v>
+      </c>
+      <c r="AU156">
+        <v>1.35</v>
+      </c>
+      <c r="AV156">
+        <v>1.26</v>
+      </c>
+      <c r="AW156">
+        <v>2.61</v>
+      </c>
+      <c r="AX156">
+        <v>2.18</v>
+      </c>
+      <c r="AY156">
+        <v>7</v>
+      </c>
+      <c r="AZ156">
+        <v>1.98</v>
+      </c>
+      <c r="BA156">
+        <v>1.24</v>
+      </c>
+      <c r="BB156">
+        <v>1.45</v>
+      </c>
+      <c r="BC156">
+        <v>1.8</v>
+      </c>
+      <c r="BD156">
+        <v>2.33</v>
+      </c>
+      <c r="BE156">
+        <v>3.2</v>
+      </c>
+      <c r="BF156">
+        <v>4</v>
+      </c>
+      <c r="BG156">
+        <v>4</v>
+      </c>
+      <c r="BH156">
+        <v>5</v>
+      </c>
+      <c r="BI156">
+        <v>8</v>
+      </c>
+      <c r="BJ156">
+        <v>9</v>
+      </c>
+      <c r="BK156">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,18 @@
     <t>['40', '46']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['6', '14', '62', '70']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['72', '74']</t>
   </si>
   <si>
@@ -791,9 +803,6 @@
   </si>
   <si>
     <t>['57', '81', '90']</t>
-  </si>
-  <si>
-    <t>['75']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -1170,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK156"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1423,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1605,7 +1614,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1796,7 +1805,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1883,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT4">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1987,7 +1996,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2178,7 +2187,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2268,7 +2277,7 @@
         <v>2</v>
       </c>
       <c r="AT6">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2647,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT8">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2751,7 +2760,7 @@
         <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3133,7 +3142,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3220,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT11">
         <v>2.62</v>
@@ -3515,7 +3524,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3605,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="AT13">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4279,7 +4288,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4366,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU17">
         <v>0.75</v>
@@ -4470,7 +4479,7 @@
         <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4557,7 +4566,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT18">
         <v>2.62</v>
@@ -4661,7 +4670,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4751,7 +4760,7 @@
         <v>2.15</v>
       </c>
       <c r="AT19">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU19">
         <v>1.58</v>
@@ -4852,7 +4861,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5043,7 +5052,7 @@
         <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5133,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU21">
         <v>1.5</v>
@@ -5324,7 +5333,7 @@
         <v>0.92</v>
       </c>
       <c r="AT22">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU22">
         <v>0.34</v>
@@ -5512,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT23">
         <v>0.14</v>
@@ -6380,7 +6389,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6467,10 +6476,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT28">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU28">
         <v>1.62</v>
@@ -6658,10 +6667,10 @@
         <v>1.5</v>
       </c>
       <c r="AS29">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU29">
         <v>1.02</v>
@@ -6762,7 +6771,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6953,7 +6962,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7425,7 +7434,7 @@
         <v>0.92</v>
       </c>
       <c r="AT33">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU33">
         <v>0.82</v>
@@ -7998,7 +8007,7 @@
         <v>0.92</v>
       </c>
       <c r="AT36">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU36">
         <v>0.85</v>
@@ -8099,7 +8108,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8186,7 +8195,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT37">
         <v>0.54</v>
@@ -8863,7 +8872,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8953,7 +8962,7 @@
         <v>2.69</v>
       </c>
       <c r="AT41">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU41">
         <v>2.8</v>
@@ -9245,7 +9254,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9436,7 +9445,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9627,7 +9636,7 @@
         <v>108</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9714,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>0.14</v>
@@ -9818,7 +9827,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9905,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10009,7 +10018,7 @@
         <v>109</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10200,7 +10209,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10290,7 +10299,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU48">
         <v>2.23</v>
@@ -10481,7 +10490,7 @@
         <v>2</v>
       </c>
       <c r="AT49">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU49">
         <v>1.27</v>
@@ -10582,7 +10591,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10669,10 +10678,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT50">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU50">
         <v>1.1</v>
@@ -10860,7 +10869,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT51">
         <v>1.36</v>
@@ -10964,7 +10973,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11245,7 +11254,7 @@
         <v>1.85</v>
       </c>
       <c r="AT53">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU53">
         <v>1.97</v>
@@ -11627,7 +11636,7 @@
         <v>2.69</v>
       </c>
       <c r="AT55">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU55">
         <v>2.69</v>
@@ -11919,7 +11928,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12006,7 +12015,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT57">
         <v>1.08</v>
@@ -12683,7 +12692,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12770,10 +12779,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT61">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU61">
         <v>1.1</v>
@@ -13065,7 +13074,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13343,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>1.08</v>
@@ -13447,7 +13456,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13638,7 +13647,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13916,7 +13925,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT67">
         <v>0.6899999999999999</v>
@@ -14020,7 +14029,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14301,7 +14310,7 @@
         <v>2.69</v>
       </c>
       <c r="AT69">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU69">
         <v>2.62</v>
@@ -14492,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AT70">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU70">
         <v>1.23</v>
@@ -14593,7 +14602,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14874,7 +14883,7 @@
         <v>1.85</v>
       </c>
       <c r="AT72">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU72">
         <v>1.9</v>
@@ -15065,7 +15074,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU73">
         <v>1.55</v>
@@ -15357,7 +15366,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -15548,7 +15557,7 @@
         <v>118</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15635,7 +15644,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT76">
         <v>1.08</v>
@@ -15739,7 +15748,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15826,7 +15835,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT77">
         <v>1</v>
@@ -15930,7 +15939,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16017,10 +16026,10 @@
         <v>0.8</v>
       </c>
       <c r="AS78">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT78">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU78">
         <v>1.49</v>
@@ -16121,7 +16130,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16211,7 +16220,7 @@
         <v>3</v>
       </c>
       <c r="AT79">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU79">
         <v>2.25</v>
@@ -16312,7 +16321,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16399,10 +16408,10 @@
         <v>0.6</v>
       </c>
       <c r="AS80">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU80">
         <v>1.23</v>
@@ -16694,7 +16703,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16784,7 +16793,7 @@
         <v>2.15</v>
       </c>
       <c r="AT82">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU82">
         <v>1.82</v>
@@ -16885,7 +16894,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17649,7 +17658,7 @@
         <v>93</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17840,7 +17849,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18031,7 +18040,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18222,7 +18231,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18312,7 +18321,7 @@
         <v>0.92</v>
       </c>
       <c r="AT90">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU90">
         <v>1.03</v>
@@ -18694,7 +18703,7 @@
         <v>2.15</v>
       </c>
       <c r="AT92">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU92">
         <v>1.81</v>
@@ -18882,7 +18891,7 @@
         <v>0.86</v>
       </c>
       <c r="AS93">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -19073,10 +19082,10 @@
         <v>0.43</v>
       </c>
       <c r="AS94">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU94">
         <v>1.58</v>
@@ -19177,7 +19186,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -19368,7 +19377,7 @@
         <v>80</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19455,7 +19464,7 @@
         <v>2.63</v>
       </c>
       <c r="AS96">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT96">
         <v>2.62</v>
@@ -19559,7 +19568,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -19646,7 +19655,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT97">
         <v>1.36</v>
@@ -19941,7 +19950,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20028,7 +20037,7 @@
         <v>1.57</v>
       </c>
       <c r="AS99">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT99">
         <v>2.23</v>
@@ -20132,7 +20141,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>10</v>
@@ -20222,7 +20231,7 @@
         <v>3</v>
       </c>
       <c r="AT100">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU100">
         <v>2.43</v>
@@ -20410,7 +20419,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT101">
         <v>2.23</v>
@@ -20514,7 +20523,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20896,7 +20905,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -21087,7 +21096,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21368,7 +21377,7 @@
         <v>1.85</v>
       </c>
       <c r="AT106">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU106">
         <v>1.92</v>
@@ -21469,7 +21478,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21938,7 +21947,7 @@
         <v>0.78</v>
       </c>
       <c r="AS109">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT109">
         <v>0.54</v>
@@ -22042,7 +22051,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22132,7 +22141,7 @@
         <v>1.62</v>
       </c>
       <c r="AT110">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU110">
         <v>1.35</v>
@@ -22323,7 +22332,7 @@
         <v>2.69</v>
       </c>
       <c r="AT111">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU111">
         <v>2.69</v>
@@ -22424,7 +22433,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22615,7 +22624,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22806,7 +22815,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22896,7 +22905,7 @@
         <v>1.62</v>
       </c>
       <c r="AT114">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU114">
         <v>1.32</v>
@@ -23084,10 +23093,10 @@
         <v>0.57</v>
       </c>
       <c r="AS115">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT115">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU115">
         <v>1.44</v>
@@ -23469,7 +23478,7 @@
         <v>0.92</v>
       </c>
       <c r="AT117">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU117">
         <v>1.12</v>
@@ -23657,7 +23666,7 @@
         <v>0.78</v>
       </c>
       <c r="AS118">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT118">
         <v>0.6899999999999999</v>
@@ -23761,7 +23770,7 @@
         <v>80</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23848,10 +23857,10 @@
         <v>0.89</v>
       </c>
       <c r="AS119">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT119">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU119">
         <v>1.13</v>
@@ -23952,7 +23961,7 @@
         <v>130</v>
       </c>
       <c r="P120" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24230,7 +24239,7 @@
         <v>1.3</v>
       </c>
       <c r="AS121">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT121">
         <v>1.36</v>
@@ -24525,7 +24534,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24716,7 +24725,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24997,7 +25006,7 @@
         <v>2.15</v>
       </c>
       <c r="AT125">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU125">
         <v>1.8</v>
@@ -25098,7 +25107,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25188,7 +25197,7 @@
         <v>0.92</v>
       </c>
       <c r="AT126">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU126">
         <v>1.11</v>
@@ -25289,7 +25298,7 @@
         <v>92</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25480,7 +25489,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25570,7 +25579,7 @@
         <v>1.85</v>
       </c>
       <c r="AT128">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU128">
         <v>1.95</v>
@@ -25761,7 +25770,7 @@
         <v>3</v>
       </c>
       <c r="AT129">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU129">
         <v>2.67</v>
@@ -26053,7 +26062,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26140,7 +26149,7 @@
         <v>2</v>
       </c>
       <c r="AS131">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT131">
         <v>2.23</v>
@@ -26713,7 +26722,7 @@
         <v>0.18</v>
       </c>
       <c r="AS134">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT134">
         <v>0.14</v>
@@ -26907,7 +26916,7 @@
         <v>2</v>
       </c>
       <c r="AT135">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU135">
         <v>1.39</v>
@@ -27199,7 +27208,7 @@
         <v>80</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -27390,7 +27399,7 @@
         <v>177</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27477,7 +27486,7 @@
         <v>0.82</v>
       </c>
       <c r="AS138">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT138">
         <v>1</v>
@@ -27668,10 +27677,10 @@
         <v>0.7</v>
       </c>
       <c r="AS139">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT139">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU139">
         <v>1.43</v>
@@ -27772,7 +27781,7 @@
         <v>80</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27963,7 +27972,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28154,7 +28163,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28241,10 +28250,10 @@
         <v>0.5</v>
       </c>
       <c r="AS142">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT142">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU142">
         <v>1.53</v>
@@ -28435,7 +28444,7 @@
         <v>3</v>
       </c>
       <c r="AT143">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU143">
         <v>2.64</v>
@@ -28536,7 +28545,7 @@
         <v>180</v>
       </c>
       <c r="P144" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="Q144">
         <v>9</v>
@@ -28623,10 +28632,10 @@
         <v>1.17</v>
       </c>
       <c r="AS144">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT144">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -28727,7 +28736,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -28817,7 +28826,7 @@
         <v>2.15</v>
       </c>
       <c r="AT145">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU145">
         <v>1.68</v>
@@ -29109,7 +29118,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29491,7 +29500,7 @@
         <v>104</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29682,7 +29691,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29772,7 +29781,7 @@
         <v>0.92</v>
       </c>
       <c r="AT150">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU150">
         <v>1.37</v>
@@ -30064,7 +30073,7 @@
         <v>80</v>
       </c>
       <c r="P152" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30637,7 +30646,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q155">
         <v>11</v>
@@ -30970,6 +30979,770 @@
       </c>
       <c r="BK156">
         <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2465518</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F157">
+        <v>27</v>
+      </c>
+      <c r="G157" t="s">
+        <v>71</v>
+      </c>
+      <c r="H157" t="s">
+        <v>65</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>190</v>
+      </c>
+      <c r="P157" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q157">
+        <v>8</v>
+      </c>
+      <c r="R157">
+        <v>8</v>
+      </c>
+      <c r="S157">
+        <v>16</v>
+      </c>
+      <c r="T157">
+        <v>2.55</v>
+      </c>
+      <c r="U157">
+        <v>2.15</v>
+      </c>
+      <c r="V157">
+        <v>4.5</v>
+      </c>
+      <c r="W157">
+        <v>1.39</v>
+      </c>
+      <c r="X157">
+        <v>2.75</v>
+      </c>
+      <c r="Y157">
+        <v>2.95</v>
+      </c>
+      <c r="Z157">
+        <v>1.35</v>
+      </c>
+      <c r="AA157">
+        <v>7.4</v>
+      </c>
+      <c r="AB157">
+        <v>1.06</v>
+      </c>
+      <c r="AC157">
+        <v>1.74</v>
+      </c>
+      <c r="AD157">
+        <v>3.25</v>
+      </c>
+      <c r="AE157">
+        <v>4.15</v>
+      </c>
+      <c r="AF157">
+        <v>1.05</v>
+      </c>
+      <c r="AG157">
+        <v>10</v>
+      </c>
+      <c r="AH157">
+        <v>1.33</v>
+      </c>
+      <c r="AI157">
+        <v>3.25</v>
+      </c>
+      <c r="AJ157">
+        <v>1.94</v>
+      </c>
+      <c r="AK157">
+        <v>1.83</v>
+      </c>
+      <c r="AL157">
+        <v>1.9</v>
+      </c>
+      <c r="AM157">
+        <v>1.87</v>
+      </c>
+      <c r="AN157">
+        <v>1.22</v>
+      </c>
+      <c r="AO157">
+        <v>1.25</v>
+      </c>
+      <c r="AP157">
+        <v>1.95</v>
+      </c>
+      <c r="AQ157">
+        <v>1.92</v>
+      </c>
+      <c r="AR157">
+        <v>1.17</v>
+      </c>
+      <c r="AS157">
+        <v>2</v>
+      </c>
+      <c r="AT157">
+        <v>1.08</v>
+      </c>
+      <c r="AU157">
+        <v>1.51</v>
+      </c>
+      <c r="AV157">
+        <v>1.07</v>
+      </c>
+      <c r="AW157">
+        <v>2.58</v>
+      </c>
+      <c r="AX157">
+        <v>1.37</v>
+      </c>
+      <c r="AY157">
+        <v>8</v>
+      </c>
+      <c r="AZ157">
+        <v>4.5</v>
+      </c>
+      <c r="BA157">
+        <v>1.19</v>
+      </c>
+      <c r="BB157">
+        <v>1.32</v>
+      </c>
+      <c r="BC157">
+        <v>1.57</v>
+      </c>
+      <c r="BD157">
+        <v>1.98</v>
+      </c>
+      <c r="BE157">
+        <v>2.65</v>
+      </c>
+      <c r="BF157">
+        <v>3</v>
+      </c>
+      <c r="BG157">
+        <v>0</v>
+      </c>
+      <c r="BH157">
+        <v>10</v>
+      </c>
+      <c r="BI157">
+        <v>7</v>
+      </c>
+      <c r="BJ157">
+        <v>13</v>
+      </c>
+      <c r="BK157">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2465521</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F158">
+        <v>27</v>
+      </c>
+      <c r="G158" t="s">
+        <v>67</v>
+      </c>
+      <c r="H158" t="s">
+        <v>72</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>191</v>
+      </c>
+      <c r="P158" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <v>6</v>
+      </c>
+      <c r="S158">
+        <v>10</v>
+      </c>
+      <c r="T158">
+        <v>3.25</v>
+      </c>
+      <c r="U158">
+        <v>2.05</v>
+      </c>
+      <c r="V158">
+        <v>3.6</v>
+      </c>
+      <c r="W158">
+        <v>1.45</v>
+      </c>
+      <c r="X158">
+        <v>2.6</v>
+      </c>
+      <c r="Y158">
+        <v>3.2</v>
+      </c>
+      <c r="Z158">
+        <v>1.31</v>
+      </c>
+      <c r="AA158">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB158">
+        <v>1.04</v>
+      </c>
+      <c r="AC158">
+        <v>2.65</v>
+      </c>
+      <c r="AD158">
+        <v>3.28</v>
+      </c>
+      <c r="AE158">
+        <v>2.31</v>
+      </c>
+      <c r="AF158">
+        <v>1.07</v>
+      </c>
+      <c r="AG158">
+        <v>8.5</v>
+      </c>
+      <c r="AH158">
+        <v>1.4</v>
+      </c>
+      <c r="AI158">
+        <v>2.95</v>
+      </c>
+      <c r="AJ158">
+        <v>2.15</v>
+      </c>
+      <c r="AK158">
+        <v>1.67</v>
+      </c>
+      <c r="AL158">
+        <v>1.9</v>
+      </c>
+      <c r="AM158">
+        <v>1.87</v>
+      </c>
+      <c r="AN158">
+        <v>1.42</v>
+      </c>
+      <c r="AO158">
+        <v>1.3</v>
+      </c>
+      <c r="AP158">
+        <v>1.55</v>
+      </c>
+      <c r="AQ158">
+        <v>1.75</v>
+      </c>
+      <c r="AR158">
+        <v>1.08</v>
+      </c>
+      <c r="AS158">
+        <v>1.69</v>
+      </c>
+      <c r="AT158">
+        <v>1.07</v>
+      </c>
+      <c r="AU158">
+        <v>1.52</v>
+      </c>
+      <c r="AV158">
+        <v>1.33</v>
+      </c>
+      <c r="AW158">
+        <v>2.85</v>
+      </c>
+      <c r="AX158">
+        <v>1.92</v>
+      </c>
+      <c r="AY158">
+        <v>7</v>
+      </c>
+      <c r="AZ158">
+        <v>2.45</v>
+      </c>
+      <c r="BA158">
+        <v>1.18</v>
+      </c>
+      <c r="BB158">
+        <v>1.28</v>
+      </c>
+      <c r="BC158">
+        <v>1.51</v>
+      </c>
+      <c r="BD158">
+        <v>2</v>
+      </c>
+      <c r="BE158">
+        <v>2.45</v>
+      </c>
+      <c r="BF158">
+        <v>2</v>
+      </c>
+      <c r="BG158">
+        <v>8</v>
+      </c>
+      <c r="BH158">
+        <v>7</v>
+      </c>
+      <c r="BI158">
+        <v>5</v>
+      </c>
+      <c r="BJ158">
+        <v>9</v>
+      </c>
+      <c r="BK158">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2465522</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F159">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s">
+        <v>74</v>
+      </c>
+      <c r="H159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>4</v>
+      </c>
+      <c r="O159" t="s">
+        <v>192</v>
+      </c>
+      <c r="P159" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q159">
+        <v>3</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>5</v>
+      </c>
+      <c r="T159">
+        <v>3.2</v>
+      </c>
+      <c r="U159">
+        <v>1.95</v>
+      </c>
+      <c r="V159">
+        <v>3.3</v>
+      </c>
+      <c r="W159">
+        <v>1.44</v>
+      </c>
+      <c r="X159">
+        <v>2.62</v>
+      </c>
+      <c r="Y159">
+        <v>3.25</v>
+      </c>
+      <c r="Z159">
+        <v>1.33</v>
+      </c>
+      <c r="AA159">
+        <v>8</v>
+      </c>
+      <c r="AB159">
+        <v>1.06</v>
+      </c>
+      <c r="AC159">
+        <v>2.65</v>
+      </c>
+      <c r="AD159">
+        <v>2.9</v>
+      </c>
+      <c r="AE159">
+        <v>2.5</v>
+      </c>
+      <c r="AF159">
+        <v>1.08</v>
+      </c>
+      <c r="AG159">
+        <v>7</v>
+      </c>
+      <c r="AH159">
+        <v>1.4</v>
+      </c>
+      <c r="AI159">
+        <v>2.75</v>
+      </c>
+      <c r="AJ159">
+        <v>2.25</v>
+      </c>
+      <c r="AK159">
+        <v>1.57</v>
+      </c>
+      <c r="AL159">
+        <v>1.91</v>
+      </c>
+      <c r="AM159">
+        <v>1.8</v>
+      </c>
+      <c r="AN159">
+        <v>1.45</v>
+      </c>
+      <c r="AO159">
+        <v>1.38</v>
+      </c>
+      <c r="AP159">
+        <v>1.5</v>
+      </c>
+      <c r="AQ159">
+        <v>0.92</v>
+      </c>
+      <c r="AR159">
+        <v>0.58</v>
+      </c>
+      <c r="AS159">
+        <v>1.07</v>
+      </c>
+      <c r="AT159">
+        <v>0.54</v>
+      </c>
+      <c r="AU159">
+        <v>1.18</v>
+      </c>
+      <c r="AV159">
+        <v>1.16</v>
+      </c>
+      <c r="AW159">
+        <v>2.34</v>
+      </c>
+      <c r="AX159">
+        <v>2.75</v>
+      </c>
+      <c r="AY159">
+        <v>7.5</v>
+      </c>
+      <c r="AZ159">
+        <v>1.66</v>
+      </c>
+      <c r="BA159">
+        <v>1.19</v>
+      </c>
+      <c r="BB159">
+        <v>1.36</v>
+      </c>
+      <c r="BC159">
+        <v>1.65</v>
+      </c>
+      <c r="BD159">
+        <v>2.1</v>
+      </c>
+      <c r="BE159">
+        <v>2.85</v>
+      </c>
+      <c r="BF159">
+        <v>9</v>
+      </c>
+      <c r="BG159">
+        <v>4</v>
+      </c>
+      <c r="BH159">
+        <v>15</v>
+      </c>
+      <c r="BI159">
+        <v>6</v>
+      </c>
+      <c r="BJ159">
+        <v>24</v>
+      </c>
+      <c r="BK159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2465523</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F160">
+        <v>27</v>
+      </c>
+      <c r="G160" t="s">
+        <v>68</v>
+      </c>
+      <c r="H160" t="s">
+        <v>69</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>193</v>
+      </c>
+      <c r="P160" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q160">
+        <v>5</v>
+      </c>
+      <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>7</v>
+      </c>
+      <c r="T160">
+        <v>3.75</v>
+      </c>
+      <c r="U160">
+        <v>1.95</v>
+      </c>
+      <c r="V160">
+        <v>3.4</v>
+      </c>
+      <c r="W160">
+        <v>1.51</v>
+      </c>
+      <c r="X160">
+        <v>2.4</v>
+      </c>
+      <c r="Y160">
+        <v>3.45</v>
+      </c>
+      <c r="Z160">
+        <v>1.27</v>
+      </c>
+      <c r="AA160">
+        <v>9.4</v>
+      </c>
+      <c r="AB160">
+        <v>1.03</v>
+      </c>
+      <c r="AC160">
+        <v>3.05</v>
+      </c>
+      <c r="AD160">
+        <v>2.7</v>
+      </c>
+      <c r="AE160">
+        <v>2.3</v>
+      </c>
+      <c r="AF160">
+        <v>1.09</v>
+      </c>
+      <c r="AG160">
+        <v>7.5</v>
+      </c>
+      <c r="AH160">
+        <v>1.45</v>
+      </c>
+      <c r="AI160">
+        <v>2.75</v>
+      </c>
+      <c r="AJ160">
+        <v>2.35</v>
+      </c>
+      <c r="AK160">
+        <v>1.53</v>
+      </c>
+      <c r="AL160">
+        <v>2</v>
+      </c>
+      <c r="AM160">
+        <v>1.78</v>
+      </c>
+      <c r="AN160">
+        <v>1.53</v>
+      </c>
+      <c r="AO160">
+        <v>1.3</v>
+      </c>
+      <c r="AP160">
+        <v>1.4</v>
+      </c>
+      <c r="AQ160">
+        <v>0.92</v>
+      </c>
+      <c r="AR160">
+        <v>0.67</v>
+      </c>
+      <c r="AS160">
+        <v>0.92</v>
+      </c>
+      <c r="AT160">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU160">
+        <v>1.12</v>
+      </c>
+      <c r="AV160">
+        <v>1.36</v>
+      </c>
+      <c r="AW160">
+        <v>2.48</v>
+      </c>
+      <c r="AX160">
+        <v>2.15</v>
+      </c>
+      <c r="AY160">
+        <v>7</v>
+      </c>
+      <c r="AZ160">
+        <v>2.15</v>
+      </c>
+      <c r="BA160">
+        <v>1.14</v>
+      </c>
+      <c r="BB160">
+        <v>1.28</v>
+      </c>
+      <c r="BC160">
+        <v>1.51</v>
+      </c>
+      <c r="BD160">
+        <v>1.98</v>
+      </c>
+      <c r="BE160">
+        <v>2.45</v>
+      </c>
+      <c r="BF160">
+        <v>3</v>
+      </c>
+      <c r="BG160">
+        <v>5</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>16</v>
+      </c>
+      <c r="BJ160">
+        <v>7</v>
+      </c>
+      <c r="BK160">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,15 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['21', '63', '73']</t>
+  </si>
+  <si>
+    <t>['6', '25', '45']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['72', '74']</t>
   </si>
   <si>
@@ -751,9 +760,6 @@
     <t>['73', '75']</t>
   </si>
   <si>
-    <t>['9']</t>
-  </si>
-  <si>
     <t>['41', '90+4']</t>
   </si>
   <si>
@@ -818,6 +824,21 @@
   </si>
   <si>
     <t>['31', '82']</t>
+  </si>
+  <si>
+    <t>['74', '88']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['28', '37', '61', '90+7']</t>
+  </si>
+  <si>
+    <t>['56', '80', '83']</t>
+  </si>
+  <si>
+    <t>['56', '61', '70', '72', '81']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1444,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1510,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>2.23</v>
@@ -1614,7 +1635,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1701,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT3">
         <v>0.6899999999999999</v>
@@ -1805,7 +1826,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1996,7 +2017,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2086,7 +2107,7 @@
         <v>0.92</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2187,7 +2208,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2274,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT6">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2468,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2760,7 +2781,7 @@
         <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2850,7 +2871,7 @@
         <v>0.92</v>
       </c>
       <c r="AT9">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3038,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT10">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3142,7 +3163,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3229,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3524,7 +3545,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -3611,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT13">
         <v>1.08</v>
@@ -3802,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT14">
         <v>0.6899999999999999</v>
@@ -3993,10 +4014,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT15">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU15">
         <v>2.09</v>
@@ -4184,10 +4205,10 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU16">
         <v>0.68</v>
@@ -4288,7 +4309,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4378,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU17">
         <v>0.75</v>
@@ -4479,7 +4500,7 @@
         <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4569,7 +4590,7 @@
         <v>1.69</v>
       </c>
       <c r="AT18">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU18">
         <v>2.08</v>
@@ -4670,7 +4691,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4757,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT19">
         <v>0.54</v>
@@ -4861,7 +4882,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -5052,7 +5073,7 @@
         <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5139,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT21">
         <v>0.6899999999999999</v>
@@ -5521,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5715,7 +5736,7 @@
         <v>0.92</v>
       </c>
       <c r="AT24">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU24">
         <v>0.58</v>
@@ -6094,10 +6115,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU26">
         <v>1.44</v>
@@ -6285,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT27">
         <v>0.6899999999999999</v>
@@ -6389,7 +6410,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6479,7 +6500,7 @@
         <v>1.69</v>
       </c>
       <c r="AT28">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU28">
         <v>1.62</v>
@@ -6771,7 +6792,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6858,10 +6879,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT30">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU30">
         <v>1.54</v>
@@ -6962,7 +6983,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7049,10 +7070,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT31">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU31">
         <v>1.71</v>
@@ -7625,7 +7646,7 @@
         <v>1.85</v>
       </c>
       <c r="AT34">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU34">
         <v>1.06</v>
@@ -7813,7 +7834,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
         <v>1.08</v>
@@ -8108,7 +8129,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8195,10 +8216,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT37">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU37">
         <v>1.09</v>
@@ -8386,10 +8407,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT38">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU38">
         <v>1.19</v>
@@ -8580,7 +8601,7 @@
         <v>1.85</v>
       </c>
       <c r="AT39">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU39">
         <v>1.67</v>
@@ -8872,7 +8893,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8959,7 +8980,7 @@
         <v>0.67</v>
       </c>
       <c r="AS41">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT41">
         <v>0.54</v>
@@ -9150,10 +9171,10 @@
         <v>3</v>
       </c>
       <c r="AS42">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT42">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU42">
         <v>1.42</v>
@@ -9254,7 +9275,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9445,7 +9466,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9532,7 +9553,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT44">
         <v>2.23</v>
@@ -9636,7 +9657,7 @@
         <v>108</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9726,7 +9747,7 @@
         <v>2</v>
       </c>
       <c r="AT45">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU45">
         <v>1.36</v>
@@ -9827,7 +9848,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9914,10 +9935,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU46">
         <v>1.09</v>
@@ -10018,7 +10039,7 @@
         <v>109</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10105,10 +10126,10 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT47">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU47">
         <v>1.31</v>
@@ -10209,7 +10230,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10299,7 +10320,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU48">
         <v>2.23</v>
@@ -10487,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT49">
         <v>1.08</v>
@@ -10591,7 +10612,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10678,10 +10699,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU50">
         <v>1.1</v>
@@ -10872,7 +10893,7 @@
         <v>1.69</v>
       </c>
       <c r="AT51">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU51">
         <v>1.74</v>
@@ -10973,7 +10994,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11063,7 +11084,7 @@
         <v>0.92</v>
       </c>
       <c r="AT52">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU52">
         <v>1.05</v>
@@ -11254,7 +11275,7 @@
         <v>1.85</v>
       </c>
       <c r="AT53">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU53">
         <v>1.97</v>
@@ -11442,7 +11463,7 @@
         <v>0.25</v>
       </c>
       <c r="AS54">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
         <v>0.6899999999999999</v>
@@ -11633,7 +11654,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT55">
         <v>0.6899999999999999</v>
@@ -11824,10 +11845,10 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT56">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU56">
         <v>1.49</v>
@@ -11928,7 +11949,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12206,10 +12227,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU58">
         <v>1.62</v>
@@ -12400,7 +12421,7 @@
         <v>3</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU59">
         <v>2.2</v>
@@ -12588,10 +12609,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT60">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU60">
         <v>1.36</v>
@@ -12692,7 +12713,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12779,7 +12800,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT61">
         <v>0.54</v>
@@ -12970,10 +12991,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT62">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU62">
         <v>1.18</v>
@@ -13074,7 +13095,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13456,7 +13477,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13546,7 +13567,7 @@
         <v>1.85</v>
       </c>
       <c r="AT65">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU65">
         <v>1.93</v>
@@ -13647,7 +13668,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -13734,10 +13755,10 @@
         <v>2.4</v>
       </c>
       <c r="AS66">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT66">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU66">
         <v>1.76</v>
@@ -14029,7 +14050,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14119,7 +14140,7 @@
         <v>0.92</v>
       </c>
       <c r="AT68">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU68">
         <v>1.43</v>
@@ -14307,7 +14328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT69">
         <v>1.08</v>
@@ -14498,7 +14519,7 @@
         <v>0.6</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT70">
         <v>0.54</v>
@@ -14602,7 +14623,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14689,10 +14710,10 @@
         <v>1.17</v>
       </c>
       <c r="AS71">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT71">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU71">
         <v>2.63</v>
@@ -15071,10 +15092,10 @@
         <v>1.5</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT73">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU73">
         <v>1.55</v>
@@ -15265,7 +15286,7 @@
         <v>0.92</v>
       </c>
       <c r="AT74">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU74">
         <v>1.04</v>
@@ -15366,7 +15387,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -15453,10 +15474,10 @@
         <v>2.5</v>
       </c>
       <c r="AS75">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU75">
         <v>1.48</v>
@@ -15557,7 +15578,7 @@
         <v>118</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15644,7 +15665,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT76">
         <v>1.08</v>
@@ -15748,7 +15769,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15838,7 +15859,7 @@
         <v>2</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU77">
         <v>1.62</v>
@@ -15939,7 +15960,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16130,7 +16151,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16321,7 +16342,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16408,7 +16429,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT80">
         <v>0.6899999999999999</v>
@@ -16703,7 +16724,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16790,10 +16811,10 @@
         <v>1.71</v>
       </c>
       <c r="AS82">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT82">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU82">
         <v>1.82</v>
@@ -16894,7 +16915,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17172,10 +17193,10 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU84">
         <v>1.37</v>
@@ -17363,7 +17384,7 @@
         <v>1.14</v>
       </c>
       <c r="AS85">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT85">
         <v>1.08</v>
@@ -17554,10 +17575,10 @@
         <v>0.14</v>
       </c>
       <c r="AS86">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT86">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU86">
         <v>1.51</v>
@@ -17658,7 +17679,7 @@
         <v>93</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17748,7 +17769,7 @@
         <v>0.92</v>
       </c>
       <c r="AT87">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU87">
         <v>1.48</v>
@@ -17849,7 +17870,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17936,10 +17957,10 @@
         <v>1.29</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT88">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU88">
         <v>1.29</v>
@@ -18040,7 +18061,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18127,7 +18148,7 @@
         <v>1.67</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT89">
         <v>2.23</v>
@@ -18231,7 +18252,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -18321,7 +18342,7 @@
         <v>0.92</v>
       </c>
       <c r="AT90">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU90">
         <v>1.03</v>
@@ -18700,7 +18721,7 @@
         <v>1.17</v>
       </c>
       <c r="AS92">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT92">
         <v>1.08</v>
@@ -18894,7 +18915,7 @@
         <v>1.69</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU93">
         <v>1.49</v>
@@ -19186,7 +19207,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -19273,10 +19294,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU95">
         <v>2.69</v>
@@ -19377,7 +19398,7 @@
         <v>80</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19467,7 +19488,7 @@
         <v>2</v>
       </c>
       <c r="AT96">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU96">
         <v>1.51</v>
@@ -19568,7 +19589,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -19655,10 +19676,10 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT97">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU97">
         <v>1.25</v>
@@ -19846,10 +19867,10 @@
         <v>0.13</v>
       </c>
       <c r="AS98">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT98">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU98">
         <v>1.87</v>
@@ -19950,7 +19971,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20141,7 +20162,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>10</v>
@@ -20419,7 +20440,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT101">
         <v>2.23</v>
@@ -20523,7 +20544,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -20613,7 +20634,7 @@
         <v>0.92</v>
       </c>
       <c r="AT102">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20804,7 +20825,7 @@
         <v>3</v>
       </c>
       <c r="AT103">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU103">
         <v>2.57</v>
@@ -20905,7 +20926,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -20992,10 +21013,10 @@
         <v>0.88</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT104">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU104">
         <v>1.31</v>
@@ -21096,7 +21117,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21183,7 +21204,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT105">
         <v>1.08</v>
@@ -21478,7 +21499,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21756,7 +21777,7 @@
         <v>0.88</v>
       </c>
       <c r="AS108">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT108">
         <v>0.6899999999999999</v>
@@ -21950,7 +21971,7 @@
         <v>1.69</v>
       </c>
       <c r="AT109">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU109">
         <v>1.42</v>
@@ -22051,7 +22072,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22138,7 +22159,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT110">
         <v>0.6899999999999999</v>
@@ -22329,10 +22350,10 @@
         <v>1.44</v>
       </c>
       <c r="AS111">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT111">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU111">
         <v>2.69</v>
@@ -22433,7 +22454,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22523,7 +22544,7 @@
         <v>1.85</v>
       </c>
       <c r="AT112">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU112">
         <v>2.07</v>
@@ -22624,7 +22645,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22711,10 +22732,10 @@
         <v>2.7</v>
       </c>
       <c r="AS113">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT113">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU113">
         <v>2.64</v>
@@ -22815,7 +22836,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22902,10 +22923,10 @@
         <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT114">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU114">
         <v>1.32</v>
@@ -23284,10 +23305,10 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU116">
         <v>1.86</v>
@@ -23770,7 +23791,7 @@
         <v>80</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23857,7 +23878,7 @@
         <v>0.89</v>
       </c>
       <c r="AS119">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT119">
         <v>1.08</v>
@@ -23961,7 +23982,7 @@
         <v>130</v>
       </c>
       <c r="P120" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24048,7 +24069,7 @@
         <v>1.2</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT120">
         <v>1.08</v>
@@ -24242,7 +24263,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU121">
         <v>1.47</v>
@@ -24433,7 +24454,7 @@
         <v>3</v>
       </c>
       <c r="AT122">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU122">
         <v>2.62</v>
@@ -24534,7 +24555,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24624,7 +24645,7 @@
         <v>0.92</v>
       </c>
       <c r="AT123">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU123">
         <v>1.44</v>
@@ -24725,7 +24746,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24812,7 +24833,7 @@
         <v>1.89</v>
       </c>
       <c r="AS124">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT124">
         <v>2.23</v>
@@ -25003,7 +25024,7 @@
         <v>0.63</v>
       </c>
       <c r="AS125">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT125">
         <v>0.6899999999999999</v>
@@ -25107,7 +25128,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25298,7 +25319,7 @@
         <v>92</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25489,7 +25510,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25958,10 +25979,10 @@
         <v>0.7</v>
       </c>
       <c r="AS130">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT130">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU130">
         <v>1.75</v>
@@ -26062,7 +26083,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26343,7 +26364,7 @@
         <v>1.85</v>
       </c>
       <c r="AT132">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU132">
         <v>1.91</v>
@@ -26531,10 +26552,10 @@
         <v>1.18</v>
       </c>
       <c r="AS133">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT133">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU133">
         <v>2.55</v>
@@ -26722,10 +26743,10 @@
         <v>0.18</v>
       </c>
       <c r="AS134">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT134">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU134">
         <v>1.15</v>
@@ -26913,10 +26934,10 @@
         <v>1.27</v>
       </c>
       <c r="AS135">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT135">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU135">
         <v>1.39</v>
@@ -27104,7 +27125,7 @@
         <v>1.18</v>
       </c>
       <c r="AS136">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT136">
         <v>1.08</v>
@@ -27208,7 +27229,7 @@
         <v>80</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -27295,10 +27316,10 @@
         <v>2.55</v>
       </c>
       <c r="AS137">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT137">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU137">
         <v>1.39</v>
@@ -27399,7 +27420,7 @@
         <v>177</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27486,10 +27507,10 @@
         <v>0.82</v>
       </c>
       <c r="AS138">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT138">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU138">
         <v>1.18</v>
@@ -27781,7 +27802,7 @@
         <v>80</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27868,7 +27889,7 @@
         <v>2.09</v>
       </c>
       <c r="AS140">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT140">
         <v>2.23</v>
@@ -27972,7 +27993,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28062,7 +28083,7 @@
         <v>0.92</v>
       </c>
       <c r="AT141">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU141">
         <v>1.42</v>
@@ -28163,7 +28184,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28635,7 +28656,7 @@
         <v>2</v>
       </c>
       <c r="AT144">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU144">
         <v>1.49</v>
@@ -28736,7 +28757,7 @@
         <v>181</v>
       </c>
       <c r="P145" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -28823,7 +28844,7 @@
         <v>0.64</v>
       </c>
       <c r="AS145">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AT145">
         <v>0.54</v>
@@ -29014,10 +29035,10 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU146">
         <v>1.32</v>
@@ -29118,7 +29139,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29205,7 +29226,7 @@
         <v>0.82</v>
       </c>
       <c r="AS147">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT147">
         <v>0.6899999999999999</v>
@@ -29396,10 +29417,10 @@
         <v>0.83</v>
       </c>
       <c r="AS148">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU148">
         <v>1.38</v>
@@ -29500,7 +29521,7 @@
         <v>104</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29590,7 +29611,7 @@
         <v>0.92</v>
       </c>
       <c r="AT149">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AU149">
         <v>1.13</v>
@@ -29691,7 +29712,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29969,7 +29990,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT151">
         <v>0.6899999999999999</v>
@@ -30073,7 +30094,7 @@
         <v>80</v>
       </c>
       <c r="P152" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30160,7 +30181,7 @@
         <v>2.17</v>
       </c>
       <c r="AS152">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT152">
         <v>2.23</v>
@@ -30354,7 +30375,7 @@
         <v>1.85</v>
       </c>
       <c r="AT153">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU153">
         <v>1.9</v>
@@ -30545,7 +30566,7 @@
         <v>3</v>
       </c>
       <c r="AT154">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU154">
         <v>2.58</v>
@@ -30646,7 +30667,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q155">
         <v>11</v>
@@ -30733,10 +30754,10 @@
         <v>1.23</v>
       </c>
       <c r="AS155">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT155">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AU155">
         <v>1.33</v>
@@ -31219,7 +31240,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31309,7 +31330,7 @@
         <v>1.69</v>
       </c>
       <c r="AT158">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU158">
         <v>1.52</v>
@@ -31497,7 +31518,7 @@
         <v>0.58</v>
       </c>
       <c r="AS159">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT159">
         <v>0.54</v>
@@ -31743,6 +31764,1152 @@
       </c>
       <c r="BK160">
         <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>2465525</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F161">
+        <v>28</v>
+      </c>
+      <c r="G161" t="s">
+        <v>66</v>
+      </c>
+      <c r="H161" t="s">
+        <v>68</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>194</v>
+      </c>
+      <c r="P161" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q161">
+        <v>8</v>
+      </c>
+      <c r="R161">
+        <v>7</v>
+      </c>
+      <c r="S161">
+        <v>15</v>
+      </c>
+      <c r="T161">
+        <v>2.3</v>
+      </c>
+      <c r="U161">
+        <v>2.3</v>
+      </c>
+      <c r="V161">
+        <v>4.75</v>
+      </c>
+      <c r="W161">
+        <v>1.34</v>
+      </c>
+      <c r="X161">
+        <v>3</v>
+      </c>
+      <c r="Y161">
+        <v>2.65</v>
+      </c>
+      <c r="Z161">
+        <v>1.43</v>
+      </c>
+      <c r="AA161">
+        <v>6.45</v>
+      </c>
+      <c r="AB161">
+        <v>1.09</v>
+      </c>
+      <c r="AC161">
+        <v>1.73</v>
+      </c>
+      <c r="AD161">
+        <v>3.75</v>
+      </c>
+      <c r="AE161">
+        <v>4.6</v>
+      </c>
+      <c r="AF161">
+        <v>1.03</v>
+      </c>
+      <c r="AG161">
+        <v>13</v>
+      </c>
+      <c r="AH161">
+        <v>1.25</v>
+      </c>
+      <c r="AI161">
+        <v>3.75</v>
+      </c>
+      <c r="AJ161">
+        <v>1.82</v>
+      </c>
+      <c r="AK161">
+        <v>1.85</v>
+      </c>
+      <c r="AL161">
+        <v>1.78</v>
+      </c>
+      <c r="AM161">
+        <v>2</v>
+      </c>
+      <c r="AN161">
+        <v>1.18</v>
+      </c>
+      <c r="AO161">
+        <v>1.2</v>
+      </c>
+      <c r="AP161">
+        <v>2.15</v>
+      </c>
+      <c r="AQ161">
+        <v>2.15</v>
+      </c>
+      <c r="AR161">
+        <v>1.36</v>
+      </c>
+      <c r="AS161">
+        <v>2.21</v>
+      </c>
+      <c r="AT161">
+        <v>1.27</v>
+      </c>
+      <c r="AU161">
+        <v>1.72</v>
+      </c>
+      <c r="AV161">
+        <v>1.18</v>
+      </c>
+      <c r="AW161">
+        <v>2.9</v>
+      </c>
+      <c r="AX161">
+        <v>1.34</v>
+      </c>
+      <c r="AY161">
+        <v>11.5</v>
+      </c>
+      <c r="AZ161">
+        <v>3.94</v>
+      </c>
+      <c r="BA161">
+        <v>1.21</v>
+      </c>
+      <c r="BB161">
+        <v>1.42</v>
+      </c>
+      <c r="BC161">
+        <v>1.76</v>
+      </c>
+      <c r="BD161">
+        <v>2.23</v>
+      </c>
+      <c r="BE161">
+        <v>2.98</v>
+      </c>
+      <c r="BF161">
+        <v>8</v>
+      </c>
+      <c r="BG161">
+        <v>6</v>
+      </c>
+      <c r="BH161">
+        <v>3</v>
+      </c>
+      <c r="BI161">
+        <v>8</v>
+      </c>
+      <c r="BJ161">
+        <v>11</v>
+      </c>
+      <c r="BK161">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>2465528</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F162">
+        <v>28</v>
+      </c>
+      <c r="G162" t="s">
+        <v>74</v>
+      </c>
+      <c r="H162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>80</v>
+      </c>
+      <c r="P162" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q162">
+        <v>9</v>
+      </c>
+      <c r="R162">
+        <v>4</v>
+      </c>
+      <c r="S162">
+        <v>13</v>
+      </c>
+      <c r="T162">
+        <v>3.3</v>
+      </c>
+      <c r="U162">
+        <v>2.05</v>
+      </c>
+      <c r="V162">
+        <v>3.5</v>
+      </c>
+      <c r="W162">
+        <v>1.45</v>
+      </c>
+      <c r="X162">
+        <v>2.6</v>
+      </c>
+      <c r="Y162">
+        <v>3.2</v>
+      </c>
+      <c r="Z162">
+        <v>1.31</v>
+      </c>
+      <c r="AA162">
+        <v>8.35</v>
+      </c>
+      <c r="AB162">
+        <v>1.05</v>
+      </c>
+      <c r="AC162">
+        <v>2.55</v>
+      </c>
+      <c r="AD162">
+        <v>3.2</v>
+      </c>
+      <c r="AE162">
+        <v>2.8</v>
+      </c>
+      <c r="AF162">
+        <v>1.07</v>
+      </c>
+      <c r="AG162">
+        <v>8.5</v>
+      </c>
+      <c r="AH162">
+        <v>1.4</v>
+      </c>
+      <c r="AI162">
+        <v>2.95</v>
+      </c>
+      <c r="AJ162">
+        <v>2.1</v>
+      </c>
+      <c r="AK162">
+        <v>1.63</v>
+      </c>
+      <c r="AL162">
+        <v>1.9</v>
+      </c>
+      <c r="AM162">
+        <v>1.87</v>
+      </c>
+      <c r="AN162">
+        <v>1.45</v>
+      </c>
+      <c r="AO162">
+        <v>1.3</v>
+      </c>
+      <c r="AP162">
+        <v>1.5</v>
+      </c>
+      <c r="AQ162">
+        <v>1.07</v>
+      </c>
+      <c r="AR162">
+        <v>1.07</v>
+      </c>
+      <c r="AS162">
+        <v>1</v>
+      </c>
+      <c r="AT162">
+        <v>1.2</v>
+      </c>
+      <c r="AU162">
+        <v>1.29</v>
+      </c>
+      <c r="AV162">
+        <v>1.36</v>
+      </c>
+      <c r="AW162">
+        <v>2.65</v>
+      </c>
+      <c r="AX162">
+        <v>2.35</v>
+      </c>
+      <c r="AY162">
+        <v>7.8</v>
+      </c>
+      <c r="AZ162">
+        <v>1.88</v>
+      </c>
+      <c r="BA162">
+        <v>1.14</v>
+      </c>
+      <c r="BB162">
+        <v>1.29</v>
+      </c>
+      <c r="BC162">
+        <v>1.56</v>
+      </c>
+      <c r="BD162">
+        <v>1.95</v>
+      </c>
+      <c r="BE162">
+        <v>2.52</v>
+      </c>
+      <c r="BF162">
+        <v>7</v>
+      </c>
+      <c r="BG162">
+        <v>4</v>
+      </c>
+      <c r="BH162">
+        <v>6</v>
+      </c>
+      <c r="BI162">
+        <v>7</v>
+      </c>
+      <c r="BJ162">
+        <v>13</v>
+      </c>
+      <c r="BK162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>2465527</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F163">
+        <v>28</v>
+      </c>
+      <c r="G163" t="s">
+        <v>73</v>
+      </c>
+      <c r="H163" t="s">
+        <v>67</v>
+      </c>
+      <c r="I163">
+        <v>3</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>195</v>
+      </c>
+      <c r="P163" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q163">
+        <v>7</v>
+      </c>
+      <c r="R163">
+        <v>4</v>
+      </c>
+      <c r="S163">
+        <v>11</v>
+      </c>
+      <c r="T163">
+        <v>1.5</v>
+      </c>
+      <c r="U163">
+        <v>2.75</v>
+      </c>
+      <c r="V163">
+        <v>11</v>
+      </c>
+      <c r="W163">
+        <v>1.29</v>
+      </c>
+      <c r="X163">
+        <v>3.5</v>
+      </c>
+      <c r="Y163">
+        <v>2.2</v>
+      </c>
+      <c r="Z163">
+        <v>1.62</v>
+      </c>
+      <c r="AA163">
+        <v>4.5</v>
+      </c>
+      <c r="AB163">
+        <v>1.17</v>
+      </c>
+      <c r="AC163">
+        <v>1.17</v>
+      </c>
+      <c r="AD163">
+        <v>7.25</v>
+      </c>
+      <c r="AE163">
+        <v>16</v>
+      </c>
+      <c r="AF163">
+        <v>1.02</v>
+      </c>
+      <c r="AG163">
+        <v>12</v>
+      </c>
+      <c r="AH163">
+        <v>1.15</v>
+      </c>
+      <c r="AI163">
+        <v>5.5</v>
+      </c>
+      <c r="AJ163">
+        <v>1.47</v>
+      </c>
+      <c r="AK163">
+        <v>2.44</v>
+      </c>
+      <c r="AL163">
+        <v>2.3</v>
+      </c>
+      <c r="AM163">
+        <v>1.57</v>
+      </c>
+      <c r="AN163">
+        <v>1.02</v>
+      </c>
+      <c r="AO163">
+        <v>1.05</v>
+      </c>
+      <c r="AP163">
+        <v>4.5</v>
+      </c>
+      <c r="AQ163">
+        <v>2.69</v>
+      </c>
+      <c r="AR163">
+        <v>0.14</v>
+      </c>
+      <c r="AS163">
+        <v>2.71</v>
+      </c>
+      <c r="AT163">
+        <v>0.13</v>
+      </c>
+      <c r="AU163">
+        <v>2.56</v>
+      </c>
+      <c r="AV163">
+        <v>1.06</v>
+      </c>
+      <c r="AW163">
+        <v>3.62</v>
+      </c>
+      <c r="AX163">
+        <v>1.04</v>
+      </c>
+      <c r="AY163">
+        <v>20</v>
+      </c>
+      <c r="AZ163">
+        <v>13</v>
+      </c>
+      <c r="BA163">
+        <v>1.15</v>
+      </c>
+      <c r="BB163">
+        <v>1.31</v>
+      </c>
+      <c r="BC163">
+        <v>1.57</v>
+      </c>
+      <c r="BD163">
+        <v>1.97</v>
+      </c>
+      <c r="BE163">
+        <v>2.55</v>
+      </c>
+      <c r="BF163">
+        <v>9</v>
+      </c>
+      <c r="BG163">
+        <v>3</v>
+      </c>
+      <c r="BH163">
+        <v>6</v>
+      </c>
+      <c r="BI163">
+        <v>1</v>
+      </c>
+      <c r="BJ163">
+        <v>15</v>
+      </c>
+      <c r="BK163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2465526</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F164">
+        <v>28</v>
+      </c>
+      <c r="G164" t="s">
+        <v>65</v>
+      </c>
+      <c r="H164" t="s">
+        <v>75</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>4</v>
+      </c>
+      <c r="N164">
+        <v>5</v>
+      </c>
+      <c r="O164" t="s">
+        <v>196</v>
+      </c>
+      <c r="P164" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q164">
+        <v>4</v>
+      </c>
+      <c r="R164">
+        <v>3</v>
+      </c>
+      <c r="S164">
+        <v>7</v>
+      </c>
+      <c r="T164">
+        <v>3.6</v>
+      </c>
+      <c r="U164">
+        <v>2.1</v>
+      </c>
+      <c r="V164">
+        <v>3.1</v>
+      </c>
+      <c r="W164">
+        <v>1.41</v>
+      </c>
+      <c r="X164">
+        <v>2.7</v>
+      </c>
+      <c r="Y164">
+        <v>2.95</v>
+      </c>
+      <c r="Z164">
+        <v>1.35</v>
+      </c>
+      <c r="AA164">
+        <v>7.85</v>
+      </c>
+      <c r="AB164">
+        <v>1.05</v>
+      </c>
+      <c r="AC164">
+        <v>3.05</v>
+      </c>
+      <c r="AD164">
+        <v>3.25</v>
+      </c>
+      <c r="AE164">
+        <v>2.35</v>
+      </c>
+      <c r="AF164">
+        <v>1.06</v>
+      </c>
+      <c r="AG164">
+        <v>10</v>
+      </c>
+      <c r="AH164">
+        <v>1.35</v>
+      </c>
+      <c r="AI164">
+        <v>3.2</v>
+      </c>
+      <c r="AJ164">
+        <v>2.08</v>
+      </c>
+      <c r="AK164">
+        <v>1.64</v>
+      </c>
+      <c r="AL164">
+        <v>1.8</v>
+      </c>
+      <c r="AM164">
+        <v>1.95</v>
+      </c>
+      <c r="AN164">
+        <v>1.57</v>
+      </c>
+      <c r="AO164">
+        <v>1.28</v>
+      </c>
+      <c r="AP164">
+        <v>1.42</v>
+      </c>
+      <c r="AQ164">
+        <v>1.62</v>
+      </c>
+      <c r="AR164">
+        <v>1</v>
+      </c>
+      <c r="AS164">
+        <v>1.5</v>
+      </c>
+      <c r="AT164">
+        <v>1.14</v>
+      </c>
+      <c r="AU164">
+        <v>1.31</v>
+      </c>
+      <c r="AV164">
+        <v>1.71</v>
+      </c>
+      <c r="AW164">
+        <v>3.02</v>
+      </c>
+      <c r="AX164">
+        <v>2.81</v>
+      </c>
+      <c r="AY164">
+        <v>8.1</v>
+      </c>
+      <c r="AZ164">
+        <v>1.65</v>
+      </c>
+      <c r="BA164">
+        <v>1.18</v>
+      </c>
+      <c r="BB164">
+        <v>1.35</v>
+      </c>
+      <c r="BC164">
+        <v>1.66</v>
+      </c>
+      <c r="BD164">
+        <v>2.11</v>
+      </c>
+      <c r="BE164">
+        <v>2.8</v>
+      </c>
+      <c r="BF164">
+        <v>2</v>
+      </c>
+      <c r="BG164">
+        <v>8</v>
+      </c>
+      <c r="BH164">
+        <v>6</v>
+      </c>
+      <c r="BI164">
+        <v>4</v>
+      </c>
+      <c r="BJ164">
+        <v>8</v>
+      </c>
+      <c r="BK164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>2465524</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44989.625</v>
+      </c>
+      <c r="F165">
+        <v>28</v>
+      </c>
+      <c r="G165" t="s">
+        <v>76</v>
+      </c>
+      <c r="H165" t="s">
+        <v>71</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>177</v>
+      </c>
+      <c r="P165" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q165">
+        <v>10</v>
+      </c>
+      <c r="R165">
+        <v>5</v>
+      </c>
+      <c r="S165">
+        <v>15</v>
+      </c>
+      <c r="T165">
+        <v>3.4</v>
+      </c>
+      <c r="U165">
+        <v>2.15</v>
+      </c>
+      <c r="V165">
+        <v>2.75</v>
+      </c>
+      <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>2.9</v>
+      </c>
+      <c r="Y165">
+        <v>2.8</v>
+      </c>
+      <c r="Z165">
+        <v>1.39</v>
+      </c>
+      <c r="AA165">
+        <v>6.95</v>
+      </c>
+      <c r="AB165">
+        <v>1.07</v>
+      </c>
+      <c r="AC165">
+        <v>3.4</v>
+      </c>
+      <c r="AD165">
+        <v>3.5</v>
+      </c>
+      <c r="AE165">
+        <v>2</v>
+      </c>
+      <c r="AF165">
+        <v>1.04</v>
+      </c>
+      <c r="AG165">
+        <v>12</v>
+      </c>
+      <c r="AH165">
+        <v>1.3</v>
+      </c>
+      <c r="AI165">
+        <v>3.4</v>
+      </c>
+      <c r="AJ165">
+        <v>1.96</v>
+      </c>
+      <c r="AK165">
+        <v>1.84</v>
+      </c>
+      <c r="AL165">
+        <v>1.75</v>
+      </c>
+      <c r="AM165">
+        <v>2</v>
+      </c>
+      <c r="AN165">
+        <v>1.65</v>
+      </c>
+      <c r="AO165">
+        <v>1.3</v>
+      </c>
+      <c r="AP165">
+        <v>1.33</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>0.54</v>
+      </c>
+      <c r="AS165">
+        <v>0.93</v>
+      </c>
+      <c r="AT165">
+        <v>0.71</v>
+      </c>
+      <c r="AU165">
+        <v>1.36</v>
+      </c>
+      <c r="AV165">
+        <v>1.3</v>
+      </c>
+      <c r="AW165">
+        <v>2.66</v>
+      </c>
+      <c r="AX165">
+        <v>2.14</v>
+      </c>
+      <c r="AY165">
+        <v>7.8</v>
+      </c>
+      <c r="AZ165">
+        <v>2.01</v>
+      </c>
+      <c r="BA165">
+        <v>1.11</v>
+      </c>
+      <c r="BB165">
+        <v>1.25</v>
+      </c>
+      <c r="BC165">
+        <v>1.48</v>
+      </c>
+      <c r="BD165">
+        <v>1.83</v>
+      </c>
+      <c r="BE165">
+        <v>2.33</v>
+      </c>
+      <c r="BF165">
+        <v>7</v>
+      </c>
+      <c r="BG165">
+        <v>5</v>
+      </c>
+      <c r="BH165">
+        <v>8</v>
+      </c>
+      <c r="BI165">
+        <v>3</v>
+      </c>
+      <c r="BJ165">
+        <v>15</v>
+      </c>
+      <c r="BK165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2465529</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44990.375</v>
+      </c>
+      <c r="F166">
+        <v>28</v>
+      </c>
+      <c r="G166" t="s">
+        <v>69</v>
+      </c>
+      <c r="H166" t="s">
+        <v>70</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>5</v>
+      </c>
+      <c r="N166">
+        <v>6</v>
+      </c>
+      <c r="O166" t="s">
+        <v>95</v>
+      </c>
+      <c r="P166" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>6</v>
+      </c>
+      <c r="S166">
+        <v>6</v>
+      </c>
+      <c r="T166">
+        <v>9</v>
+      </c>
+      <c r="U166">
+        <v>2.75</v>
+      </c>
+      <c r="V166">
+        <v>1.67</v>
+      </c>
+      <c r="W166">
+        <v>1.25</v>
+      </c>
+      <c r="X166">
+        <v>3.75</v>
+      </c>
+      <c r="Y166">
+        <v>2.2</v>
+      </c>
+      <c r="Z166">
+        <v>1.62</v>
+      </c>
+      <c r="AA166">
+        <v>5.5</v>
+      </c>
+      <c r="AB166">
+        <v>1.14</v>
+      </c>
+      <c r="AC166">
+        <v>12.43</v>
+      </c>
+      <c r="AD166">
+        <v>5.86</v>
+      </c>
+      <c r="AE166">
+        <v>1.16</v>
+      </c>
+      <c r="AF166">
+        <v>1.02</v>
+      </c>
+      <c r="AG166">
+        <v>12</v>
+      </c>
+      <c r="AH166">
+        <v>1.13</v>
+      </c>
+      <c r="AI166">
+        <v>5</v>
+      </c>
+      <c r="AJ166">
+        <v>1.53</v>
+      </c>
+      <c r="AK166">
+        <v>2.3</v>
+      </c>
+      <c r="AL166">
+        <v>2</v>
+      </c>
+      <c r="AM166">
+        <v>1.75</v>
+      </c>
+      <c r="AN166">
+        <v>4.01</v>
+      </c>
+      <c r="AO166">
+        <v>1.14</v>
+      </c>
+      <c r="AP166">
+        <v>1.07</v>
+      </c>
+      <c r="AQ166">
+        <v>2</v>
+      </c>
+      <c r="AR166">
+        <v>2.62</v>
+      </c>
+      <c r="AS166">
+        <v>1.87</v>
+      </c>
+      <c r="AT166">
+        <v>2.64</v>
+      </c>
+      <c r="AU166">
+        <v>1.37</v>
+      </c>
+      <c r="AV166">
+        <v>2.21</v>
+      </c>
+      <c r="AW166">
+        <v>3.58</v>
+      </c>
+      <c r="AX166">
+        <v>7.9</v>
+      </c>
+      <c r="AY166">
+        <v>16</v>
+      </c>
+      <c r="AZ166">
+        <v>1.11</v>
+      </c>
+      <c r="BA166">
+        <v>1.13</v>
+      </c>
+      <c r="BB166">
+        <v>1.3</v>
+      </c>
+      <c r="BC166">
+        <v>1.54</v>
+      </c>
+      <c r="BD166">
+        <v>1.92</v>
+      </c>
+      <c r="BE166">
+        <v>2.5</v>
+      </c>
+      <c r="BF166">
+        <v>2</v>
+      </c>
+      <c r="BG166">
+        <v>9</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>2</v>
+      </c>
+      <c r="BJ166">
+        <v>2</v>
+      </c>
+      <c r="BK166">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,15 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['25', '60', '84']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['72', '74']</t>
   </si>
   <si>
@@ -839,6 +848,9 @@
   </si>
   <si>
     <t>['56', '61', '70', '72', '81']</t>
+  </si>
+  <si>
+    <t>['12', '34', '52', '58']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1456,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1531,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT2">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1635,7 +1647,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1826,7 +1838,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1916,7 +1928,7 @@
         <v>1.69</v>
       </c>
       <c r="AT4">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2017,7 +2029,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2208,7 +2220,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>8</v>
@@ -2781,7 +2793,7 @@
         <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3163,7 +3175,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3441,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT12">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3545,7 +3557,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>9</v>
@@ -4205,7 +4217,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT16">
         <v>1.14</v>
@@ -4309,7 +4321,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4500,7 +4512,7 @@
         <v>80</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4691,7 +4703,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4781,7 +4793,7 @@
         <v>2.21</v>
       </c>
       <c r="AT19">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU19">
         <v>1.58</v>
@@ -4882,7 +4894,7 @@
         <v>91</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4969,10 +4981,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT20">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU20">
         <v>1.23</v>
@@ -5073,7 +5085,7 @@
         <v>80</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5927,7 +5939,7 @@
         <v>3</v>
       </c>
       <c r="AT25">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>2.68</v>
@@ -6410,7 +6422,7 @@
         <v>97</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6792,7 +6804,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6983,7 +6995,7 @@
         <v>99</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7264,7 +7276,7 @@
         <v>3</v>
       </c>
       <c r="AT32">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU32">
         <v>2.39</v>
@@ -7643,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT34">
         <v>0.13</v>
@@ -7834,10 +7846,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT35">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.17</v>
@@ -8028,7 +8040,7 @@
         <v>0.92</v>
       </c>
       <c r="AT36">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU36">
         <v>0.85</v>
@@ -8129,7 +8141,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8407,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT38">
         <v>0.13</v>
@@ -8598,7 +8610,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT39">
         <v>0.71</v>
@@ -8893,7 +8905,7 @@
         <v>106</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -8983,7 +8995,7 @@
         <v>2.71</v>
       </c>
       <c r="AT41">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU41">
         <v>2.8</v>
@@ -9275,7 +9287,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>6</v>
@@ -9365,7 +9377,7 @@
         <v>0.92</v>
       </c>
       <c r="AT43">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>1.2</v>
@@ -9466,7 +9478,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9556,7 +9568,7 @@
         <v>2.21</v>
       </c>
       <c r="AT44">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU44">
         <v>2.05</v>
@@ -9657,7 +9669,7 @@
         <v>108</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9848,7 +9860,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10039,7 +10051,7 @@
         <v>109</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>9</v>
@@ -10230,7 +10242,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10612,7 +10624,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10994,7 +11006,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11272,7 +11284,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT53">
         <v>1.2</v>
@@ -11463,7 +11475,7 @@
         <v>0.25</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT54">
         <v>0.6899999999999999</v>
@@ -11949,7 +11961,7 @@
         <v>117</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12039,7 +12051,7 @@
         <v>1.69</v>
       </c>
       <c r="AT57">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -12609,7 +12621,7 @@
         <v>1.2</v>
       </c>
       <c r="AS60">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT60">
         <v>1.27</v>
@@ -12713,7 +12725,7 @@
         <v>121</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12803,7 +12815,7 @@
         <v>1</v>
       </c>
       <c r="AT61">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU61">
         <v>1.1</v>
@@ -13095,7 +13107,7 @@
         <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13185,7 +13197,7 @@
         <v>0.92</v>
       </c>
       <c r="AT63">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13376,7 +13388,7 @@
         <v>2</v>
       </c>
       <c r="AT64">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.54</v>
@@ -13477,7 +13489,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13564,7 +13576,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT65">
         <v>1.27</v>
@@ -13668,7 +13680,7 @@
         <v>124</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>3</v>
@@ -14050,7 +14062,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14522,7 +14534,7 @@
         <v>1.87</v>
       </c>
       <c r="AT70">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU70">
         <v>1.23</v>
@@ -14623,7 +14635,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -14901,7 +14913,7 @@
         <v>0.75</v>
       </c>
       <c r="AS72">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT72">
         <v>0.6899999999999999</v>
@@ -15387,7 +15399,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -15474,7 +15486,7 @@
         <v>2.5</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT75">
         <v>2.64</v>
@@ -15578,7 +15590,7 @@
         <v>118</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>6</v>
@@ -15668,7 +15680,7 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>1.07</v>
@@ -15769,7 +15781,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15960,7 +15972,7 @@
         <v>132</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16151,7 +16163,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>11</v>
@@ -16241,7 +16253,7 @@
         <v>3</v>
       </c>
       <c r="AT79">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU79">
         <v>2.25</v>
@@ -16342,7 +16354,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>7</v>
@@ -16623,7 +16635,7 @@
         <v>0.92</v>
       </c>
       <c r="AT81">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU81">
         <v>1.05</v>
@@ -16724,7 +16736,7 @@
         <v>136</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>6</v>
@@ -16915,7 +16927,7 @@
         <v>80</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17002,7 +17014,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT83">
         <v>0.6899999999999999</v>
@@ -17193,7 +17205,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT84">
         <v>0.71</v>
@@ -17387,7 +17399,7 @@
         <v>2.71</v>
       </c>
       <c r="AT85">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>2.79</v>
@@ -17679,7 +17691,7 @@
         <v>93</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17870,7 +17882,7 @@
         <v>140</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18061,7 +18073,7 @@
         <v>141</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18151,7 +18163,7 @@
         <v>1.87</v>
       </c>
       <c r="AT89">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU89">
         <v>1.33</v>
@@ -18252,7 +18264,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>8</v>
@@ -19106,7 +19118,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU94">
         <v>1.58</v>
@@ -19207,7 +19219,7 @@
         <v>147</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -19398,7 +19410,7 @@
         <v>80</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19589,7 +19601,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -19971,7 +19983,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20061,7 +20073,7 @@
         <v>2</v>
       </c>
       <c r="AT99">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU99">
         <v>1.37</v>
@@ -20162,7 +20174,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>10</v>
@@ -20443,7 +20455,7 @@
         <v>1</v>
       </c>
       <c r="AT101">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU101">
         <v>1.17</v>
@@ -20544,7 +20556,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>12</v>
@@ -21117,7 +21129,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>6</v>
@@ -21207,7 +21219,7 @@
         <v>0.93</v>
       </c>
       <c r="AT105">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU105">
         <v>1.48</v>
@@ -21395,7 +21407,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT106">
         <v>1.08</v>
@@ -21499,7 +21511,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21589,7 +21601,7 @@
         <v>0.92</v>
       </c>
       <c r="AT107">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.04</v>
@@ -22072,7 +22084,7 @@
         <v>160</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22159,7 +22171,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT110">
         <v>0.6899999999999999</v>
@@ -22454,7 +22466,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22541,7 +22553,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT112">
         <v>2.64</v>
@@ -22645,7 +22657,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>5</v>
@@ -22836,7 +22848,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -22923,7 +22935,7 @@
         <v>1.3</v>
       </c>
       <c r="AS114">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT114">
         <v>1.2</v>
@@ -23499,7 +23511,7 @@
         <v>0.92</v>
       </c>
       <c r="AT117">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU117">
         <v>1.12</v>
@@ -23791,7 +23803,7 @@
         <v>80</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23982,7 +23994,7 @@
         <v>130</v>
       </c>
       <c r="P120" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24072,7 +24084,7 @@
         <v>1.87</v>
       </c>
       <c r="AT120">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>1.38</v>
@@ -24555,7 +24567,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24746,7 +24758,7 @@
         <v>80</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24836,7 +24848,7 @@
         <v>0.93</v>
       </c>
       <c r="AT124">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU124">
         <v>1.48</v>
@@ -25128,7 +25140,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25319,7 +25331,7 @@
         <v>92</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25510,7 +25522,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25597,10 +25609,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT128">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU128">
         <v>1.95</v>
@@ -26083,7 +26095,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26173,7 +26185,7 @@
         <v>1.69</v>
       </c>
       <c r="AT131">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU131">
         <v>1.47</v>
@@ -26361,7 +26373,7 @@
         <v>0.64</v>
       </c>
       <c r="AS132">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT132">
         <v>0.71</v>
@@ -27125,10 +27137,10 @@
         <v>1.18</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT136">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU136">
         <v>1.35</v>
@@ -27229,7 +27241,7 @@
         <v>80</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>1</v>
@@ -27420,7 +27432,7 @@
         <v>177</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -27701,7 +27713,7 @@
         <v>1.69</v>
       </c>
       <c r="AT139">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU139">
         <v>1.43</v>
@@ -27802,7 +27814,7 @@
         <v>80</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>1</v>
@@ -27892,7 +27904,7 @@
         <v>2.21</v>
       </c>
       <c r="AT140">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU140">
         <v>1.75</v>
@@ -27993,7 +28005,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>1</v>
@@ -28184,7 +28196,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28847,7 +28859,7 @@
         <v>2.21</v>
       </c>
       <c r="AT145">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU145">
         <v>1.68</v>
@@ -29035,7 +29047,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT146">
         <v>0.13</v>
@@ -29139,7 +29151,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29521,7 +29533,7 @@
         <v>104</v>
       </c>
       <c r="P149" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29712,7 +29724,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -30094,7 +30106,7 @@
         <v>80</v>
       </c>
       <c r="P152" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>2</v>
@@ -30181,10 +30193,10 @@
         <v>2.17</v>
       </c>
       <c r="AS152">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT152">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU152">
         <v>1.36</v>
@@ -30372,7 +30384,7 @@
         <v>0.15</v>
       </c>
       <c r="AS153">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT153">
         <v>0.13</v>
@@ -30667,7 +30679,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q155">
         <v>11</v>
@@ -30948,7 +30960,7 @@
         <v>0.92</v>
       </c>
       <c r="AT156">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU156">
         <v>1.35</v>
@@ -31240,7 +31252,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31521,7 +31533,7 @@
         <v>1</v>
       </c>
       <c r="AT159">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU159">
         <v>1.18</v>
@@ -32004,7 +32016,7 @@
         <v>80</v>
       </c>
       <c r="P162" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q162">
         <v>9</v>
@@ -32195,7 +32207,7 @@
         <v>195</v>
       </c>
       <c r="P163" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -32386,7 +32398,7 @@
         <v>196</v>
       </c>
       <c r="P164" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32473,7 +32485,7 @@
         <v>1</v>
       </c>
       <c r="AS164">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT164">
         <v>1.14</v>
@@ -32577,7 +32589,7 @@
         <v>177</v>
       </c>
       <c r="P165" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q165">
         <v>10</v>
@@ -32768,7 +32780,7 @@
         <v>95</v>
       </c>
       <c r="P166" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q166">
         <v>0</v>
@@ -32910,6 +32922,579 @@
       </c>
       <c r="BK166">
         <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>2465456</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44993.69791666666</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>65</v>
+      </c>
+      <c r="H167" t="s">
+        <v>76</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>197</v>
+      </c>
+      <c r="P167" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q167">
+        <v>4</v>
+      </c>
+      <c r="R167">
+        <v>6</v>
+      </c>
+      <c r="S167">
+        <v>10</v>
+      </c>
+      <c r="T167">
+        <v>2.63</v>
+      </c>
+      <c r="U167">
+        <v>2.1</v>
+      </c>
+      <c r="V167">
+        <v>4.5</v>
+      </c>
+      <c r="W167">
+        <v>1.44</v>
+      </c>
+      <c r="X167">
+        <v>2.63</v>
+      </c>
+      <c r="Y167">
+        <v>3.25</v>
+      </c>
+      <c r="Z167">
+        <v>1.33</v>
+      </c>
+      <c r="AA167">
+        <v>9</v>
+      </c>
+      <c r="AB167">
+        <v>1.07</v>
+      </c>
+      <c r="AC167">
+        <v>2.16</v>
+      </c>
+      <c r="AD167">
+        <v>3.2</v>
+      </c>
+      <c r="AE167">
+        <v>3.65</v>
+      </c>
+      <c r="AF167">
+        <v>1.07</v>
+      </c>
+      <c r="AG167">
+        <v>9</v>
+      </c>
+      <c r="AH167">
+        <v>1.36</v>
+      </c>
+      <c r="AI167">
+        <v>3.1</v>
+      </c>
+      <c r="AJ167">
+        <v>2.25</v>
+      </c>
+      <c r="AK167">
+        <v>1.65</v>
+      </c>
+      <c r="AL167">
+        <v>1.95</v>
+      </c>
+      <c r="AM167">
+        <v>1.8</v>
+      </c>
+      <c r="AN167">
+        <v>1.29</v>
+      </c>
+      <c r="AO167">
+        <v>1.34</v>
+      </c>
+      <c r="AP167">
+        <v>1.81</v>
+      </c>
+      <c r="AQ167">
+        <v>1.5</v>
+      </c>
+      <c r="AR167">
+        <v>0.54</v>
+      </c>
+      <c r="AS167">
+        <v>1.47</v>
+      </c>
+      <c r="AT167">
+        <v>0.57</v>
+      </c>
+      <c r="AU167">
+        <v>1.28</v>
+      </c>
+      <c r="AV167">
+        <v>1.16</v>
+      </c>
+      <c r="AW167">
+        <v>2.44</v>
+      </c>
+      <c r="AX167">
+        <v>1.78</v>
+      </c>
+      <c r="AY167">
+        <v>8</v>
+      </c>
+      <c r="AZ167">
+        <v>2.54</v>
+      </c>
+      <c r="BA167">
+        <v>1.18</v>
+      </c>
+      <c r="BB167">
+        <v>1.29</v>
+      </c>
+      <c r="BC167">
+        <v>1.55</v>
+      </c>
+      <c r="BD167">
+        <v>1.93</v>
+      </c>
+      <c r="BE167">
+        <v>2.5</v>
+      </c>
+      <c r="BF167">
+        <v>5</v>
+      </c>
+      <c r="BG167">
+        <v>2</v>
+      </c>
+      <c r="BH167">
+        <v>16</v>
+      </c>
+      <c r="BI167">
+        <v>5</v>
+      </c>
+      <c r="BJ167">
+        <v>21</v>
+      </c>
+      <c r="BK167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2465519</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44993.69791666666</v>
+      </c>
+      <c r="F168">
+        <v>27</v>
+      </c>
+      <c r="G168" t="s">
+        <v>70</v>
+      </c>
+      <c r="H168" t="s">
+        <v>66</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>198</v>
+      </c>
+      <c r="P168" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q168">
+        <v>7</v>
+      </c>
+      <c r="R168">
+        <v>3</v>
+      </c>
+      <c r="S168">
+        <v>10</v>
+      </c>
+      <c r="T168">
+        <v>1.57</v>
+      </c>
+      <c r="U168">
+        <v>3</v>
+      </c>
+      <c r="V168">
+        <v>9</v>
+      </c>
+      <c r="W168">
+        <v>1.2</v>
+      </c>
+      <c r="X168">
+        <v>4.1</v>
+      </c>
+      <c r="Y168">
+        <v>1.99</v>
+      </c>
+      <c r="Z168">
+        <v>1.74</v>
+      </c>
+      <c r="AA168">
+        <v>4.25</v>
+      </c>
+      <c r="AB168">
+        <v>1.19</v>
+      </c>
+      <c r="AC168">
+        <v>1.24</v>
+      </c>
+      <c r="AD168">
+        <v>6.6</v>
+      </c>
+      <c r="AE168">
+        <v>11</v>
+      </c>
+      <c r="AF168">
+        <v>1.02</v>
+      </c>
+      <c r="AG168">
+        <v>15</v>
+      </c>
+      <c r="AH168">
+        <v>1.11</v>
+      </c>
+      <c r="AI168">
+        <v>6.5</v>
+      </c>
+      <c r="AJ168">
+        <v>1.33</v>
+      </c>
+      <c r="AK168">
+        <v>3</v>
+      </c>
+      <c r="AL168">
+        <v>1.87</v>
+      </c>
+      <c r="AM168">
+        <v>1.87</v>
+      </c>
+      <c r="AN168">
+        <v>1.01</v>
+      </c>
+      <c r="AO168">
+        <v>1.08</v>
+      </c>
+      <c r="AP168">
+        <v>4.5</v>
+      </c>
+      <c r="AQ168">
+        <v>3</v>
+      </c>
+      <c r="AR168">
+        <v>1.08</v>
+      </c>
+      <c r="AS168">
+        <v>3</v>
+      </c>
+      <c r="AT168">
+        <v>1</v>
+      </c>
+      <c r="AU168">
+        <v>2.58</v>
+      </c>
+      <c r="AV168">
+        <v>1.28</v>
+      </c>
+      <c r="AW168">
+        <v>3.86</v>
+      </c>
+      <c r="AX168">
+        <v>1.19</v>
+      </c>
+      <c r="AY168">
+        <v>11</v>
+      </c>
+      <c r="AZ168">
+        <v>5.65</v>
+      </c>
+      <c r="BA168">
+        <v>1.11</v>
+      </c>
+      <c r="BB168">
+        <v>1.32</v>
+      </c>
+      <c r="BC168">
+        <v>1.65</v>
+      </c>
+      <c r="BD168">
+        <v>2</v>
+      </c>
+      <c r="BE168">
+        <v>2.5</v>
+      </c>
+      <c r="BF168">
+        <v>4</v>
+      </c>
+      <c r="BG168">
+        <v>4</v>
+      </c>
+      <c r="BH168">
+        <v>8</v>
+      </c>
+      <c r="BI168">
+        <v>2</v>
+      </c>
+      <c r="BJ168">
+        <v>12</v>
+      </c>
+      <c r="BK168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2465520</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44993.69791666666</v>
+      </c>
+      <c r="F169">
+        <v>27</v>
+      </c>
+      <c r="G169" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s">
+        <v>73</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+      <c r="K169">
+        <v>3</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>4</v>
+      </c>
+      <c r="N169">
+        <v>5</v>
+      </c>
+      <c r="O169" t="s">
+        <v>199</v>
+      </c>
+      <c r="P169" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q169">
+        <v>3</v>
+      </c>
+      <c r="R169">
+        <v>7</v>
+      </c>
+      <c r="S169">
+        <v>10</v>
+      </c>
+      <c r="T169">
+        <v>5.55</v>
+      </c>
+      <c r="U169">
+        <v>2.4</v>
+      </c>
+      <c r="V169">
+        <v>2.07</v>
+      </c>
+      <c r="W169">
+        <v>1.29</v>
+      </c>
+      <c r="X169">
+        <v>3.35</v>
+      </c>
+      <c r="Y169">
+        <v>2.4</v>
+      </c>
+      <c r="Z169">
+        <v>1.51</v>
+      </c>
+      <c r="AA169">
+        <v>5.9</v>
+      </c>
+      <c r="AB169">
+        <v>1.1</v>
+      </c>
+      <c r="AC169">
+        <v>5.6</v>
+      </c>
+      <c r="AD169">
+        <v>4.3</v>
+      </c>
+      <c r="AE169">
+        <v>1.57</v>
+      </c>
+      <c r="AF169">
+        <v>1.02</v>
+      </c>
+      <c r="AG169">
+        <v>15</v>
+      </c>
+      <c r="AH169">
+        <v>1.2</v>
+      </c>
+      <c r="AI169">
+        <v>4.33</v>
+      </c>
+      <c r="AJ169">
+        <v>1.78</v>
+      </c>
+      <c r="AK169">
+        <v>2.05</v>
+      </c>
+      <c r="AL169">
+        <v>1.75</v>
+      </c>
+      <c r="AM169">
+        <v>2.05</v>
+      </c>
+      <c r="AN169">
+        <v>2.45</v>
+      </c>
+      <c r="AO169">
+        <v>1.17</v>
+      </c>
+      <c r="AP169">
+        <v>1.14</v>
+      </c>
+      <c r="AQ169">
+        <v>1.85</v>
+      </c>
+      <c r="AR169">
+        <v>2.23</v>
+      </c>
+      <c r="AS169">
+        <v>1.71</v>
+      </c>
+      <c r="AT169">
+        <v>2.29</v>
+      </c>
+      <c r="AU169">
+        <v>1.92</v>
+      </c>
+      <c r="AV169">
+        <v>1.87</v>
+      </c>
+      <c r="AW169">
+        <v>3.79</v>
+      </c>
+      <c r="AX169">
+        <v>3.48</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>1.41</v>
+      </c>
+      <c r="BA169">
+        <v>1.13</v>
+      </c>
+      <c r="BB169">
+        <v>1.32</v>
+      </c>
+      <c r="BC169">
+        <v>1.65</v>
+      </c>
+      <c r="BD169">
+        <v>2</v>
+      </c>
+      <c r="BE169">
+        <v>2.5</v>
+      </c>
+      <c r="BF169">
+        <v>3</v>
+      </c>
+      <c r="BG169">
+        <v>13</v>
+      </c>
+      <c r="BH169">
+        <v>3</v>
+      </c>
+      <c r="BI169">
+        <v>19</v>
+      </c>
+      <c r="BJ169">
+        <v>6</v>
+      </c>
+      <c r="BK169">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>2.21</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT4" t="n">
         <v>0.57</v>
@@ -1512,7 +1512,7 @@
         <v>0.92</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.71</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.87</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU14" t="n">
         <v>1.61</v>
@@ -3542,7 +3542,7 @@
         <v>2.71</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>2.09</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU16" t="n">
         <v>0.68</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT17" t="n">
         <v>1.2</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT18" t="n">
         <v>2.64</v>
@@ -4557,7 +4557,7 @@
         <v>1.71</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4760,7 +4760,7 @@
         <v>0.93</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU21" t="n">
         <v>1.5</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT22" t="n">
         <v>1.08</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU25" t="n">
         <v>2.68</v>
@@ -5775,7 +5775,7 @@
         <v>1.87</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU26" t="n">
         <v>1.44</v>
@@ -5978,7 +5978,7 @@
         <v>2.71</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU27" t="n">
         <v>2.53</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT28" t="n">
         <v>1.2</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT29" t="n">
         <v>1.08</v>
@@ -6790,7 +6790,7 @@
         <v>2.21</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU31" t="n">
         <v>1.71</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU32" t="n">
         <v>2.39</v>
@@ -7196,7 +7196,7 @@
         <v>0.92</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU33" t="n">
         <v>0.82</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU35" t="n">
         <v>1.17</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT36" t="n">
         <v>0.57</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT38" t="n">
         <v>0.13</v>
@@ -8617,7 +8617,7 @@
         <v>0.92</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU40" t="n">
         <v>0.93</v>
@@ -9223,10 +9223,10 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU43" t="n">
         <v>1.2</v>
@@ -9429,7 +9429,7 @@
         <v>2.21</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU44" t="n">
         <v>2.05</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT45" t="n">
         <v>0.13</v>
@@ -9835,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU46" t="n">
         <v>1.09</v>
@@ -10038,7 +10038,7 @@
         <v>0.93</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU47" t="n">
         <v>1.31</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU51" t="n">
         <v>1.74</v>
@@ -11456,10 +11456,10 @@
         <v>0.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -11662,7 +11662,7 @@
         <v>2.71</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12271,7 +12271,7 @@
         <v>0.93</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12474,7 +12474,7 @@
         <v>3</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU59" t="n">
         <v>2.2</v>
@@ -12674,10 +12674,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU60" t="n">
         <v>1.36</v>
@@ -13283,10 +13283,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU64" t="n">
         <v>1.54</v>
@@ -13692,7 +13692,7 @@
         <v>1.71</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -14095,10 +14095,10 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU67" t="n">
         <v>1.55</v>
@@ -14298,7 +14298,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT68" t="n">
         <v>0.71</v>
@@ -15113,7 +15113,7 @@
         <v>1.71</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15719,7 +15719,7 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT75" t="n">
         <v>2.64</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU76" t="n">
         <v>1.07</v>
@@ -16125,10 +16125,10 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT78" t="n">
         <v>1.08</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -16940,7 +16940,7 @@
         <v>0.92</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU81" t="n">
         <v>1.05</v>
@@ -17346,7 +17346,7 @@
         <v>1.71</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU83" t="n">
         <v>1.89</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT84" t="n">
         <v>0.71</v>
@@ -17752,7 +17752,7 @@
         <v>2.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU85" t="n">
         <v>2.79</v>
@@ -18155,7 +18155,7 @@
         <v>2.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT87" t="n">
         <v>2.64</v>
@@ -18361,7 +18361,7 @@
         <v>1.87</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.29</v>
@@ -18564,7 +18564,7 @@
         <v>1.87</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU91" t="n">
         <v>2.4</v>
@@ -19373,10 +19373,10 @@
         <v>0.86</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -19576,7 +19576,7 @@
         <v>0.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT94" t="n">
         <v>0.57</v>
@@ -19782,7 +19782,7 @@
         <v>2.71</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU95" t="n">
         <v>2.69</v>
@@ -19982,7 +19982,7 @@
         <v>2.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT96" t="n">
         <v>2.64</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU97" t="n">
         <v>1.25</v>
@@ -20591,10 +20591,10 @@
         <v>1.57</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21200,7 +21200,7 @@
         <v>0.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT102" t="n">
         <v>0.13</v>
@@ -21406,7 +21406,7 @@
         <v>3</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU103" t="n">
         <v>2.57</v>
@@ -21812,7 +21812,7 @@
         <v>0.93</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22218,7 +22218,7 @@
         <v>0.92</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU107" t="n">
         <v>1.04</v>
@@ -22421,7 +22421,7 @@
         <v>0.93</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU108" t="n">
         <v>1.45</v>
@@ -22621,7 +22621,7 @@
         <v>0.78</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT109" t="n">
         <v>0.71</v>
@@ -22824,10 +22824,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU110" t="n">
         <v>1.35</v>
@@ -23636,7 +23636,7 @@
         <v>1.3</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT114" t="n">
         <v>1.2</v>
@@ -23839,10 +23839,10 @@
         <v>0.57</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU115" t="n">
         <v>1.44</v>
@@ -24045,7 +24045,7 @@
         <v>2.21</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU116" t="n">
         <v>1.86</v>
@@ -24448,10 +24448,10 @@
         <v>0.78</v>
       </c>
       <c r="AS118" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU118" t="n">
         <v>1.35</v>
@@ -24857,7 +24857,7 @@
         <v>1.87</v>
       </c>
       <c r="AT120" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU120" t="n">
         <v>1.38</v>
@@ -25057,10 +25057,10 @@
         <v>1.3</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25463,10 +25463,10 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU123" t="n">
         <v>1.44</v>
@@ -25669,7 +25669,7 @@
         <v>0.93</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU124" t="n">
         <v>1.48</v>
@@ -25872,7 +25872,7 @@
         <v>2.21</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU125" t="n">
         <v>1.8</v>
@@ -26275,10 +26275,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU127" t="n">
         <v>1.45</v>
@@ -26684,7 +26684,7 @@
         <v>3</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU129" t="n">
         <v>2.67</v>
@@ -27087,10 +27087,10 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU131" t="n">
         <v>1.47</v>
@@ -27496,7 +27496,7 @@
         <v>2.71</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU133" t="n">
         <v>2.55</v>
@@ -28102,10 +28102,10 @@
         <v>1.18</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU136" t="n">
         <v>1.35</v>
@@ -28511,7 +28511,7 @@
         <v>1</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU138" t="n">
         <v>1.18</v>
@@ -28711,7 +28711,7 @@
         <v>0.7</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT139" t="n">
         <v>0.57</v>
@@ -28917,7 +28917,7 @@
         <v>2.21</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU140" t="n">
         <v>1.75</v>
@@ -29117,10 +29117,10 @@
         <v>1.08</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU141" t="n">
         <v>1.42</v>
@@ -29320,10 +29320,10 @@
         <v>0.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU142" t="n">
         <v>1.53</v>
@@ -29726,7 +29726,7 @@
         <v>1.17</v>
       </c>
       <c r="AS144" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT144" t="n">
         <v>1.2</v>
@@ -30132,7 +30132,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT146" t="n">
         <v>0.13</v>
@@ -30338,7 +30338,7 @@
         <v>2.71</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU147" t="n">
         <v>2.56</v>
@@ -30541,7 +30541,7 @@
         <v>1.87</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU148" t="n">
         <v>1.38</v>
@@ -30944,10 +30944,10 @@
         <v>0.73</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU150" t="n">
         <v>1.37</v>
@@ -31150,7 +31150,7 @@
         <v>1.87</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU151" t="n">
         <v>1.36</v>
@@ -31350,10 +31350,10 @@
         <v>2.17</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -31962,7 +31962,7 @@
         <v>0.93</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU155" t="n">
         <v>1.33</v>
@@ -32162,10 +32162,10 @@
         <v>1.17</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT156" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU156" t="n">
         <v>1.35</v>
@@ -32365,7 +32365,7 @@
         <v>1.17</v>
       </c>
       <c r="AS157" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT157" t="n">
         <v>1.08</v>
@@ -32568,7 +32568,7 @@
         <v>1.08</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT158" t="n">
         <v>1.2</v>
@@ -32977,7 +32977,7 @@
         <v>0.92</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU160" t="n">
         <v>1.12</v>
@@ -33180,7 +33180,7 @@
         <v>2.21</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU161" t="n">
         <v>1.72</v>
@@ -33786,10 +33786,10 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AU164" t="n">
         <v>1.31</v>
@@ -34395,7 +34395,7 @@
         <v>0.54</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT167" t="n">
         <v>0.57</v>
@@ -34601,7 +34601,7 @@
         <v>3</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU168" t="n">
         <v>2.58</v>
@@ -34804,7 +34804,7 @@
         <v>1.71</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AU169" t="n">
         <v>1.92</v>
@@ -34856,6 +34856,1224 @@
       </c>
       <c r="BK169" t="n">
         <v>32</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2465535</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45003.39583333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>29</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>4</v>
+      </c>
+      <c r="N170" t="n">
+        <v>6</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['3', '59']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['23', '46', '63', '69']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R170" t="n">
+        <v>3</v>
+      </c>
+      <c r="S170" t="n">
+        <v>4</v>
+      </c>
+      <c r="T170" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V170" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2465530</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>29</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>3</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>3</v>
+      </c>
+      <c r="L171" t="n">
+        <v>3</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['5', '21', '28']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>7</v>
+      </c>
+      <c r="R171" t="n">
+        <v>7</v>
+      </c>
+      <c r="S171" t="n">
+        <v>14</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2465531</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>29</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>3</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['52', '81', '90+5']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>15</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
+      <c r="S172" t="n">
+        <v>15</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U172" t="n">
+        <v>3</v>
+      </c>
+      <c r="V172" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X172" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2465532</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>29</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>1</v>
+      </c>
+      <c r="R173" t="n">
+        <v>4</v>
+      </c>
+      <c r="S173" t="n">
+        <v>5</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2465533</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>29</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>9</v>
+      </c>
+      <c r="R174" t="n">
+        <v>5</v>
+      </c>
+      <c r="S174" t="n">
+        <v>14</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2465534</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45003.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>29</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>3</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['37', '38']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>8</v>
+      </c>
+      <c r="R175" t="n">
+        <v>6</v>
+      </c>
+      <c r="S175" t="n">
+        <v>14</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V175" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT5" t="n">
         <v>1.07</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT10" t="n">
         <v>0.13</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>0.93</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT14" t="n">
         <v>0.64</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -3948,7 +3948,7 @@
         <v>2.07</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU17" t="n">
         <v>0.75</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU18" t="n">
         <v>2.08</v>
@@ -4354,7 +4354,7 @@
         <v>2.21</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT20" t="n">
         <v>2.33</v>
@@ -4963,7 +4963,7 @@
         <v>0.86</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>0.34</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT23" t="n">
         <v>0.13</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU24" t="n">
         <v>0.58</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU25" t="n">
         <v>2.68</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT26" t="n">
         <v>1.07</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT27" t="n">
         <v>0.64</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU28" t="n">
         <v>1.62</v>
@@ -6384,7 +6384,7 @@
         <v>2.07</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -6587,7 +6587,7 @@
         <v>0.93</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU30" t="n">
         <v>1.54</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT33" t="n">
         <v>0.71</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT34" t="n">
         <v>0.13</v>
@@ -7602,7 +7602,7 @@
         <v>1.56</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU35" t="n">
         <v>1.17</v>
@@ -7805,7 +7805,7 @@
         <v>0.86</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU36" t="n">
         <v>0.85</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU37" t="n">
         <v>1.09</v>
@@ -8411,10 +8411,10 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT40" t="n">
         <v>0.64</v>
@@ -8817,10 +8817,10 @@
         <v>0.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU41" t="n">
         <v>2.8</v>
@@ -9020,10 +9020,10 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.42</v>
@@ -9226,7 +9226,7 @@
         <v>0.86</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU43" t="n">
         <v>1.2</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT46" t="n">
         <v>1.07</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU48" t="n">
         <v>2.23</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.27</v>
@@ -10644,10 +10644,10 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU50" t="n">
         <v>1.1</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT51" t="n">
         <v>1.25</v>
@@ -11050,10 +11050,10 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.05</v>
@@ -11253,10 +11253,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU53" t="n">
         <v>1.97</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT55" t="n">
         <v>0.71</v>
@@ -11865,7 +11865,7 @@
         <v>0.93</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU56" t="n">
         <v>1.49</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12877,10 +12877,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU61" t="n">
         <v>1.1</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT62" t="n">
         <v>0.13</v>
@@ -13489,7 +13489,7 @@
         <v>2.07</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU64" t="n">
         <v>1.54</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT65" t="n">
         <v>1.25</v>
@@ -13895,7 +13895,7 @@
         <v>2.21</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.76</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT67" t="n">
         <v>0.64</v>
@@ -14301,7 +14301,7 @@
         <v>0.86</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU68" t="n">
         <v>1.43</v>
@@ -14501,10 +14501,10 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>2.62</v>
@@ -14704,10 +14704,10 @@
         <v>0.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -14907,10 +14907,10 @@
         <v>1.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU71" t="n">
         <v>2.63</v>
@@ -15110,7 +15110,7 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT72" t="n">
         <v>0.71</v>
@@ -15316,7 +15316,7 @@
         <v>0.93</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU73" t="n">
         <v>1.55</v>
@@ -15516,7 +15516,7 @@
         <v>0.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT74" t="n">
         <v>0.13</v>
@@ -15722,7 +15722,7 @@
         <v>1.56</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -15922,10 +15922,10 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU76" t="n">
         <v>1.07</v>
@@ -16328,10 +16328,10 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16534,7 +16534,7 @@
         <v>3</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU79" t="n">
         <v>2.25</v>
@@ -16734,7 +16734,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT80" t="n">
         <v>0.71</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT81" t="n">
         <v>2.33</v>
@@ -17143,7 +17143,7 @@
         <v>2.21</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU82" t="n">
         <v>1.82</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT83" t="n">
         <v>0.64</v>
@@ -17549,7 +17549,7 @@
         <v>1.56</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -17749,10 +17749,10 @@
         <v>1.14</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU85" t="n">
         <v>2.79</v>
@@ -18158,7 +18158,7 @@
         <v>0.86</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU87" t="n">
         <v>1.48</v>
@@ -18358,7 +18358,7 @@
         <v>1.29</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT88" t="n">
         <v>1.25</v>
@@ -18561,7 +18561,7 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT89" t="n">
         <v>2.33</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU90" t="n">
         <v>1.03</v>
@@ -19173,7 +19173,7 @@
         <v>2.21</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -19373,7 +19373,7 @@
         <v>0.86</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT93" t="n">
         <v>1.07</v>
@@ -19579,7 +19579,7 @@
         <v>2.07</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU94" t="n">
         <v>1.58</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT95" t="n">
         <v>1.07</v>
@@ -19985,7 +19985,7 @@
         <v>2.07</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT97" t="n">
         <v>1.25</v>
@@ -20797,7 +20797,7 @@
         <v>3</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT101" t="n">
         <v>2.33</v>
@@ -21606,10 +21606,10 @@
         <v>0.88</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU104" t="n">
         <v>1.31</v>
@@ -21812,7 +21812,7 @@
         <v>0.93</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU107" t="n">
         <v>1.04</v>
@@ -22621,10 +22621,10 @@
         <v>0.78</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU109" t="n">
         <v>1.42</v>
@@ -23027,10 +23027,10 @@
         <v>1.44</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU111" t="n">
         <v>2.69</v>
@@ -23230,10 +23230,10 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU112" t="n">
         <v>2.07</v>
@@ -23433,10 +23433,10 @@
         <v>2.7</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU113" t="n">
         <v>2.64</v>
@@ -23639,7 +23639,7 @@
         <v>1.56</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU114" t="n">
         <v>1.32</v>
@@ -23839,7 +23839,7 @@
         <v>0.57</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT115" t="n">
         <v>0.71</v>
@@ -24245,10 +24245,10 @@
         <v>0.38</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU117" t="n">
         <v>1.12</v>
@@ -24651,10 +24651,10 @@
         <v>0.89</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1.13</v>
@@ -24854,10 +24854,10 @@
         <v>1.2</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU120" t="n">
         <v>1.38</v>
@@ -26072,10 +26072,10 @@
         <v>1.1</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.11</v>
@@ -26478,10 +26478,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU128" t="n">
         <v>1.95</v>
@@ -26887,7 +26887,7 @@
         <v>2.21</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU130" t="n">
         <v>1.75</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT131" t="n">
         <v>2.33</v>
@@ -27290,10 +27290,10 @@
         <v>0.64</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU132" t="n">
         <v>1.91</v>
@@ -27493,7 +27493,7 @@
         <v>1.18</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT133" t="n">
         <v>1.25</v>
@@ -27696,7 +27696,7 @@
         <v>0.18</v>
       </c>
       <c r="AS134" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT134" t="n">
         <v>0.13</v>
@@ -27899,10 +27899,10 @@
         <v>1.27</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU135" t="n">
         <v>1.39</v>
@@ -28105,7 +28105,7 @@
         <v>1.56</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU136" t="n">
         <v>1.35</v>
@@ -28308,7 +28308,7 @@
         <v>0.93</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -28508,7 +28508,7 @@
         <v>0.82</v>
       </c>
       <c r="AS138" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT138" t="n">
         <v>1.07</v>
@@ -28711,10 +28711,10 @@
         <v>0.7</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU139" t="n">
         <v>1.43</v>
@@ -29526,7 +29526,7 @@
         <v>3</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>2.64</v>
@@ -29729,7 +29729,7 @@
         <v>2.07</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU144" t="n">
         <v>1.49</v>
@@ -29932,7 +29932,7 @@
         <v>2.21</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU145" t="n">
         <v>1.68</v>
@@ -30335,7 +30335,7 @@
         <v>0.82</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT147" t="n">
         <v>0.64</v>
@@ -30538,7 +30538,7 @@
         <v>0.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT148" t="n">
         <v>1.07</v>
@@ -30741,10 +30741,10 @@
         <v>2.58</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU149" t="n">
         <v>1.13</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT151" t="n">
         <v>0.64</v>
@@ -31553,7 +31553,7 @@
         <v>0.15</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT153" t="n">
         <v>0.13</v>
@@ -31759,7 +31759,7 @@
         <v>3</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU154" t="n">
         <v>2.58</v>
@@ -32165,7 +32165,7 @@
         <v>0.86</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU156" t="n">
         <v>1.35</v>
@@ -32368,7 +32368,7 @@
         <v>2.07</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.51</v>
@@ -32568,10 +32568,10 @@
         <v>1.08</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU158" t="n">
         <v>1.52</v>
@@ -32771,10 +32771,10 @@
         <v>0.58</v>
       </c>
       <c r="AS159" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU159" t="n">
         <v>1.18</v>
@@ -32974,7 +32974,7 @@
         <v>0.67</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AT160" t="n">
         <v>0.71</v>
@@ -33380,10 +33380,10 @@
         <v>1.07</v>
       </c>
       <c r="AS162" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AU162" t="n">
         <v>1.29</v>
@@ -33583,7 +33583,7 @@
         <v>0.14</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AT163" t="n">
         <v>0.13</v>
@@ -33992,7 +33992,7 @@
         <v>0.93</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU165" t="n">
         <v>1.36</v>
@@ -34192,10 +34192,10 @@
         <v>2.62</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AU166" t="n">
         <v>1.37</v>
@@ -34398,7 +34398,7 @@
         <v>1.56</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU167" t="n">
         <v>1.28</v>
@@ -34601,7 +34601,7 @@
         <v>3</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU168" t="n">
         <v>2.58</v>
@@ -34801,7 +34801,7 @@
         <v>2.23</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT169" t="n">
         <v>2.33</v>
@@ -35210,7 +35210,7 @@
         <v>2.07</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU171" t="n">
         <v>1.51</v>
@@ -35816,7 +35816,7 @@
         <v>1.27</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT174" t="n">
         <v>1.25</v>
@@ -36074,6 +36074,1224 @@
       </c>
       <c r="BK175" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2465536</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>30</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>3</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['7', '54', '81']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>6</v>
+      </c>
+      <c r="R176" t="n">
+        <v>5</v>
+      </c>
+      <c r="S176" t="n">
+        <v>11</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2465537</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F177" t="n">
+        <v>30</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>2</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>3</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['22', '45']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>2</v>
+      </c>
+      <c r="R177" t="n">
+        <v>5</v>
+      </c>
+      <c r="S177" t="n">
+        <v>7</v>
+      </c>
+      <c r="T177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2465538</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F178" t="n">
+        <v>30</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['38', '55']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>10</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2</v>
+      </c>
+      <c r="S178" t="n">
+        <v>12</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>13</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X178" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2465540</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>30</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>7</v>
+      </c>
+      <c r="R179" t="n">
+        <v>7</v>
+      </c>
+      <c r="S179" t="n">
+        <v>14</v>
+      </c>
+      <c r="T179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2465541</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>30</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>3</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>3</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['5', '18', '42']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>4</v>
+      </c>
+      <c r="R180" t="n">
+        <v>9</v>
+      </c>
+      <c r="S180" t="n">
+        <v>13</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2</v>
+      </c>
+      <c r="V180" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2465539</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45018.33333333334</v>
+      </c>
+      <c r="F181" t="n">
+        <v>30</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>2</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['45+5', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>2</v>
+      </c>
+      <c r="R181" t="n">
+        <v>9</v>
+      </c>
+      <c r="S181" t="n">
+        <v>11</v>
+      </c>
+      <c r="T181" t="n">
+        <v>11</v>
+      </c>
+      <c r="U181" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.56</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT5" t="n">
         <v>1.07</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.25</v>
@@ -3136,7 +3136,7 @@
         <v>0.93</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.94</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU14" t="n">
         <v>1.61</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT17" t="n">
         <v>1.31</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT19" t="n">
         <v>0.53</v>
@@ -4557,7 +4557,7 @@
         <v>1.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4760,7 +4760,7 @@
         <v>0.93</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU21" t="n">
         <v>1.5</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU22" t="n">
         <v>0.34</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT24" t="n">
         <v>0.87</v>
@@ -5978,7 +5978,7 @@
         <v>2.73</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU27" t="n">
         <v>2.53</v>
@@ -6381,10 +6381,10 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT31" t="n">
         <v>1.25</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU32" t="n">
         <v>2.39</v>
@@ -7193,10 +7193,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU33" t="n">
         <v>0.82</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT36" t="n">
         <v>0.53</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU40" t="n">
         <v>0.93</v>
@@ -9223,7 +9223,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
         <v>0.88</v>
@@ -9426,10 +9426,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU44" t="n">
         <v>2.05</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT45" t="n">
         <v>0.13</v>
@@ -10444,7 +10444,7 @@
         <v>1.94</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU49" t="n">
         <v>1.27</v>
@@ -11050,7 +11050,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT52" t="n">
         <v>2.67</v>
@@ -11459,7 +11459,7 @@
         <v>1.56</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -11662,7 +11662,7 @@
         <v>2.73</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -13283,10 +13283,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT64" t="n">
         <v>0.88</v>
@@ -13892,7 +13892,7 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT66" t="n">
         <v>2.67</v>
@@ -14098,7 +14098,7 @@
         <v>1.73</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU67" t="n">
         <v>1.55</v>
@@ -14298,7 +14298,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>0.87</v>
@@ -14504,7 +14504,7 @@
         <v>2.73</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU69" t="n">
         <v>2.62</v>
@@ -15113,7 +15113,7 @@
         <v>1.6</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15516,7 +15516,7 @@
         <v>0.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT74" t="n">
         <v>0.13</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT77" t="n">
         <v>1.07</v>
@@ -16331,7 +16331,7 @@
         <v>1.73</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16737,7 +16737,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -16937,10 +16937,10 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU81" t="n">
         <v>1.05</v>
@@ -17140,7 +17140,7 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT82" t="n">
         <v>1.31</v>
@@ -17346,7 +17346,7 @@
         <v>1.6</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU83" t="n">
         <v>1.89</v>
@@ -18155,7 +18155,7 @@
         <v>2.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT87" t="n">
         <v>2.67</v>
@@ -18564,7 +18564,7 @@
         <v>1.94</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -18764,7 +18764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT90" t="n">
         <v>1.31</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU91" t="n">
         <v>2.4</v>
@@ -19170,10 +19170,10 @@
         <v>1.17</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -19576,7 +19576,7 @@
         <v>0.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT94" t="n">
         <v>0.53</v>
@@ -19982,7 +19982,7 @@
         <v>2.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT96" t="n">
         <v>2.67</v>
@@ -20388,7 +20388,7 @@
         <v>0.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT98" t="n">
         <v>0.13</v>
@@ -20591,10 +20591,10 @@
         <v>1.57</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -20797,7 +20797,7 @@
         <v>3</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -21000,7 +21000,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21200,7 +21200,7 @@
         <v>0.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT102" t="n">
         <v>0.13</v>
@@ -22015,7 +22015,7 @@
         <v>1.6</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT107" t="n">
         <v>0.88</v>
@@ -22421,7 +22421,7 @@
         <v>0.93</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU108" t="n">
         <v>1.45</v>
@@ -22827,7 +22827,7 @@
         <v>1.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU110" t="n">
         <v>1.35</v>
@@ -23842,7 +23842,7 @@
         <v>1.73</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU115" t="n">
         <v>1.44</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT116" t="n">
         <v>1.07</v>
@@ -24245,7 +24245,7 @@
         <v>0.38</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT117" t="n">
         <v>0.53</v>
@@ -24448,10 +24448,10 @@
         <v>0.78</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU118" t="n">
         <v>1.35</v>
@@ -24654,7 +24654,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU119" t="n">
         <v>1.13</v>
@@ -25057,7 +25057,7 @@
         <v>1.3</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT121" t="n">
         <v>1.25</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT123" t="n">
         <v>1.07</v>
@@ -25669,7 +25669,7 @@
         <v>0.93</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU124" t="n">
         <v>1.48</v>
@@ -25869,10 +25869,10 @@
         <v>0.63</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU125" t="n">
         <v>1.8</v>
@@ -26072,10 +26072,10 @@
         <v>1.1</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU126" t="n">
         <v>1.11</v>
@@ -26275,10 +26275,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU127" t="n">
         <v>1.45</v>
@@ -26684,7 +26684,7 @@
         <v>3</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU129" t="n">
         <v>2.67</v>
@@ -26884,7 +26884,7 @@
         <v>0.7</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT130" t="n">
         <v>0.87</v>
@@ -27090,7 +27090,7 @@
         <v>1.73</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU131" t="n">
         <v>1.47</v>
@@ -28914,10 +28914,10 @@
         <v>2.09</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT140" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU140" t="n">
         <v>1.75</v>
@@ -29117,7 +29117,7 @@
         <v>1.08</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT141" t="n">
         <v>1.25</v>
@@ -29320,10 +29320,10 @@
         <v>0.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU142" t="n">
         <v>1.53</v>
@@ -29526,7 +29526,7 @@
         <v>3</v>
       </c>
       <c r="AT143" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU143" t="n">
         <v>2.64</v>
@@ -29726,7 +29726,7 @@
         <v>1.17</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT144" t="n">
         <v>1.31</v>
@@ -29929,7 +29929,7 @@
         <v>0.64</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT145" t="n">
         <v>0.53</v>
@@ -30338,7 +30338,7 @@
         <v>2.73</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU147" t="n">
         <v>2.56</v>
@@ -30741,7 +30741,7 @@
         <v>2.58</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT149" t="n">
         <v>2.67</v>
@@ -30944,10 +30944,10 @@
         <v>0.73</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU150" t="n">
         <v>1.37</v>
@@ -31150,7 +31150,7 @@
         <v>1.94</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU151" t="n">
         <v>1.36</v>
@@ -31353,7 +31353,7 @@
         <v>1.56</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU152" t="n">
         <v>1.36</v>
@@ -32162,7 +32162,7 @@
         <v>1.17</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
         <v>0.88</v>
@@ -32365,10 +32365,10 @@
         <v>1.17</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT157" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU157" t="n">
         <v>1.51</v>
@@ -32974,10 +32974,10 @@
         <v>0.67</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU160" t="n">
         <v>1.12</v>
@@ -33177,7 +33177,7 @@
         <v>1.36</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AT161" t="n">
         <v>1.25</v>
@@ -34804,7 +34804,7 @@
         <v>1.6</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU169" t="n">
         <v>1.92</v>
@@ -35004,10 +35004,10 @@
         <v>2.29</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
       <c r="AU170" t="n">
         <v>1.33</v>
@@ -35207,7 +35207,7 @@
         <v>1</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT171" t="n">
         <v>0.88</v>
@@ -35616,7 +35616,7 @@
         <v>0.93</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU173" t="n">
         <v>1.4</v>
@@ -36022,7 +36022,7 @@
         <v>1.56</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AU175" t="n">
         <v>1.34</v>
@@ -36831,7 +36831,7 @@
         <v>0.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AT179" t="n">
         <v>0.87</v>
@@ -37037,7 +37037,7 @@
         <v>1.94</v>
       </c>
       <c r="AT180" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU180" t="n">
         <v>1.3</v>
@@ -37292,6 +37292,1021 @@
       </c>
       <c r="BK181" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2465543</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45024.35416666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>31</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2</v>
+      </c>
+      <c r="L182" t="n">
+        <v>3</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>5</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['26', '62', '73']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['45', '79']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>4</v>
+      </c>
+      <c r="R182" t="n">
+        <v>3</v>
+      </c>
+      <c r="S182" t="n">
+        <v>7</v>
+      </c>
+      <c r="T182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V182" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2465545</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F183" t="n">
+        <v>31</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['52', '57']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>6</v>
+      </c>
+      <c r="R183" t="n">
+        <v>8</v>
+      </c>
+      <c r="S183" t="n">
+        <v>14</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V183" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2465546</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F184" t="n">
+        <v>31</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>3</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>3</v>
+      </c>
+      <c r="L184" t="n">
+        <v>3</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['9', '33', '34']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>4</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2</v>
+      </c>
+      <c r="S184" t="n">
+        <v>6</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V184" t="n">
+        <v>4</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2465547</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>31</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['45', '49']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>7</v>
+      </c>
+      <c r="R185" t="n">
+        <v>5</v>
+      </c>
+      <c r="S185" t="n">
+        <v>12</v>
+      </c>
+      <c r="T185" t="n">
+        <v>3</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2</v>
+      </c>
+      <c r="V185" t="n">
+        <v>4</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2465542</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>31</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['1', '59']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>5</v>
+      </c>
+      <c r="R186" t="n">
+        <v>8</v>
+      </c>
+      <c r="S186" t="n">
+        <v>13</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V186" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>0.8</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT13" t="n">
         <v>0.93</v>
@@ -3745,7 +3745,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0.68</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT21" t="n">
         <v>0.87</v>
@@ -5775,7 +5775,7 @@
         <v>1.94</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.44</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT30" t="n">
         <v>2.67</v>
@@ -9835,7 +9835,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.09</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT47" t="n">
         <v>1.25</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT56" t="n">
         <v>0.87</v>
@@ -12268,10 +12268,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.62</v>
@@ -12474,7 +12474,7 @@
         <v>3</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>2.2</v>
@@ -15313,7 +15313,7 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT73" t="n">
         <v>1.31</v>
@@ -16128,7 +16128,7 @@
         <v>2.13</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -17952,7 +17952,7 @@
         <v>0.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT86" t="n">
         <v>0.13</v>
@@ -19376,7 +19376,7 @@
         <v>1.73</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.49</v>
@@ -19782,7 +19782,7 @@
         <v>2.73</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>2.69</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT105" t="n">
         <v>0.88</v>
@@ -22418,7 +22418,7 @@
         <v>0.88</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT108" t="n">
         <v>0.8</v>
@@ -24045,7 +24045,7 @@
         <v>2.07</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU116" t="n">
         <v>1.86</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU123" t="n">
         <v>1.44</v>
@@ -25666,7 +25666,7 @@
         <v>1.89</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT124" t="n">
         <v>2.19</v>
@@ -28305,7 +28305,7 @@
         <v>2.55</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT137" t="n">
         <v>2.67</v>
@@ -28511,7 +28511,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.18</v>
@@ -30541,7 +30541,7 @@
         <v>1.94</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU148" t="n">
         <v>1.38</v>
@@ -31959,7 +31959,7 @@
         <v>1.23</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT155" t="n">
         <v>1.25</v>
@@ -33789,7 +33789,7 @@
         <v>1.56</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU164" t="n">
         <v>1.31</v>
@@ -33989,7 +33989,7 @@
         <v>0.54</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT165" t="n">
         <v>0.87</v>
@@ -35413,7 +35413,7 @@
         <v>3</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU172" t="n">
         <v>2.51</v>
@@ -35613,7 +35613,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT173" t="n">
         <v>0.87</v>
@@ -38307,6 +38307,209 @@
       </c>
       <c r="BK186" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2465544</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45025.33333333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>31</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>3</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['8', '90']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="n">
+        <v>4</v>
+      </c>
+      <c r="S187" t="n">
+        <v>4</v>
+      </c>
+      <c r="T187" t="n">
+        <v>4</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK187"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT11" t="n">
         <v>2.67</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT23" t="n">
         <v>0.13</v>
@@ -5369,7 +5369,7 @@
         <v>0.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>0.58</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.09</v>
@@ -8414,7 +8414,7 @@
         <v>1.6</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT50" t="n">
         <v>1.31</v>
@@ -11865,7 +11865,7 @@
         <v>1.06</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>1.49</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT61" t="n">
         <v>0.53</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.43</v>
@@ -14910,7 +14910,7 @@
         <v>2.73</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>2.63</v>
@@ -15922,7 +15922,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT76" t="n">
         <v>0.88</v>
@@ -16734,7 +16734,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT80" t="n">
         <v>0.87</v>
@@ -17549,7 +17549,7 @@
         <v>1.56</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT97" t="n">
         <v>1.25</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT101" t="n">
         <v>2.19</v>
@@ -21609,7 +21609,7 @@
         <v>1.94</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.31</v>
@@ -22624,7 +22624,7 @@
         <v>1.73</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU109" t="n">
         <v>1.42</v>
@@ -24651,7 +24651,7 @@
         <v>0.89</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT119" t="n">
         <v>0.93</v>
@@ -26887,7 +26887,7 @@
         <v>2.07</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.75</v>
@@ -27293,7 +27293,7 @@
         <v>1.6</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>1.91</v>
@@ -27696,7 +27696,7 @@
         <v>0.18</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT134" t="n">
         <v>0.13</v>
@@ -28508,7 +28508,7 @@
         <v>0.82</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -31759,7 +31759,7 @@
         <v>3</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU154" t="n">
         <v>2.58</v>
@@ -32771,7 +32771,7 @@
         <v>0.58</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT159" t="n">
         <v>0.53</v>
@@ -33380,7 +33380,7 @@
         <v>1.07</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT162" t="n">
         <v>1.31</v>
@@ -33992,7 +33992,7 @@
         <v>1.06</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.36</v>
@@ -36834,7 +36834,7 @@
         <v>0.8</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU179" t="n">
         <v>1.11</v>
@@ -37237,7 +37237,7 @@
         <v>2.64</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AT181" t="n">
         <v>2.67</v>
@@ -38510,6 +38510,209 @@
       </c>
       <c r="BK187" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2465553</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45030.65625</v>
+      </c>
+      <c r="F188" t="n">
+        <v>32</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>10</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2</v>
+      </c>
+      <c r="S188" t="n">
+        <v>12</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V188" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK188"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT2" t="n">
         <v>2.19</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.13</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT10" t="n">
         <v>0.13</v>
@@ -2730,7 +2730,7 @@
         <v>0.88</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU15" t="n">
         <v>2.09</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU18" t="n">
         <v>2.08</v>
@@ -4354,7 +4354,7 @@
         <v>2.07</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT20" t="n">
         <v>2.19</v>
@@ -4760,7 +4760,7 @@
         <v>1.06</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>1.5</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT22" t="n">
         <v>0.93</v>
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU25" t="n">
         <v>2.68</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT27" t="n">
         <v>0.8</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT28" t="n">
         <v>1.31</v>
@@ -6587,7 +6587,7 @@
         <v>1.06</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU30" t="n">
         <v>1.54</v>
@@ -6790,7 +6790,7 @@
         <v>2.07</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU31" t="n">
         <v>1.71</v>
@@ -7196,7 +7196,7 @@
         <v>0.8</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU33" t="n">
         <v>0.82</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT34" t="n">
         <v>0.13</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU35" t="n">
         <v>1.17</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU36" t="n">
         <v>0.85</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT38" t="n">
         <v>0.13</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8817,10 +8817,10 @@
         <v>0.67</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU41" t="n">
         <v>2.8</v>
@@ -9023,7 +9023,7 @@
         <v>1.94</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU42" t="n">
         <v>1.42</v>
@@ -9223,10 +9223,10 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU43" t="n">
         <v>1.2</v>
@@ -10038,7 +10038,7 @@
         <v>1.06</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU47" t="n">
         <v>1.31</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU51" t="n">
         <v>1.74</v>
@@ -11053,7 +11053,7 @@
         <v>0.8</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU52" t="n">
         <v>1.05</v>
@@ -11253,7 +11253,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT53" t="n">
         <v>1.31</v>
@@ -11456,7 +11456,7 @@
         <v>0.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT54" t="n">
         <v>0.8</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12674,10 +12674,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU60" t="n">
         <v>1.36</v>
@@ -12880,7 +12880,7 @@
         <v>0.88</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU61" t="n">
         <v>1.1</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT63" t="n">
         <v>2.19</v>
@@ -13489,7 +13489,7 @@
         <v>2.13</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU64" t="n">
         <v>1.54</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -13895,7 +13895,7 @@
         <v>2.07</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU66" t="n">
         <v>1.76</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT67" t="n">
         <v>0.8</v>
@@ -14298,7 +14298,7 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14501,7 +14501,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT69" t="n">
         <v>0.93</v>
@@ -14707,7 +14707,7 @@
         <v>1.94</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU70" t="n">
         <v>1.23</v>
@@ -14907,7 +14907,7 @@
         <v>1.17</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -15110,10 +15110,10 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15719,10 +15719,10 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -15925,7 +15925,7 @@
         <v>0.88</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU76" t="n">
         <v>1.07</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT78" t="n">
         <v>0.93</v>
@@ -16534,7 +16534,7 @@
         <v>3</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU79" t="n">
         <v>2.25</v>
@@ -16737,7 +16737,7 @@
         <v>0.88</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT83" t="n">
         <v>0.8</v>
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT84" t="n">
         <v>1</v>
@@ -17749,10 +17749,10 @@
         <v>1.14</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU85" t="n">
         <v>2.79</v>
@@ -18155,10 +18155,10 @@
         <v>2.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU87" t="n">
         <v>1.48</v>
@@ -18361,7 +18361,7 @@
         <v>1.94</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU88" t="n">
         <v>1.29</v>
@@ -19373,7 +19373,7 @@
         <v>0.86</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>2.13</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU94" t="n">
         <v>1.58</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT95" t="n">
         <v>1</v>
@@ -19985,7 +19985,7 @@
         <v>2.13</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -20188,7 +20188,7 @@
         <v>0.88</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU97" t="n">
         <v>1.25</v>
@@ -21200,7 +21200,7 @@
         <v>0.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT102" t="n">
         <v>0.13</v>
@@ -21406,7 +21406,7 @@
         <v>3</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU103" t="n">
         <v>2.57</v>
@@ -21812,7 +21812,7 @@
         <v>1.06</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT106" t="n">
         <v>0.93</v>
@@ -22218,7 +22218,7 @@
         <v>0.8</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU107" t="n">
         <v>1.04</v>
@@ -22621,7 +22621,7 @@
         <v>0.78</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT109" t="n">
         <v>1</v>
@@ -22824,10 +22824,10 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU110" t="n">
         <v>1.35</v>
@@ -23027,7 +23027,7 @@
         <v>1.44</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT111" t="n">
         <v>1.31</v>
@@ -23230,10 +23230,10 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU112" t="n">
         <v>2.07</v>
@@ -23433,10 +23433,10 @@
         <v>2.7</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU113" t="n">
         <v>2.64</v>
@@ -23636,7 +23636,7 @@
         <v>1.3</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT114" t="n">
         <v>1.31</v>
@@ -23839,10 +23839,10 @@
         <v>0.57</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU115" t="n">
         <v>1.44</v>
@@ -24248,7 +24248,7 @@
         <v>0.8</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU117" t="n">
         <v>1.12</v>
@@ -24857,7 +24857,7 @@
         <v>1.94</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU120" t="n">
         <v>1.38</v>
@@ -25060,7 +25060,7 @@
         <v>2.13</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>2.07</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU125" t="n">
         <v>1.8</v>
@@ -26275,7 +26275,7 @@
         <v>0.8</v>
       </c>
       <c r="AS127" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT127" t="n">
         <v>0.8</v>
@@ -26478,10 +26478,10 @@
         <v>0.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU128" t="n">
         <v>1.95</v>
@@ -26684,7 +26684,7 @@
         <v>3</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU129" t="n">
         <v>2.67</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT131" t="n">
         <v>2.19</v>
@@ -27290,7 +27290,7 @@
         <v>0.64</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27493,10 +27493,10 @@
         <v>1.18</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU133" t="n">
         <v>2.55</v>
@@ -28102,10 +28102,10 @@
         <v>1.18</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU136" t="n">
         <v>1.35</v>
@@ -28308,7 +28308,7 @@
         <v>1.06</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -28711,10 +28711,10 @@
         <v>0.7</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU139" t="n">
         <v>1.43</v>
@@ -29117,10 +29117,10 @@
         <v>1.08</v>
       </c>
       <c r="AS141" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU141" t="n">
         <v>1.42</v>
@@ -29323,7 +29323,7 @@
         <v>2.13</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU142" t="n">
         <v>1.53</v>
@@ -29932,7 +29932,7 @@
         <v>2.07</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU145" t="n">
         <v>1.68</v>
@@ -30132,7 +30132,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT146" t="n">
         <v>0.13</v>
@@ -30335,7 +30335,7 @@
         <v>0.82</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT147" t="n">
         <v>0.8</v>
@@ -30744,7 +30744,7 @@
         <v>0.8</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU149" t="n">
         <v>1.13</v>
@@ -30944,10 +30944,10 @@
         <v>0.73</v>
       </c>
       <c r="AS150" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU150" t="n">
         <v>1.37</v>
@@ -31350,7 +31350,7 @@
         <v>2.17</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT152" t="n">
         <v>2.19</v>
@@ -31553,7 +31553,7 @@
         <v>0.15</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT153" t="n">
         <v>0.13</v>
@@ -31962,7 +31962,7 @@
         <v>1.06</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU155" t="n">
         <v>1.33</v>
@@ -32162,10 +32162,10 @@
         <v>1.17</v>
       </c>
       <c r="AS156" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU156" t="n">
         <v>1.35</v>
@@ -32568,7 +32568,7 @@
         <v>1.08</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT158" t="n">
         <v>1.31</v>
@@ -32774,7 +32774,7 @@
         <v>0.88</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU159" t="n">
         <v>1.18</v>
@@ -32977,7 +32977,7 @@
         <v>0.8</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU160" t="n">
         <v>1.12</v>
@@ -33180,7 +33180,7 @@
         <v>2.07</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU161" t="n">
         <v>1.72</v>
@@ -33583,7 +33583,7 @@
         <v>0.14</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT163" t="n">
         <v>0.13</v>
@@ -33786,7 +33786,7 @@
         <v>1</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT164" t="n">
         <v>1</v>
@@ -34195,7 +34195,7 @@
         <v>1.94</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU166" t="n">
         <v>1.37</v>
@@ -34395,10 +34395,10 @@
         <v>0.54</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU167" t="n">
         <v>1.28</v>
@@ -34601,7 +34601,7 @@
         <v>3</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU168" t="n">
         <v>2.58</v>
@@ -34801,7 +34801,7 @@
         <v>2.23</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT169" t="n">
         <v>2.19</v>
@@ -35004,7 +35004,7 @@
         <v>2.29</v>
       </c>
       <c r="AS170" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT170" t="n">
         <v>2.19</v>
@@ -35210,7 +35210,7 @@
         <v>2.13</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU171" t="n">
         <v>1.51</v>
@@ -35616,7 +35616,7 @@
         <v>1.06</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU173" t="n">
         <v>1.4</v>
@@ -35816,10 +35816,10 @@
         <v>1.27</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU174" t="n">
         <v>1.48</v>
@@ -36019,7 +36019,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT175" t="n">
         <v>0.8</v>
@@ -36222,7 +36222,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT176" t="n">
         <v>1.31</v>
@@ -36425,10 +36425,10 @@
         <v>0.93</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -36628,10 +36628,10 @@
         <v>0.57</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU178" t="n">
         <v>2.53</v>
@@ -37240,7 +37240,7 @@
         <v>0.88</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AU181" t="n">
         <v>1.32</v>
@@ -37646,7 +37646,7 @@
         <v>2.07</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU183" t="n">
         <v>1.72</v>
@@ -37846,7 +37846,7 @@
         <v>1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT184" t="n">
         <v>0.93</v>
@@ -38712,6 +38712,1021 @@
         <v>17</v>
       </c>
       <c r="BK188" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2465548</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45031.35416666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>32</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>5</v>
+      </c>
+      <c r="R189" t="n">
+        <v>7</v>
+      </c>
+      <c r="S189" t="n">
+        <v>12</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2465551</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45031.45833333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>32</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>3</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['63', '71']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>6</v>
+      </c>
+      <c r="R190" t="n">
+        <v>6</v>
+      </c>
+      <c r="S190" t="n">
+        <v>12</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V190" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2465550</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45031.45833333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>32</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>2</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['23', '38']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2</v>
+      </c>
+      <c r="R191" t="n">
+        <v>3</v>
+      </c>
+      <c r="S191" t="n">
+        <v>5</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V191" t="n">
+        <v>4</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2465552</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45031.45833333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>32</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>5</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="n">
+        <v>7</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['26', '48', '80', '81', '86']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['45+2', '65']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>6</v>
+      </c>
+      <c r="R192" t="n">
+        <v>4</v>
+      </c>
+      <c r="S192" t="n">
+        <v>10</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V192" t="n">
+        <v>11</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2465549</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45032.33333333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>32</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>4</v>
+      </c>
+      <c r="K193" t="n">
+        <v>5</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>4</v>
+      </c>
+      <c r="N193" t="n">
+        <v>5</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['7', '12', '18', '27']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>5</v>
+      </c>
+      <c r="S193" t="n">
+        <v>9</v>
+      </c>
+      <c r="T193" t="n">
+        <v>10</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X193" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK193" t="n">
         <v>14</v>
       </c>
     </row>
